--- a/Solace_Plan.xlsx
+++ b/Solace_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Solace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16A154E-B258-42E5-ABBC-757731322EBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1ECE1D-E1FC-4F98-9A34-F353F3905A20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="1" xr2:uid="{3A42A00D-9C57-4330-A240-180E2EBC0D59}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="KEYS" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="612">
   <si>
     <t>Section</t>
   </si>
@@ -1278,13 +1277,592 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>398,881</t>
-  </si>
-  <si>
     <t>Duration (sec)</t>
   </si>
   <si>
-    <t>ugh</t>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@GameEngineSeries</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>35m29s</t>
+  </si>
+  <si>
+    <t>49m13s</t>
+  </si>
+  <si>
+    <t>49m23s</t>
+  </si>
+  <si>
+    <t>48m32s</t>
+  </si>
+  <si>
+    <t>52m12s</t>
+  </si>
+  <si>
+    <t>51m27s</t>
+  </si>
+  <si>
+    <t>65m03s</t>
+  </si>
+  <si>
+    <t>59m29s</t>
+  </si>
+  <si>
+    <t>71m23s</t>
+  </si>
+  <si>
+    <t>55m01s</t>
+  </si>
+  <si>
+    <t>83m17s</t>
+  </si>
+  <si>
+    <t>54m02s</t>
+  </si>
+  <si>
+    <t>05m01s</t>
+  </si>
+  <si>
+    <t>41m43s</t>
+  </si>
+  <si>
+    <t>48m54s</t>
+  </si>
+  <si>
+    <t>58m01s</t>
+  </si>
+  <si>
+    <t>57m10s</t>
+  </si>
+  <si>
+    <t>46m27s</t>
+  </si>
+  <si>
+    <t>59m13s</t>
+  </si>
+  <si>
+    <t>03m18s</t>
+  </si>
+  <si>
+    <t>56m30s</t>
+  </si>
+  <si>
+    <t>19m37s</t>
+  </si>
+  <si>
+    <t>24m10s</t>
+  </si>
+  <si>
+    <t>17m42s</t>
+  </si>
+  <si>
+    <t>19m53s</t>
+  </si>
+  <si>
+    <t>13m19s</t>
+  </si>
+  <si>
+    <t>08m23s</t>
+  </si>
+  <si>
+    <t>28m05s</t>
+  </si>
+  <si>
+    <t>25m35s</t>
+  </si>
+  <si>
+    <t>19m27s</t>
+  </si>
+  <si>
+    <t>14m42s</t>
+  </si>
+  <si>
+    <t>22m52s</t>
+  </si>
+  <si>
+    <t>17m39s</t>
+  </si>
+  <si>
+    <t>15m45s</t>
+  </si>
+  <si>
+    <t>24m36s</t>
+  </si>
+  <si>
+    <t>19m40s</t>
+  </si>
+  <si>
+    <t>27m09s</t>
+  </si>
+  <si>
+    <t>18m32s</t>
+  </si>
+  <si>
+    <t>23m13s</t>
+  </si>
+  <si>
+    <t>17m05s</t>
+  </si>
+  <si>
+    <t>15m31s</t>
+  </si>
+  <si>
+    <t>30m26s</t>
+  </si>
+  <si>
+    <t>29m04s</t>
+  </si>
+  <si>
+    <t>21m17s</t>
+  </si>
+  <si>
+    <t>23m06s</t>
+  </si>
+  <si>
+    <t>31m46s</t>
+  </si>
+  <si>
+    <t>22m43s</t>
+  </si>
+  <si>
+    <t>28m04s</t>
+  </si>
+  <si>
+    <t>15m53s</t>
+  </si>
+  <si>
+    <t>23m44s</t>
+  </si>
+  <si>
+    <t>33m01s</t>
+  </si>
+  <si>
+    <t>18m47s</t>
+  </si>
+  <si>
+    <t>16m23s</t>
+  </si>
+  <si>
+    <t>25m14s</t>
+  </si>
+  <si>
+    <t>18m03s</t>
+  </si>
+  <si>
+    <t>24m01s</t>
+  </si>
+  <si>
+    <t>22m21s</t>
+  </si>
+  <si>
+    <t>23m34s</t>
+  </si>
+  <si>
+    <t>20m04s</t>
+  </si>
+  <si>
+    <t>27m27s</t>
+  </si>
+  <si>
+    <t>13m41s</t>
+  </si>
+  <si>
+    <t>21m00s</t>
+  </si>
+  <si>
+    <t>29m53s</t>
+  </si>
+  <si>
+    <t>18m22s</t>
+  </si>
+  <si>
+    <t>26m45s</t>
+  </si>
+  <si>
+    <t>27m30s</t>
+  </si>
+  <si>
+    <t>29m20s</t>
+  </si>
+  <si>
+    <t>24m06s</t>
+  </si>
+  <si>
+    <t>35m31s</t>
+  </si>
+  <si>
+    <t>29m58s</t>
+  </si>
+  <si>
+    <t>05m54s</t>
+  </si>
+  <si>
+    <t>32m31s</t>
+  </si>
+  <si>
+    <t>25m54s</t>
+  </si>
+  <si>
+    <t>23m27s</t>
+  </si>
+  <si>
+    <t>23m35s</t>
+  </si>
+  <si>
+    <t>16m46s</t>
+  </si>
+  <si>
+    <t>20m48s</t>
+  </si>
+  <si>
+    <t>18m41s</t>
+  </si>
+  <si>
+    <t>20m00s</t>
+  </si>
+  <si>
+    <t>22m25s</t>
+  </si>
+  <si>
+    <t>22m02s</t>
+  </si>
+  <si>
+    <t>26m40s</t>
+  </si>
+  <si>
+    <t>12m41s</t>
+  </si>
+  <si>
+    <t>19m09s</t>
+  </si>
+  <si>
+    <t>18m24s</t>
+  </si>
+  <si>
+    <t>26m01s</t>
+  </si>
+  <si>
+    <t>24m56s</t>
+  </si>
+  <si>
+    <t>25m15s</t>
+  </si>
+  <si>
+    <t>29m38s</t>
+  </si>
+  <si>
+    <t>27m15s</t>
+  </si>
+  <si>
+    <t>34m09s</t>
+  </si>
+  <si>
+    <t>24m14s</t>
+  </si>
+  <si>
+    <t>19m08s</t>
+  </si>
+  <si>
+    <t>22m56s</t>
+  </si>
+  <si>
+    <t>20m33s</t>
+  </si>
+  <si>
+    <t>21m53s</t>
+  </si>
+  <si>
+    <t>18m19s</t>
+  </si>
+  <si>
+    <t>27m06s</t>
+  </si>
+  <si>
+    <t>17m24s</t>
+  </si>
+  <si>
+    <t>19m11s</t>
+  </si>
+  <si>
+    <t>16m04s</t>
+  </si>
+  <si>
+    <t>20m31s</t>
+  </si>
+  <si>
+    <t>20m23s</t>
+  </si>
+  <si>
+    <t>14m59s</t>
+  </si>
+  <si>
+    <t>24m09s</t>
+  </si>
+  <si>
+    <t>15m12s</t>
+  </si>
+  <si>
+    <t>22m36s</t>
+  </si>
+  <si>
+    <t>15m16s</t>
+  </si>
+  <si>
+    <t>21m58s</t>
+  </si>
+  <si>
+    <t>18m55s</t>
+  </si>
+  <si>
+    <t>15m55s</t>
+  </si>
+  <si>
+    <t>18m17s</t>
+  </si>
+  <si>
+    <t>18m11s</t>
+  </si>
+  <si>
+    <t>11m58s</t>
+  </si>
+  <si>
+    <t>19m43s</t>
+  </si>
+  <si>
+    <t>10m48s</t>
+  </si>
+  <si>
+    <t>13m54s</t>
+  </si>
+  <si>
+    <t>20m16s</t>
+  </si>
+  <si>
+    <t>18m51s</t>
+  </si>
+  <si>
+    <t>19m44s</t>
+  </si>
+  <si>
+    <t>09m10s</t>
+  </si>
+  <si>
+    <t>24m58s</t>
+  </si>
+  <si>
+    <t>20m01s</t>
+  </si>
+  <si>
+    <t>10m56s</t>
+  </si>
+  <si>
+    <t>17m19s</t>
+  </si>
+  <si>
+    <t>17m13s</t>
+  </si>
+  <si>
+    <t>25m11s</t>
+  </si>
+  <si>
+    <t>09m46s</t>
+  </si>
+  <si>
+    <t>25m30s</t>
+  </si>
+  <si>
+    <t>23m54s</t>
+  </si>
+  <si>
+    <t>31m10s</t>
+  </si>
+  <si>
+    <t>10m01s</t>
+  </si>
+  <si>
+    <t>25m26s</t>
+  </si>
+  <si>
+    <t>14m28s</t>
+  </si>
+  <si>
+    <t>17m36s</t>
+  </si>
+  <si>
+    <t>29m21s</t>
+  </si>
+  <si>
+    <t>17m50s</t>
+  </si>
+  <si>
+    <t>13m33s</t>
+  </si>
+  <si>
+    <t>19m42s</t>
+  </si>
+  <si>
+    <t>21m14s</t>
+  </si>
+  <si>
+    <t>13m29s</t>
+  </si>
+  <si>
+    <t>23m26s</t>
+  </si>
+  <si>
+    <t>19m23s</t>
+  </si>
+  <si>
+    <t>19m10s</t>
+  </si>
+  <si>
+    <t>20m49s</t>
+  </si>
+  <si>
+    <t>20m15s</t>
+  </si>
+  <si>
+    <t>18m39s</t>
+  </si>
+  <si>
+    <t>21m26s</t>
+  </si>
+  <si>
+    <t>11m19s</t>
+  </si>
+  <si>
+    <t>19m36s</t>
+  </si>
+  <si>
+    <t>22m05s</t>
+  </si>
+  <si>
+    <t>08m04s</t>
+  </si>
+  <si>
+    <t>29m10s</t>
+  </si>
+  <si>
+    <t>19m58s</t>
+  </si>
+  <si>
+    <t>11m06s</t>
+  </si>
+  <si>
+    <t>29m08s</t>
+  </si>
+  <si>
+    <t>29m57s</t>
+  </si>
+  <si>
+    <t>17m47s</t>
+  </si>
+  <si>
+    <t>14m43s</t>
+  </si>
+  <si>
+    <t>08m12s</t>
+  </si>
+  <si>
+    <t>23m23s</t>
+  </si>
+  <si>
+    <t>24m51s</t>
+  </si>
+  <si>
+    <t>07m55s</t>
+  </si>
+  <si>
+    <t>17m33s</t>
+  </si>
+  <si>
+    <t>22m48s</t>
+  </si>
+  <si>
+    <t>09m31s</t>
+  </si>
+  <si>
+    <t>08m19s</t>
+  </si>
+  <si>
+    <t>26m38s</t>
+  </si>
+  <si>
+    <t>22m28s</t>
+  </si>
+  <si>
+    <t>21m40s</t>
+  </si>
+  <si>
+    <t>15m46s</t>
+  </si>
+  <si>
+    <t>21m07s</t>
+  </si>
+  <si>
+    <t>12m50s</t>
+  </si>
+  <si>
+    <t>20m22s</t>
+  </si>
+  <si>
+    <t>12m20s</t>
+  </si>
+  <si>
+    <t>18m58s</t>
+  </si>
+  <si>
+    <t>10m07s</t>
+  </si>
+  <si>
+    <t>04m44s</t>
+  </si>
+  <si>
+    <t>21m28s</t>
+  </si>
+  <si>
+    <t>19m18s</t>
+  </si>
+  <si>
+    <t>14m32s</t>
+  </si>
+  <si>
+    <t>15m42s</t>
+  </si>
+  <si>
+    <t>21m45s</t>
+  </si>
+  <si>
+    <t>11m01s</t>
+  </si>
+  <si>
+    <t>17m25s</t>
+  </si>
+  <si>
+    <t>13m45s</t>
+  </si>
+  <si>
+    <t>24m07s</t>
+  </si>
+  <si>
+    <t>6648 min 1 sec</t>
+  </si>
+  <si>
+    <t>398 881 sec</t>
+  </si>
+  <si>
+    <t>110 hr 48 min</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1870,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ am/pm"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1330,16 +1908,18 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1453,10 +2033,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1517,33 +2098,40 @@
     <xf numFmtId="15" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2238,10 +2826,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F24280-107B-4A2D-B2C2-14E940A88640}">
-  <dimension ref="A1:O211"/>
+  <dimension ref="A1:K211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E208" sqref="E208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2249,4153 +2838,4114 @@
     <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="33" customFormat="1">
+      <c r="A1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="G1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="H1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="I1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="J1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="23">
-        <v>45686</v>
-      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="J2" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="K2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="10">
-        <v>2020</v>
-      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="12"/>
       <c r="B4" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="27"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="17">
         <v>1</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="34" t="s">
         <v>241</v>
       </c>
       <c r="D5" s="18">
         <v>2129</v>
       </c>
-      <c r="E5" s="29">
-        <v>1.4784722222222222</v>
-      </c>
-      <c r="F5" s="31">
-        <v>1.4784722222222222</v>
-      </c>
-      <c r="G5" s="32">
-        <v>1.4784722222222222</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="32" t="s">
-        <v>418</v>
-      </c>
+      <c r="E5" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I5" s="16"/>
       <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="17">
         <v>2</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="34" t="s">
         <v>242</v>
       </c>
       <c r="D6" s="18">
         <v>2953</v>
       </c>
-      <c r="E6" s="29">
-        <v>2.0506944444444444</v>
-      </c>
-      <c r="F6" s="29">
-        <v>2.0506944444444444</v>
-      </c>
+      <c r="E6" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="F6" s="16"/>
       <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="H6" t="s">
+        <v>419</v>
+      </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="34" t="s">
         <v>243</v>
       </c>
       <c r="D7" s="18">
         <v>2963</v>
       </c>
-      <c r="E7" s="29">
-        <v>2.057638888888889</v>
-      </c>
-      <c r="F7" s="29">
-        <v>2.057638888888889</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="E7" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="34" t="s">
         <v>244</v>
       </c>
       <c r="D8" s="18">
         <v>2912</v>
       </c>
-      <c r="E8" s="29">
-        <v>2.0222222222222221</v>
-      </c>
-      <c r="F8" s="29">
-        <v>2.0222222222222221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="E8" s="28" t="s">
+        <v>425</v>
+      </c>
+      <c r="H8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="34" t="s">
         <v>245</v>
       </c>
       <c r="D9" s="18">
         <v>3132</v>
       </c>
-      <c r="E9" s="29">
-        <v>2.1750000000000003</v>
-      </c>
-      <c r="F9" s="29">
-        <v>2.1750000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="E9" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="H9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="34" t="s">
         <v>246</v>
       </c>
       <c r="D10" s="18">
         <v>3087</v>
       </c>
-      <c r="E10" s="29">
-        <v>2.1437500000000003</v>
-      </c>
-      <c r="F10" s="29">
-        <v>2.1437500000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="E10" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="H10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="34" t="s">
         <v>247</v>
       </c>
       <c r="D11" s="18">
         <v>3903</v>
       </c>
-      <c r="E11" s="29">
-        <v>4.5173611111111116E-2</v>
-      </c>
-      <c r="F11" s="29">
-        <v>4.5173611111111116E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="E11" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H11" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="34" t="s">
         <v>248</v>
       </c>
       <c r="D12" s="18">
         <v>3569</v>
       </c>
-      <c r="E12" s="29">
-        <v>2.4784722222222224</v>
-      </c>
-      <c r="F12" s="29">
-        <v>2.4784722222222224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="E12" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="H12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="34" t="s">
         <v>249</v>
       </c>
       <c r="D13" s="18">
         <v>4283</v>
       </c>
-      <c r="E13" s="29">
-        <v>4.9571759259259253E-2</v>
-      </c>
-      <c r="F13" s="29">
-        <v>4.9571759259259253E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="E13" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="H13" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="34" t="s">
         <v>250</v>
       </c>
       <c r="D14" s="18">
         <v>3301</v>
       </c>
-      <c r="E14" s="29">
-        <v>2.2923611111111111</v>
-      </c>
-      <c r="F14" s="29">
-        <v>2.2923611111111111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="E14" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H14" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="34" t="s">
         <v>251</v>
       </c>
       <c r="D15" s="18">
         <v>4997</v>
       </c>
-      <c r="E15" s="29">
-        <v>5.783564814814815E-2</v>
-      </c>
-      <c r="F15" s="29">
-        <v>5.783564814814815E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="E15" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="H15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="34" t="s">
         <v>252</v>
       </c>
       <c r="D16" s="18">
         <v>3242</v>
       </c>
-      <c r="E16" s="29">
-        <v>2.2513888888888887</v>
-      </c>
-      <c r="F16" s="29">
-        <v>2.2513888888888887</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="E16" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="H16" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="18"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="18">
         <v>301</v>
       </c>
-      <c r="E17" s="29">
-        <v>0.20902777777777778</v>
-      </c>
-      <c r="F17" s="29">
-        <v>0.20902777777777778</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="E17" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="H17" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="34" t="s">
         <v>253</v>
       </c>
       <c r="D18" s="18">
         <v>2503</v>
       </c>
-      <c r="E18" s="29">
-        <v>1.7381944444444446</v>
-      </c>
-      <c r="F18" s="29">
-        <v>1.7381944444444446</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="E18" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="H18" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="34" t="s">
         <v>254</v>
       </c>
       <c r="D19" s="18">
         <v>2934</v>
       </c>
-      <c r="E19" s="29">
-        <v>2.0375000000000001</v>
-      </c>
-      <c r="F19" s="29">
-        <v>2.0375000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="E19" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="H19" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="34" t="s">
         <v>255</v>
       </c>
       <c r="D20" s="18">
         <v>3481</v>
       </c>
-      <c r="E20" s="29">
-        <v>2.4243055555555553</v>
-      </c>
-      <c r="F20" s="29">
-        <v>2.4243055555555553</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="E20" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="H20" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="34" t="s">
         <v>256</v>
       </c>
       <c r="D21" s="18">
         <v>3430</v>
       </c>
-      <c r="E21" s="29">
-        <v>2.3819444444444442</v>
-      </c>
-      <c r="F21" s="29">
-        <v>2.3819444444444442</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="E21" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="H21" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="34" t="s">
         <v>257</v>
       </c>
       <c r="D22" s="18">
         <v>2787</v>
       </c>
-      <c r="E22" s="29">
-        <v>1.9354166666666668</v>
-      </c>
-      <c r="F22" s="29">
-        <v>1.9354166666666668</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="E22" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="H22" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="34" t="s">
         <v>258</v>
       </c>
       <c r="D23" s="18">
         <v>3553</v>
       </c>
-      <c r="E23" s="29">
-        <v>2.4673611111111113</v>
-      </c>
-      <c r="F23" s="29">
-        <v>2.4673611111111113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="E23" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="H23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="18"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="18">
         <v>198</v>
       </c>
-      <c r="E24" s="30">
-        <v>0.13749999999999998</v>
-      </c>
-      <c r="F24" s="30">
-        <v>0.13749999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="E24" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="H24" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>21</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="34" t="s">
         <v>259</v>
       </c>
       <c r="D25" s="18">
         <v>3390</v>
       </c>
-      <c r="E25" s="29">
-        <v>2.3541666666666665</v>
-      </c>
-      <c r="F25" s="29">
-        <v>2.3541666666666665</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="E25" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="H25" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>22</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="34" t="s">
         <v>260</v>
       </c>
       <c r="D26" s="18">
         <v>1177</v>
       </c>
-      <c r="E26" s="29">
-        <v>0.81736111111111109</v>
-      </c>
-      <c r="F26" s="29">
-        <v>0.81736111111111109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="E26" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="H26" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>23</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="34" t="s">
         <v>261</v>
       </c>
       <c r="D27" s="18">
         <v>1450</v>
       </c>
-      <c r="E27" s="29">
-        <v>1.0069444444444444</v>
-      </c>
-      <c r="F27" s="29">
-        <v>1.0069444444444444</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="E27" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="H27" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>24</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="34" t="s">
         <v>262</v>
       </c>
       <c r="D28" s="18">
         <v>1062</v>
       </c>
-      <c r="E28" s="29">
-        <v>0.73749999999999993</v>
-      </c>
-      <c r="F28" s="29">
-        <v>0.73749999999999993</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="E28" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="H28" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>25</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="34" t="s">
         <v>263</v>
       </c>
       <c r="D29" s="18">
         <v>1450</v>
       </c>
-      <c r="E29" s="29">
-        <v>1.0069444444444444</v>
-      </c>
-      <c r="F29" s="29">
-        <v>1.0069444444444444</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="E29" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="H29" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>26</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="34" t="s">
         <v>264</v>
       </c>
       <c r="D30" s="18">
         <v>1193</v>
       </c>
-      <c r="E30" s="29">
-        <v>0.82847222222222217</v>
-      </c>
-      <c r="F30" s="29">
-        <v>0.82847222222222217</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="E30" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="H30" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>27</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="34" t="s">
         <v>265</v>
       </c>
       <c r="D31" s="18">
         <v>799</v>
       </c>
-      <c r="E31" s="29">
-        <v>0.55486111111111114</v>
-      </c>
-      <c r="F31" s="29">
-        <v>0.55486111111111114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="E31" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="H31" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>28</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="18"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="18">
         <v>503</v>
       </c>
-      <c r="E32" s="29">
-        <v>0.34930555555555554</v>
-      </c>
-      <c r="F32" s="29">
-        <v>0.34930555555555554</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="E32" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="H32" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>29</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="34" t="s">
         <v>266</v>
       </c>
       <c r="D33" s="18">
         <v>1685</v>
       </c>
-      <c r="E33" s="29">
-        <v>1.1701388888888888</v>
-      </c>
-      <c r="F33" s="29">
-        <v>1.1701388888888888</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="E33" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="H33" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>30</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="34" t="s">
         <v>267</v>
       </c>
       <c r="D34" s="18">
         <v>1535</v>
       </c>
-      <c r="E34" s="29">
-        <v>1.0659722222222221</v>
-      </c>
-      <c r="F34" s="29">
-        <v>1.0659722222222221</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="E34" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="H34" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>31</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="34" t="s">
         <v>268</v>
       </c>
       <c r="D35" s="18">
         <v>1167</v>
       </c>
-      <c r="E35" s="29">
-        <v>0.81041666666666667</v>
-      </c>
-      <c r="F35" s="29">
-        <v>0.81041666666666667</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="E35" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="H35" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>32</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="34" t="s">
         <v>269</v>
       </c>
       <c r="D36" s="18">
         <v>882</v>
       </c>
-      <c r="E36" s="29">
-        <v>0.61249999999999993</v>
-      </c>
-      <c r="F36" s="29">
-        <v>0.61249999999999993</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="E36" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="H36" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>33</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="34" t="s">
         <v>270</v>
       </c>
       <c r="D37" s="18">
         <v>1372</v>
       </c>
-      <c r="E37" s="29">
-        <v>0.95277777777777783</v>
-      </c>
-      <c r="F37" s="29">
-        <v>0.95277777777777783</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="E37" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="H37" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>34</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="34" t="s">
         <v>271</v>
       </c>
       <c r="D38" s="18">
         <v>1059</v>
       </c>
-      <c r="E38" s="29">
-        <v>0.73541666666666661</v>
-      </c>
-      <c r="F38" s="29">
-        <v>0.73541666666666661</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="E38" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="H38" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>35</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="34" t="s">
         <v>272</v>
       </c>
       <c r="D39" s="18">
         <v>945</v>
       </c>
-      <c r="E39" s="29">
-        <v>0.65625</v>
-      </c>
-      <c r="F39" s="29">
-        <v>0.65625</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="E39" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="H39" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>36</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="34" t="s">
         <v>273</v>
       </c>
       <c r="D40" s="18">
         <v>1476</v>
       </c>
-      <c r="E40" s="29">
-        <v>1.0250000000000001</v>
-      </c>
-      <c r="F40" s="29">
-        <v>1.0250000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="E40" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="H40" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>37</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="34" t="s">
         <v>274</v>
       </c>
       <c r="D41" s="18">
         <v>1180</v>
       </c>
-      <c r="E41" s="29">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="F41" s="29">
-        <v>0.81944444444444453</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="E41" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="H41" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>38</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="34" t="s">
         <v>275</v>
       </c>
       <c r="D42" s="18">
         <v>1629</v>
       </c>
-      <c r="E42" s="29">
-        <v>1.1312499999999999</v>
-      </c>
-      <c r="F42" s="29">
-        <v>1.1312499999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="E42" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="H42" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>39</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="34" t="s">
         <v>276</v>
       </c>
       <c r="D43" s="18">
         <v>1112</v>
       </c>
-      <c r="E43" s="29">
-        <v>0.77222222222222225</v>
-      </c>
-      <c r="F43" s="29">
-        <v>0.77222222222222225</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="E43" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="H43" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>40</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="34" t="s">
         <v>277</v>
       </c>
       <c r="D44" s="18">
         <v>1393</v>
       </c>
-      <c r="E44" s="29">
-        <v>0.96736111111111101</v>
-      </c>
-      <c r="F44" s="29">
-        <v>0.96736111111111101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="E44" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="H44" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>41</v>
       </c>
       <c r="B45" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="34" t="s">
         <v>278</v>
       </c>
       <c r="D45" s="18">
         <v>1025</v>
       </c>
-      <c r="E45" s="29">
-        <v>0.71180555555555547</v>
-      </c>
-      <c r="F45" s="29">
-        <v>0.71180555555555547</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="E45" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="H45" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>42</v>
       </c>
       <c r="B46" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="34" t="s">
         <v>279</v>
       </c>
       <c r="D46" s="18">
         <v>931</v>
       </c>
-      <c r="E46" s="29">
-        <v>0.64652777777777781</v>
-      </c>
-      <c r="F46" s="29">
-        <v>0.64652777777777781</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="E46" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="H46" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>43</v>
       </c>
       <c r="B47" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="34" t="s">
         <v>280</v>
       </c>
       <c r="D47" s="18">
         <v>1826</v>
       </c>
-      <c r="E47" s="29">
-        <v>1.2680555555555555</v>
-      </c>
-      <c r="F47" s="29">
-        <v>1.2680555555555555</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="E47" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="H47" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>44</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="34" t="s">
         <v>281</v>
       </c>
       <c r="D48" s="18">
         <v>1744</v>
       </c>
-      <c r="E48" s="29">
-        <v>1.211111111111111</v>
-      </c>
-      <c r="F48" s="29">
-        <v>1.211111111111111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="E48" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="H48" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>45</v>
       </c>
       <c r="B49" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="34" t="s">
         <v>282</v>
       </c>
       <c r="D49" s="18">
         <v>1277</v>
       </c>
-      <c r="E49" s="29">
-        <v>0.88680555555555562</v>
-      </c>
-      <c r="F49" s="29">
-        <v>0.88680555555555562</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="E49" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="H49" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>46</v>
       </c>
       <c r="B50" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="34" t="s">
         <v>283</v>
       </c>
       <c r="D50" s="18">
         <v>1386</v>
       </c>
-      <c r="E50" s="29">
-        <v>0.96250000000000002</v>
-      </c>
-      <c r="F50" s="29">
-        <v>0.96250000000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="E50" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="H50" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>47</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="34" t="s">
         <v>284</v>
       </c>
       <c r="D51" s="18">
         <v>1906</v>
       </c>
-      <c r="E51" s="29">
-        <v>1.3236111111111111</v>
-      </c>
-      <c r="F51" s="29">
-        <v>1.3236111111111111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="E51" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="H51" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>48</v>
       </c>
       <c r="B52" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="34" t="s">
         <v>285</v>
       </c>
       <c r="D52" s="18">
         <v>1363</v>
       </c>
-      <c r="E52" s="29">
-        <v>0.94652777777777775</v>
-      </c>
-      <c r="F52" s="29">
-        <v>0.94652777777777775</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="E52" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="H52" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>49</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="34" t="s">
         <v>286</v>
       </c>
       <c r="D53" s="18">
         <v>1684</v>
       </c>
-      <c r="E53" s="29">
-        <v>1.1694444444444445</v>
-      </c>
-      <c r="F53" s="29">
-        <v>1.1694444444444445</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="E53" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="H53" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>50</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="34" t="s">
         <v>287</v>
       </c>
       <c r="D54" s="18">
         <v>953</v>
       </c>
-      <c r="E54" s="29">
-        <v>0.66180555555555554</v>
-      </c>
-      <c r="F54" s="29">
-        <v>0.66180555555555554</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="E54" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="H54" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>51</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="34" t="s">
         <v>288</v>
       </c>
       <c r="D55" s="18">
         <v>1424</v>
       </c>
-      <c r="E55" s="29">
-        <v>0.98888888888888893</v>
-      </c>
-      <c r="F55" s="29">
-        <v>0.98888888888888893</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="E55" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="H55" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>52</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="34" t="s">
         <v>289</v>
       </c>
       <c r="D56" s="18">
         <v>1981</v>
       </c>
-      <c r="E56" s="29">
-        <v>1.3756944444444443</v>
-      </c>
-      <c r="F56" s="29">
-        <v>1.3756944444444443</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="E56" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="H56" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>53</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="34" t="s">
         <v>290</v>
       </c>
       <c r="D57" s="18">
         <v>1127</v>
       </c>
-      <c r="E57" s="29">
-        <v>0.78263888888888899</v>
-      </c>
-      <c r="F57" s="29">
-        <v>0.78263888888888899</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="E57" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="H57" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>54</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="34" t="s">
         <v>291</v>
       </c>
       <c r="D58" s="18">
         <v>983</v>
       </c>
-      <c r="E58" s="29">
-        <v>0.68263888888888891</v>
-      </c>
-      <c r="F58" s="29">
-        <v>0.68263888888888891</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="E58" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="H58" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>55</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="34" t="s">
         <v>292</v>
       </c>
       <c r="D59" s="18">
         <v>1514</v>
       </c>
-      <c r="E59" s="29">
-        <v>1.0513888888888889</v>
-      </c>
-      <c r="F59" s="29">
-        <v>1.0513888888888889</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="E59" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="H59" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>56</v>
       </c>
       <c r="B60" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="34" t="s">
         <v>293</v>
       </c>
       <c r="D60" s="18">
         <v>1083</v>
       </c>
-      <c r="E60" s="29">
-        <v>0.75208333333333333</v>
-      </c>
-      <c r="F60" s="29">
-        <v>0.75208333333333333</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="E60" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="H60" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>57</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="34" t="s">
         <v>294</v>
       </c>
       <c r="D61" s="18">
         <v>1441</v>
       </c>
-      <c r="E61" s="29">
-        <v>1.0006944444444443</v>
-      </c>
-      <c r="F61" s="29">
-        <v>1.0006944444444443</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="E61" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="H61" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>58</v>
       </c>
       <c r="B62" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="34" t="s">
         <v>295</v>
       </c>
       <c r="D62" s="18">
         <v>1341</v>
       </c>
-      <c r="E62" s="29">
-        <v>0.93125000000000002</v>
-      </c>
-      <c r="F62" s="29">
-        <v>0.93125000000000002</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="E62" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="H62" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>59</v>
       </c>
       <c r="B63" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="34" t="s">
         <v>296</v>
       </c>
       <c r="D63" s="18">
         <v>1414</v>
       </c>
-      <c r="E63" s="29">
-        <v>0.9819444444444444</v>
-      </c>
-      <c r="F63" s="29">
-        <v>0.9819444444444444</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="E63" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="H63" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>60</v>
       </c>
       <c r="B64" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="34" t="s">
         <v>297</v>
       </c>
       <c r="D64" s="18">
         <v>1204</v>
       </c>
-      <c r="E64" s="29">
-        <v>0.83611111111111114</v>
-      </c>
-      <c r="F64" s="29">
-        <v>0.83611111111111114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="E64" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="H64" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>61</v>
       </c>
       <c r="B65" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="34" t="s">
         <v>298</v>
       </c>
       <c r="D65" s="18">
         <v>1647</v>
       </c>
-      <c r="E65" s="29">
-        <v>1.14375</v>
-      </c>
-      <c r="F65" s="29">
-        <v>1.14375</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="E65" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="H65" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>62</v>
       </c>
       <c r="B66" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="34" t="s">
         <v>299</v>
       </c>
       <c r="D66" s="18">
         <v>821</v>
       </c>
-      <c r="E66" s="29">
-        <v>0.57013888888888886</v>
-      </c>
-      <c r="F66" s="29">
-        <v>0.57013888888888886</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="E66" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="H66" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>63</v>
       </c>
       <c r="B67" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="34" t="s">
         <v>300</v>
       </c>
       <c r="D67" s="18">
         <v>1260</v>
       </c>
-      <c r="E67" s="29">
-        <v>0.875</v>
-      </c>
-      <c r="F67" s="29">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="E67" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="H67" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>64</v>
       </c>
       <c r="B68" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="34" t="s">
         <v>301</v>
       </c>
       <c r="D68" s="18">
         <v>1793</v>
       </c>
-      <c r="E68" s="29">
-        <v>1.2451388888888888</v>
-      </c>
-      <c r="F68" s="29">
-        <v>1.2451388888888888</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="E68" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="H68" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>65</v>
       </c>
       <c r="B69" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="34" t="s">
         <v>302</v>
       </c>
       <c r="D69" s="18">
         <v>1102</v>
       </c>
-      <c r="E69" s="29">
-        <v>0.76527777777777783</v>
-      </c>
-      <c r="F69" s="29">
-        <v>0.76527777777777783</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="E69" s="28" t="s">
+        <v>485</v>
+      </c>
+      <c r="H69" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>66</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="34" t="s">
         <v>303</v>
       </c>
       <c r="D70" s="18">
         <v>1605</v>
       </c>
-      <c r="E70" s="29">
-        <v>1.1145833333333333</v>
-      </c>
-      <c r="F70" s="29">
-        <v>1.1145833333333333</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="E70" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="H70" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>67</v>
       </c>
       <c r="B71" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="34" t="s">
         <v>304</v>
       </c>
       <c r="D71" s="18">
         <v>1650</v>
       </c>
-      <c r="E71" s="29">
-        <v>1.1458333333333333</v>
-      </c>
-      <c r="F71" s="29">
-        <v>1.1458333333333333</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="E71" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="H71" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>68</v>
       </c>
       <c r="B72" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="34" t="s">
         <v>305</v>
       </c>
       <c r="D72" s="18">
         <v>1760</v>
       </c>
-      <c r="E72" s="29">
-        <v>1.2222222222222221</v>
-      </c>
-      <c r="F72" s="29">
-        <v>1.2222222222222221</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="E72" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="H72" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>69</v>
       </c>
       <c r="B73" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="34" t="s">
         <v>306</v>
       </c>
       <c r="D73" s="18">
         <v>1446</v>
       </c>
-      <c r="E73" s="29">
-        <v>1.0041666666666667</v>
-      </c>
-      <c r="F73" s="29">
-        <v>1.0041666666666667</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="E73" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="H73" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>70</v>
       </c>
       <c r="B74" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="34" t="s">
         <v>307</v>
       </c>
       <c r="D74" s="18">
         <v>2131</v>
       </c>
-      <c r="E74" s="29">
-        <v>1.4798611111111111</v>
-      </c>
-      <c r="F74" s="29">
-        <v>1.4798611111111111</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="E74" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="H74" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>71</v>
       </c>
       <c r="B75" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="34" t="s">
         <v>308</v>
       </c>
       <c r="D75" s="18">
         <v>1798</v>
       </c>
-      <c r="E75" s="29">
-        <v>1.2486111111111111</v>
-      </c>
-      <c r="F75" s="29">
-        <v>1.2486111111111111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="E75" s="28" t="s">
+        <v>491</v>
+      </c>
+      <c r="H75" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>72</v>
       </c>
       <c r="B76" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="34" t="s">
         <v>309</v>
       </c>
       <c r="D76" s="18">
         <v>354</v>
       </c>
-      <c r="E76" s="29">
-        <v>0.24583333333333335</v>
-      </c>
-      <c r="F76" s="29">
-        <v>0.24583333333333335</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="E76" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="H76" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>73</v>
       </c>
       <c r="B77" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="34" t="s">
         <v>310</v>
       </c>
       <c r="D77" s="18">
         <v>1951</v>
       </c>
-      <c r="E77" s="29">
-        <v>1.3548611111111111</v>
-      </c>
-      <c r="F77" s="29">
-        <v>1.3548611111111111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="E77" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="H77" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>74</v>
       </c>
       <c r="B78" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="34" t="s">
         <v>311</v>
       </c>
       <c r="D78" s="18">
         <v>1554</v>
       </c>
-      <c r="E78" s="29">
-        <v>1.0791666666666666</v>
-      </c>
-      <c r="F78" s="29">
-        <v>1.0791666666666666</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="E78" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="H78" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>75</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="34" t="s">
         <v>312</v>
       </c>
       <c r="D79" s="18">
         <v>1407</v>
       </c>
-      <c r="E79" s="29">
-        <v>0.9770833333333333</v>
-      </c>
-      <c r="F79" s="29">
-        <v>0.9770833333333333</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="E79" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="H79" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>76</v>
       </c>
       <c r="B80" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="34" t="s">
         <v>313</v>
       </c>
       <c r="D80" s="18">
         <v>1415</v>
       </c>
-      <c r="E80" s="29">
-        <v>0.98263888888888884</v>
-      </c>
-      <c r="F80" s="29">
-        <v>0.98263888888888884</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="E80" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="H80" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>77</v>
       </c>
       <c r="B81" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="34" t="s">
         <v>314</v>
       </c>
       <c r="D81" s="18">
         <v>1006</v>
       </c>
-      <c r="E81" s="29">
-        <v>0.69861111111111107</v>
-      </c>
-      <c r="F81" s="29">
-        <v>0.69861111111111107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="E81" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="H81" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>78</v>
       </c>
       <c r="B82" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="34" t="s">
         <v>315</v>
       </c>
       <c r="D82" s="18">
         <v>1248</v>
       </c>
-      <c r="E82" s="29">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="F82" s="29">
-        <v>0.8666666666666667</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="E82" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="H82" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>79</v>
       </c>
       <c r="B83" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="34" t="s">
         <v>316</v>
       </c>
       <c r="D83" s="18">
         <v>1121</v>
       </c>
-      <c r="E83" s="29">
-        <v>0.77847222222222223</v>
-      </c>
-      <c r="F83" s="29">
-        <v>0.77847222222222223</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="E83" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="H83" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>80</v>
       </c>
       <c r="B84" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="34" t="s">
         <v>317</v>
       </c>
       <c r="D84" s="18">
         <v>1200</v>
       </c>
-      <c r="E84" s="29">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F84" s="29">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="E84" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="H84" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>81</v>
       </c>
       <c r="B85" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="34" t="s">
         <v>318</v>
       </c>
       <c r="D85" s="18">
         <v>1345</v>
       </c>
-      <c r="E85" s="29">
-        <v>0.93402777777777779</v>
-      </c>
-      <c r="F85" s="29">
-        <v>0.93402777777777779</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="E85" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="H85" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>82</v>
       </c>
       <c r="B86" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C86" s="34" t="s">
         <v>319</v>
       </c>
       <c r="D86" s="18">
         <v>1322</v>
       </c>
-      <c r="E86" s="29">
-        <v>0.91805555555555562</v>
-      </c>
-      <c r="F86" s="29">
-        <v>0.91805555555555562</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="E86" s="28" t="s">
+        <v>502</v>
+      </c>
+      <c r="H86" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>83</v>
       </c>
       <c r="B87" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C87" s="18" t="s">
+      <c r="C87" s="34" t="s">
         <v>320</v>
       </c>
       <c r="D87" s="18">
         <v>1600</v>
       </c>
-      <c r="E87" s="29">
-        <v>1.1111111111111112</v>
-      </c>
-      <c r="F87" s="29">
-        <v>1.1111111111111112</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="E87" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="H87" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>84</v>
       </c>
       <c r="B88" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="34" t="s">
         <v>321</v>
       </c>
       <c r="D88" s="18">
         <v>1363</v>
       </c>
-      <c r="E88" s="29">
-        <v>0.94652777777777775</v>
-      </c>
-      <c r="F88" s="29">
-        <v>0.94652777777777775</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="E88" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="H88" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>85</v>
       </c>
       <c r="B89" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="34" t="s">
         <v>322</v>
       </c>
       <c r="D89" s="18">
         <v>761</v>
       </c>
-      <c r="E89" s="29">
-        <v>0.52847222222222223</v>
-      </c>
-      <c r="F89" s="29">
-        <v>0.52847222222222223</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="E89" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H89" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>86</v>
       </c>
       <c r="B90" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="34" t="s">
         <v>323</v>
       </c>
       <c r="D90" s="18">
         <v>1149</v>
       </c>
-      <c r="E90" s="29">
-        <v>0.79791666666666661</v>
-      </c>
-      <c r="F90" s="29">
-        <v>0.79791666666666661</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="E90" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H90" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>87</v>
       </c>
       <c r="B91" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="C91" s="34" t="s">
         <v>324</v>
       </c>
       <c r="D91" s="18">
         <v>1104</v>
       </c>
-      <c r="E91" s="29">
-        <v>0.76666666666666661</v>
-      </c>
-      <c r="F91" s="29">
-        <v>0.76666666666666661</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="E91" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H91" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>88</v>
       </c>
       <c r="B92" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C92" s="34" t="s">
         <v>325</v>
       </c>
       <c r="D92" s="18">
         <v>1561</v>
       </c>
-      <c r="E92" s="29">
-        <v>1.0840277777777778</v>
-      </c>
-      <c r="F92" s="29">
-        <v>1.0840277777777778</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="E92" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H92" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>89</v>
       </c>
       <c r="B93" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C93" s="18" t="s">
+      <c r="C93" s="34" t="s">
         <v>326</v>
       </c>
       <c r="D93" s="18">
         <v>1496</v>
       </c>
-      <c r="E93" s="29">
-        <v>1.038888888888889</v>
-      </c>
-      <c r="F93" s="29">
-        <v>1.038888888888889</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="E93" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H93" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>90</v>
       </c>
       <c r="B94" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="34" t="s">
         <v>327</v>
       </c>
       <c r="D94" s="18">
         <v>1515</v>
       </c>
-      <c r="E94" s="29">
-        <v>1.0520833333333333</v>
-      </c>
-      <c r="F94" s="29">
-        <v>1.0520833333333333</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="E94" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H94" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>91</v>
       </c>
       <c r="B95" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="C95" s="34" t="s">
         <v>328</v>
       </c>
       <c r="D95" s="18">
         <v>1778</v>
       </c>
-      <c r="E95" s="29">
-        <v>1.2347222222222223</v>
-      </c>
-      <c r="F95" s="29">
-        <v>1.2347222222222223</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="E95" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H95" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>92</v>
       </c>
       <c r="B96" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="C96" s="34" t="s">
         <v>329</v>
       </c>
       <c r="D96" s="18">
         <v>1635</v>
       </c>
-      <c r="E96" s="29">
-        <v>1.1354166666666667</v>
-      </c>
-      <c r="F96" s="29">
-        <v>1.1354166666666667</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="E96" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H96" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>93</v>
       </c>
       <c r="B97" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C97" s="18" t="s">
+      <c r="C97" s="34" t="s">
         <v>330</v>
       </c>
       <c r="D97" s="18">
         <v>2049</v>
       </c>
-      <c r="E97" s="29">
-        <v>1.4229166666666666</v>
-      </c>
-      <c r="F97" s="29">
-        <v>1.4229166666666666</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="E97" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="H97" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>94</v>
       </c>
       <c r="B98" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="34" t="s">
         <v>331</v>
       </c>
       <c r="D98" s="18">
         <v>1454</v>
       </c>
-      <c r="E98" s="29">
-        <v>1.0097222222222222</v>
-      </c>
-      <c r="F98" s="29">
-        <v>1.0097222222222222</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="E98" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="H98" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>95</v>
       </c>
       <c r="B99" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C99" s="18" t="s">
+      <c r="C99" s="34" t="s">
         <v>332</v>
       </c>
       <c r="D99" s="18">
         <v>1148</v>
       </c>
-      <c r="E99" s="29">
-        <v>0.79722222222222217</v>
-      </c>
-      <c r="F99" s="29">
-        <v>0.79722222222222217</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="E99" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="H99" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>96</v>
       </c>
       <c r="B100" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="C100" s="34" t="s">
         <v>333</v>
       </c>
       <c r="D100" s="18">
         <v>1376</v>
       </c>
-      <c r="E100" s="29">
-        <v>0.9555555555555556</v>
-      </c>
-      <c r="F100" s="29">
-        <v>0.9555555555555556</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="E100" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="H100" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>97</v>
       </c>
       <c r="B101" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C101" s="18" t="s">
+      <c r="C101" s="34" t="s">
         <v>334</v>
       </c>
       <c r="D101" s="18">
         <v>1233</v>
       </c>
-      <c r="E101" s="29">
-        <v>0.85625000000000007</v>
-      </c>
-      <c r="F101" s="29">
-        <v>0.85625000000000007</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="E101" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="H101" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>98</v>
       </c>
       <c r="B102" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="C102" s="34" t="s">
         <v>335</v>
       </c>
       <c r="D102" s="18">
         <v>1313</v>
       </c>
-      <c r="E102" s="29">
-        <v>0.91180555555555554</v>
-      </c>
-      <c r="F102" s="29">
-        <v>0.91180555555555554</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="E102" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="H102" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>99</v>
       </c>
       <c r="B103" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="C103" s="34" t="s">
         <v>336</v>
       </c>
       <c r="D103" s="18">
         <v>1099</v>
       </c>
-      <c r="E103" s="29">
-        <v>0.7631944444444444</v>
-      </c>
-      <c r="F103" s="29">
-        <v>0.7631944444444444</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="E103" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="H103" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>100</v>
       </c>
       <c r="B104" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="34" t="s">
         <v>337</v>
       </c>
       <c r="D104" s="18">
         <v>1626</v>
       </c>
-      <c r="E104" s="29">
-        <v>1.1291666666666667</v>
-      </c>
-      <c r="F104" s="29">
-        <v>1.1291666666666667</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="E104" s="28" t="s">
+        <v>519</v>
+      </c>
+      <c r="H104" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>101</v>
       </c>
       <c r="B105" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C105" s="18" t="s">
+      <c r="C105" s="34" t="s">
         <v>338</v>
       </c>
       <c r="D105" s="18">
         <v>1554</v>
       </c>
-      <c r="E105" s="29">
-        <v>1.0791666666666666</v>
-      </c>
-      <c r="F105" s="29">
-        <v>1.0791666666666666</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="E105" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="H105" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>102</v>
       </c>
       <c r="B106" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C106" s="34" t="s">
         <v>339</v>
       </c>
       <c r="D106" s="18">
         <v>1044</v>
       </c>
-      <c r="E106" s="29">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="F106" s="29">
-        <v>0.72499999999999998</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="E106" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="H106" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>103</v>
       </c>
       <c r="B107" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C107" s="18" t="s">
+      <c r="C107" s="34" t="s">
         <v>340</v>
       </c>
       <c r="D107" s="18">
         <v>1151</v>
       </c>
-      <c r="E107" s="29">
-        <v>0.7993055555555556</v>
-      </c>
-      <c r="F107" s="29">
-        <v>0.7993055555555556</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="E107" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="H107" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>104</v>
       </c>
       <c r="B108" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="C108" s="34" t="s">
         <v>341</v>
       </c>
       <c r="D108" s="18">
         <v>964</v>
       </c>
-      <c r="E108" s="29">
-        <v>0.6694444444444444</v>
-      </c>
-      <c r="F108" s="29">
-        <v>0.6694444444444444</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="E108" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="H108" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>105</v>
       </c>
       <c r="B109" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C109" s="18" t="s">
+      <c r="C109" s="34" t="s">
         <v>342</v>
       </c>
       <c r="D109" s="18">
         <v>1231</v>
       </c>
-      <c r="E109" s="29">
-        <v>0.85486111111111107</v>
-      </c>
-      <c r="F109" s="29">
-        <v>0.85486111111111107</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="E109" s="28" t="s">
+        <v>523</v>
+      </c>
+      <c r="H109" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>106</v>
       </c>
       <c r="B110" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="C110" s="34" t="s">
         <v>343</v>
       </c>
       <c r="D110" s="18">
         <v>1223</v>
       </c>
-      <c r="E110" s="29">
-        <v>0.84930555555555554</v>
-      </c>
-      <c r="F110" s="29">
-        <v>0.84930555555555554</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="E110" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="H110" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>107</v>
       </c>
       <c r="B111" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C111" s="18" t="s">
+      <c r="C111" s="34" t="s">
         <v>141</v>
       </c>
       <c r="D111" s="18">
         <v>899</v>
       </c>
-      <c r="E111" s="29">
-        <v>0.62430555555555556</v>
-      </c>
-      <c r="F111" s="29">
-        <v>0.62430555555555556</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="E111" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="H111" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>108</v>
       </c>
       <c r="B112" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C112" s="18" t="s">
+      <c r="C112" s="34" t="s">
         <v>344</v>
       </c>
       <c r="D112" s="18">
         <v>1449</v>
       </c>
-      <c r="E112" s="29">
-        <v>1.0062499999999999</v>
-      </c>
-      <c r="F112" s="29">
-        <v>1.0062499999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="E112" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="H112" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>109</v>
       </c>
       <c r="B113" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C113" s="18" t="s">
+      <c r="C113" s="34" t="s">
         <v>237</v>
       </c>
       <c r="D113" s="18">
         <v>912</v>
       </c>
-      <c r="E113" s="29">
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="F113" s="29">
-        <v>0.6333333333333333</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="E113" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="H113" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>110</v>
       </c>
       <c r="B114" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C114" s="18" t="s">
+      <c r="C114" s="34" t="s">
         <v>345</v>
       </c>
       <c r="D114" s="18">
         <v>1356</v>
       </c>
-      <c r="E114" s="29">
-        <v>0.94166666666666676</v>
-      </c>
-      <c r="F114" s="29">
-        <v>0.94166666666666676</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="E114" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="H114" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>111</v>
       </c>
       <c r="B115" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C115" s="18" t="s">
+      <c r="C115" s="34" t="s">
         <v>144</v>
       </c>
       <c r="D115" s="18">
         <v>916</v>
       </c>
-      <c r="E115" s="29">
-        <v>0.63611111111111118</v>
-      </c>
-      <c r="F115" s="29">
-        <v>0.63611111111111118</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="E115" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="H115" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>112</v>
       </c>
       <c r="B116" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C116" s="18" t="s">
+      <c r="C116" s="34" t="s">
         <v>346</v>
       </c>
       <c r="D116" s="18">
         <v>1318</v>
       </c>
-      <c r="E116" s="29">
-        <v>0.91527777777777775</v>
-      </c>
-      <c r="F116" s="29">
-        <v>0.91527777777777775</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="E116" s="28" t="s">
+        <v>530</v>
+      </c>
+      <c r="H116" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>113</v>
       </c>
       <c r="B117" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C117" s="18" t="s">
+      <c r="C117" s="34" t="s">
         <v>347</v>
       </c>
       <c r="D117" s="18">
         <v>1135</v>
       </c>
-      <c r="E117" s="29">
-        <v>0.78819444444444453</v>
-      </c>
-      <c r="F117" s="29">
-        <v>0.78819444444444453</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="E117" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="H117" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>114</v>
       </c>
       <c r="B118" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C118" s="18" t="s">
+      <c r="C118" s="34" t="s">
         <v>348</v>
       </c>
       <c r="D118" s="18">
         <v>955</v>
       </c>
-      <c r="E118" s="29">
-        <v>0.66319444444444442</v>
-      </c>
-      <c r="F118" s="29">
-        <v>0.66319444444444442</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="E118" s="28" t="s">
+        <v>532</v>
+      </c>
+      <c r="H118" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>115</v>
       </c>
       <c r="B119" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C119" s="18" t="s">
+      <c r="C119" s="34" t="s">
         <v>349</v>
       </c>
       <c r="D119" s="18">
         <v>1097</v>
       </c>
-      <c r="E119" s="29">
-        <v>0.76180555555555562</v>
-      </c>
-      <c r="F119" s="29">
-        <v>0.76180555555555562</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="E119" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="H119" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>116</v>
       </c>
       <c r="B120" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C120" s="18" t="s">
+      <c r="C120" s="34" t="s">
         <v>350</v>
       </c>
       <c r="D120" s="18">
         <v>1091</v>
       </c>
-      <c r="E120" s="29">
-        <v>0.75763888888888886</v>
-      </c>
-      <c r="F120" s="29">
-        <v>0.75763888888888886</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="E120" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="H120" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>117</v>
       </c>
       <c r="B121" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="C121" s="18" t="s">
+      <c r="C121" s="34" t="s">
         <v>351</v>
       </c>
       <c r="D121" s="18">
         <v>1441</v>
       </c>
-      <c r="E121" s="29">
-        <v>1.007638888888889</v>
-      </c>
-      <c r="F121" s="29">
-        <v>1.007638888888889</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="E121" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="H121" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>118</v>
       </c>
       <c r="B122" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C122" s="18" t="s">
+      <c r="C122" s="34" t="s">
         <v>151</v>
       </c>
       <c r="D122" s="18">
         <v>718</v>
       </c>
-      <c r="E122" s="29">
-        <v>0.49861111111111112</v>
-      </c>
-      <c r="F122" s="29">
-        <v>0.49861111111111112</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="E122" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="H122" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>119</v>
       </c>
       <c r="B123" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="C123" s="34" t="s">
         <v>352</v>
       </c>
       <c r="D123" s="18">
         <v>1183</v>
       </c>
-      <c r="E123" s="29">
-        <v>0.82152777777777775</v>
-      </c>
-      <c r="F123" s="29">
-        <v>0.82152777777777775</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="E123" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="H123" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>120</v>
       </c>
       <c r="B124" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C124" s="18" t="s">
+      <c r="C124" s="34" t="s">
         <v>153</v>
       </c>
       <c r="D124" s="18">
         <v>648</v>
       </c>
-      <c r="E124" s="29">
-        <v>0.45</v>
-      </c>
-      <c r="F124" s="29">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="E124" s="28" t="s">
+        <v>537</v>
+      </c>
+      <c r="H124" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>121</v>
       </c>
       <c r="B125" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C125" s="18" t="s">
+      <c r="C125" s="34" t="s">
         <v>353</v>
       </c>
       <c r="D125" s="18">
         <v>1127</v>
       </c>
-      <c r="E125" s="29">
-        <v>0.78263888888888899</v>
-      </c>
-      <c r="F125" s="29">
-        <v>0.78263888888888899</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="E125" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="H125" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>122</v>
       </c>
       <c r="B126" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C126" s="18" t="s">
+      <c r="C126" s="34" t="s">
         <v>155</v>
       </c>
       <c r="D126" s="18">
         <v>834</v>
       </c>
-      <c r="E126" s="29">
-        <v>0.57916666666666672</v>
-      </c>
-      <c r="F126" s="29">
-        <v>0.57916666666666672</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="E126" s="28" t="s">
+        <v>538</v>
+      </c>
+      <c r="H126" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>123</v>
       </c>
       <c r="B127" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="C127" s="18" t="s">
+      <c r="C127" s="34" t="s">
         <v>354</v>
       </c>
       <c r="D127" s="18">
         <v>1216</v>
       </c>
-      <c r="E127" s="29">
-        <v>0.84444444444444444</v>
-      </c>
-      <c r="F127" s="29">
-        <v>0.84444444444444444</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="E127" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="H127" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>124</v>
       </c>
       <c r="B128" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C128" s="18" t="s">
+      <c r="C128" s="34" t="s">
         <v>355</v>
       </c>
       <c r="D128" s="18">
         <v>1131</v>
       </c>
-      <c r="E128" s="29">
-        <v>0.78541666666666676</v>
-      </c>
-      <c r="F128" s="29">
-        <v>0.78541666666666676</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+      <c r="E128" s="28" t="s">
+        <v>540</v>
+      </c>
+      <c r="H128" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>125</v>
       </c>
       <c r="B129" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C129" s="18" t="s">
+      <c r="C129" s="34" t="s">
         <v>356</v>
       </c>
       <c r="D129" s="18">
         <v>1184</v>
       </c>
-      <c r="E129" s="29">
-        <v>0.8222222222222223</v>
-      </c>
-      <c r="F129" s="29">
-        <v>0.8222222222222223</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+      <c r="E129" s="28" t="s">
+        <v>541</v>
+      </c>
+      <c r="H129" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>126</v>
       </c>
       <c r="B130" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C130" s="18" t="s">
+      <c r="C130" s="34" t="s">
         <v>159</v>
       </c>
       <c r="D130" s="18">
         <v>550</v>
       </c>
-      <c r="E130" s="29">
-        <v>0.38194444444444442</v>
-      </c>
-      <c r="F130" s="29">
-        <v>0.38194444444444442</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="E130" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="H130" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>127</v>
       </c>
       <c r="B131" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="C131" s="18" t="s">
+      <c r="C131" s="34" t="s">
         <v>357</v>
       </c>
       <c r="D131" s="18">
         <v>1498</v>
       </c>
-      <c r="E131" s="29">
-        <v>1.0402777777777776</v>
-      </c>
-      <c r="F131" s="29">
-        <v>1.0402777777777776</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="E131" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="H131" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>128</v>
       </c>
       <c r="B132" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="C132" s="18" t="s">
+      <c r="C132" s="34" t="s">
         <v>358</v>
       </c>
       <c r="D132" s="18">
         <v>1201</v>
       </c>
-      <c r="E132" s="29">
-        <v>0.8340277777777777</v>
-      </c>
-      <c r="F132" s="29">
-        <v>0.8340277777777777</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="E132" s="28" t="s">
+        <v>544</v>
+      </c>
+      <c r="H132" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>129</v>
       </c>
       <c r="B133" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="C133" s="18" t="s">
+      <c r="C133" s="34" t="s">
         <v>359</v>
       </c>
       <c r="D133" s="18">
         <v>1151</v>
       </c>
-      <c r="E133" s="29">
-        <v>0.7993055555555556</v>
-      </c>
-      <c r="F133" s="29">
-        <v>0.7993055555555556</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="E133" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="H133" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>130</v>
       </c>
       <c r="B134" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C134" s="18" t="s">
+      <c r="C134" s="34" t="s">
         <v>238</v>
       </c>
       <c r="D134" s="18">
         <v>656</v>
       </c>
-      <c r="E134" s="29">
-        <v>0.45555555555555555</v>
-      </c>
-      <c r="F134" s="29">
-        <v>0.45555555555555555</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="E134" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="H134" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>131</v>
       </c>
       <c r="B135" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="C135" s="18" t="s">
+      <c r="C135" s="34" t="s">
         <v>360</v>
       </c>
       <c r="D135" s="18">
         <v>1039</v>
       </c>
-      <c r="E135" s="29">
-        <v>0.72152777777777777</v>
-      </c>
-      <c r="F135" s="29">
-        <v>0.72152777777777777</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="E135" s="28" t="s">
+        <v>546</v>
+      </c>
+      <c r="H135" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>132</v>
       </c>
       <c r="B136" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C136" s="18" t="s">
+      <c r="C136" s="34" t="s">
         <v>361</v>
       </c>
       <c r="D136" s="18">
         <v>1033</v>
       </c>
-      <c r="E136" s="29">
-        <v>0.71736111111111101</v>
-      </c>
-      <c r="F136" s="29">
-        <v>0.71736111111111101</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="E136" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="H136" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>133</v>
       </c>
       <c r="B137" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="C137" s="18" t="s">
+      <c r="C137" s="34" t="s">
         <v>362</v>
       </c>
       <c r="D137" s="18">
         <v>1407</v>
       </c>
-      <c r="E137" s="29">
-        <v>0.9770833333333333</v>
-      </c>
-      <c r="F137" s="29">
-        <v>0.9770833333333333</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="E137" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="H137" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>134</v>
       </c>
       <c r="B138" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="C138" s="18" t="s">
+      <c r="C138" s="34" t="s">
         <v>363</v>
       </c>
       <c r="D138" s="18">
         <v>1511</v>
       </c>
-      <c r="E138" s="29">
-        <v>1.0493055555555555</v>
-      </c>
-      <c r="F138" s="29">
-        <v>1.0493055555555555</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="E138" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="H138" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>135</v>
       </c>
       <c r="B139" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="C139" s="18" t="s">
+      <c r="C139" s="34" t="s">
         <v>168</v>
       </c>
       <c r="D139" s="18">
         <v>586</v>
       </c>
-      <c r="E139" s="29">
-        <v>0.4069444444444445</v>
-      </c>
-      <c r="F139" s="29">
-        <v>0.4069444444444445</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="E139" s="28" t="s">
+        <v>549</v>
+      </c>
+      <c r="H139" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>136</v>
       </c>
       <c r="B140" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="C140" s="18" t="s">
+      <c r="C140" s="34" t="s">
         <v>364</v>
       </c>
       <c r="D140" s="18">
         <v>1530</v>
       </c>
-      <c r="E140" s="29">
-        <v>1.0625</v>
-      </c>
-      <c r="F140" s="29">
-        <v>1.0625</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+      <c r="E140" s="28" t="s">
+        <v>550</v>
+      </c>
+      <c r="H140" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>137</v>
       </c>
       <c r="B141" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="C141" s="18" t="s">
+      <c r="C141" s="34" t="s">
         <v>365</v>
       </c>
       <c r="D141" s="18">
         <v>1434</v>
       </c>
-      <c r="E141" s="29">
-        <v>0.99583333333333324</v>
-      </c>
-      <c r="F141" s="29">
-        <v>0.99583333333333324</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="E141" s="28" t="s">
+        <v>551</v>
+      </c>
+      <c r="H141" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>138</v>
       </c>
       <c r="B142" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="C142" s="18" t="s">
+      <c r="C142" s="34" t="s">
         <v>366</v>
       </c>
       <c r="D142" s="18">
         <v>1870</v>
       </c>
-      <c r="E142" s="29">
-        <v>1.2986111111111112</v>
-      </c>
-      <c r="F142" s="29">
-        <v>1.2986111111111112</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="E142" s="28" t="s">
+        <v>552</v>
+      </c>
+      <c r="H142" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>139</v>
       </c>
       <c r="B143" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="C143" s="18" t="s">
+      <c r="C143" s="34" t="s">
         <v>172</v>
       </c>
       <c r="D143" s="18">
         <v>601</v>
       </c>
-      <c r="E143" s="29">
-        <v>0.41736111111111113</v>
-      </c>
-      <c r="F143" s="29">
-        <v>0.41736111111111113</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="E143" s="28" t="s">
+        <v>553</v>
+      </c>
+      <c r="H143" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>140</v>
       </c>
       <c r="B144" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C144" s="18" t="s">
+      <c r="C144" s="34" t="s">
         <v>367</v>
       </c>
       <c r="D144" s="18">
         <v>1526</v>
       </c>
-      <c r="E144" s="29">
-        <v>1.0597222222222222</v>
-      </c>
-      <c r="F144" s="29">
-        <v>1.0597222222222222</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="E144" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="H144" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>141</v>
       </c>
       <c r="B145" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="C145" s="18" t="s">
+      <c r="C145" s="34" t="s">
         <v>368</v>
       </c>
       <c r="D145" s="18">
         <v>868</v>
       </c>
-      <c r="E145" s="29">
-        <v>0.60277777777777775</v>
-      </c>
-      <c r="F145" s="29">
-        <v>0.60277777777777775</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+      <c r="E145" s="28" t="s">
+        <v>555</v>
+      </c>
+      <c r="H145" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>142</v>
       </c>
       <c r="B146" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="C146" s="18" t="s">
+      <c r="C146" s="34" t="s">
         <v>175</v>
       </c>
       <c r="D146" s="18">
         <v>1056</v>
       </c>
-      <c r="E146" s="29">
-        <v>0.73333333333333339</v>
-      </c>
-      <c r="F146" s="29">
-        <v>0.73333333333333339</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+      <c r="E146" s="28" t="s">
+        <v>556</v>
+      </c>
+      <c r="H146" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>143</v>
       </c>
       <c r="B147" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="C147" s="18" t="s">
+      <c r="C147" s="34" t="s">
         <v>369</v>
       </c>
       <c r="D147" s="18">
         <v>1761</v>
       </c>
-      <c r="E147" s="29">
-        <v>1.2229166666666667</v>
-      </c>
-      <c r="F147" s="29">
-        <v>1.2229166666666667</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+      <c r="E147" s="28" t="s">
+        <v>557</v>
+      </c>
+      <c r="H147" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>144</v>
       </c>
       <c r="B148" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="C148" s="18" t="s">
+      <c r="C148" s="34" t="s">
         <v>370</v>
       </c>
       <c r="D148" s="18">
         <v>1070</v>
       </c>
-      <c r="E148" s="29">
-        <v>0.74305555555555547</v>
-      </c>
-      <c r="F148" s="29">
-        <v>0.74305555555555547</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="E148" s="28" t="s">
+        <v>558</v>
+      </c>
+      <c r="H148" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>145</v>
       </c>
       <c r="B149" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="C149" s="18" t="s">
+      <c r="C149" s="34" t="s">
         <v>178</v>
       </c>
       <c r="D149" s="18">
         <v>813</v>
       </c>
-      <c r="E149" s="29">
-        <v>0.56458333333333333</v>
-      </c>
-      <c r="F149" s="29">
-        <v>0.56458333333333333</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="E149" s="28" t="s">
+        <v>559</v>
+      </c>
+      <c r="H149" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>146</v>
       </c>
       <c r="B150" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C150" s="18" t="s">
+      <c r="C150" s="34" t="s">
         <v>371</v>
       </c>
       <c r="D150" s="18">
         <v>1006</v>
       </c>
-      <c r="E150" s="29">
-        <v>0.69861111111111107</v>
-      </c>
-      <c r="F150" s="29">
-        <v>0.69861111111111107</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="E150" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="H150" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>147</v>
       </c>
       <c r="B151" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="C151" s="18" t="s">
+      <c r="C151" s="34" t="s">
         <v>372</v>
       </c>
       <c r="D151" s="18">
         <v>1182</v>
       </c>
-      <c r="E151" s="29">
-        <v>0.8208333333333333</v>
-      </c>
-      <c r="F151" s="29">
-        <v>0.8208333333333333</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+      <c r="E151" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="H151" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>148</v>
       </c>
       <c r="B152" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="C152" s="18" t="s">
+      <c r="C152" s="34" t="s">
         <v>373</v>
       </c>
       <c r="D152" s="18">
         <v>1274</v>
       </c>
-      <c r="E152" s="29">
-        <v>0.8847222222222223</v>
-      </c>
-      <c r="F152" s="29">
-        <v>0.8847222222222223</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+      <c r="E152" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="H152" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>149</v>
       </c>
       <c r="B153" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="C153" s="18" t="s">
+      <c r="C153" s="34" t="s">
         <v>182</v>
       </c>
       <c r="D153" s="18">
         <v>809</v>
       </c>
-      <c r="E153" s="29">
-        <v>0.56180555555555556</v>
-      </c>
-      <c r="F153" s="29">
-        <v>0.56180555555555556</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+      <c r="E153" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="H153" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>150</v>
       </c>
       <c r="B154" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="C154" s="18" t="s">
+      <c r="C154" s="34" t="s">
         <v>374</v>
       </c>
       <c r="D154" s="18">
         <v>1406</v>
       </c>
-      <c r="E154" s="29">
-        <v>0.97638888888888886</v>
-      </c>
-      <c r="F154" s="29">
-        <v>0.97638888888888886</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="E154" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="H154" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>151</v>
       </c>
       <c r="B155" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C155" s="18" t="s">
+      <c r="C155" s="34" t="s">
         <v>375</v>
       </c>
       <c r="D155" s="18">
         <v>1163</v>
       </c>
-      <c r="E155" s="29">
-        <v>0.80763888888888891</v>
-      </c>
-      <c r="F155" s="29">
-        <v>0.80763888888888891</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+      <c r="E155" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="H155" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>152</v>
       </c>
       <c r="B156" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C156" s="18" t="s">
+      <c r="C156" s="34" t="s">
         <v>186</v>
       </c>
       <c r="D156" s="18">
         <v>1150</v>
       </c>
-      <c r="E156" s="29">
-        <v>0.79861111111111116</v>
-      </c>
-      <c r="F156" s="29">
-        <v>0.79861111111111116</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+      <c r="E156" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="H156" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>153</v>
       </c>
       <c r="B157" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="C157" s="18" t="s">
+      <c r="C157" s="34" t="s">
         <v>376</v>
       </c>
       <c r="D157" s="18">
         <v>1249</v>
       </c>
-      <c r="E157" s="29">
-        <v>0.86736111111111114</v>
-      </c>
-      <c r="F157" s="29">
-        <v>0.86736111111111114</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="E157" s="28" t="s">
+        <v>566</v>
+      </c>
+      <c r="H157" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>154</v>
       </c>
       <c r="B158" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="C158" s="18" t="s">
+      <c r="C158" s="34" t="s">
         <v>377</v>
       </c>
       <c r="D158" s="18">
         <v>1215</v>
       </c>
-      <c r="E158" s="29">
-        <v>0.84375</v>
-      </c>
-      <c r="F158" s="29">
-        <v>0.84375</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
+      <c r="E158" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="H158" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>155</v>
       </c>
       <c r="B159" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="C159" s="18" t="s">
+      <c r="C159" s="34" t="s">
         <v>378</v>
       </c>
       <c r="D159" s="18">
         <v>1119</v>
       </c>
-      <c r="E159" s="29">
-        <v>0.77708333333333324</v>
-      </c>
-      <c r="F159" s="29">
-        <v>0.77708333333333324</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
+      <c r="E159" s="28" t="s">
+        <v>568</v>
+      </c>
+      <c r="H159" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160">
         <v>156</v>
       </c>
       <c r="B160" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="C160" s="18" t="s">
+      <c r="C160" s="34" t="s">
         <v>379</v>
       </c>
       <c r="D160" s="18">
         <v>1286</v>
       </c>
-      <c r="E160" s="29">
-        <v>0.8930555555555556</v>
-      </c>
-      <c r="F160" s="29">
-        <v>0.8930555555555556</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+      <c r="E160" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="H160" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>157</v>
       </c>
       <c r="B161" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="C161" s="18" t="s">
+      <c r="C161" s="34" t="s">
         <v>192</v>
       </c>
       <c r="D161" s="18">
         <v>679</v>
       </c>
-      <c r="E161" s="29">
-        <v>0.47152777777777777</v>
-      </c>
-      <c r="F161" s="29">
-        <v>0.47152777777777777</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
+      <c r="E161" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="H161" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>158</v>
       </c>
       <c r="B162" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="C162" s="18" t="s">
+      <c r="C162" s="34" t="s">
         <v>380</v>
       </c>
       <c r="D162" s="18">
         <v>1176</v>
       </c>
-      <c r="E162" s="29">
-        <v>0.81666666666666676</v>
-      </c>
-      <c r="F162" s="29">
-        <v>0.81666666666666676</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
+      <c r="E162" s="28" t="s">
+        <v>571</v>
+      </c>
+      <c r="H162" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>159</v>
       </c>
       <c r="B163" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C163" s="18" t="s">
+      <c r="C163" s="34" t="s">
         <v>381</v>
       </c>
       <c r="D163" s="18">
         <v>1325</v>
       </c>
-      <c r="E163" s="29">
-        <v>0.92013888888888884</v>
-      </c>
-      <c r="F163" s="29">
-        <v>0.92013888888888884</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+      <c r="E163" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="H163" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>160</v>
       </c>
       <c r="B164" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="C164" s="18" t="s">
+      <c r="C164" s="34" t="s">
         <v>195</v>
       </c>
       <c r="D164" s="18">
         <v>484</v>
       </c>
-      <c r="E164" s="29">
-        <v>0.33611111111111108</v>
-      </c>
-      <c r="F164" s="29">
-        <v>0.33611111111111108</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
+      <c r="E164" s="28" t="s">
+        <v>573</v>
+      </c>
+      <c r="H164" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>161</v>
       </c>
       <c r="B165" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="C165" s="18" t="s">
+      <c r="C165" s="34" t="s">
         <v>382</v>
       </c>
       <c r="D165" s="18">
         <v>1750</v>
       </c>
-      <c r="E165" s="29">
-        <v>1.2152777777777779</v>
-      </c>
-      <c r="F165" s="29">
-        <v>1.2152777777777779</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
+      <c r="E165" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="H165" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>162</v>
       </c>
       <c r="B166" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="C166" s="18" t="s">
+      <c r="C166" s="34" t="s">
         <v>383</v>
       </c>
       <c r="D166" s="18">
         <v>1198</v>
       </c>
-      <c r="E166" s="29">
-        <v>0.83194444444444438</v>
-      </c>
-      <c r="F166" s="29">
-        <v>0.83194444444444438</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+      <c r="E166" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="H166" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>163</v>
       </c>
       <c r="B167" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="C167" s="18" t="s">
+      <c r="C167" s="34" t="s">
         <v>384</v>
       </c>
       <c r="D167" s="18">
         <v>868</v>
       </c>
-      <c r="E167" s="29">
-        <v>0.60277777777777775</v>
-      </c>
-      <c r="F167" s="29">
-        <v>0.60277777777777775</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
+      <c r="E167" s="28" t="s">
+        <v>555</v>
+      </c>
+      <c r="H167" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168">
         <v>164</v>
       </c>
       <c r="B168" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="C168" s="18" t="s">
+      <c r="C168" s="34" t="s">
         <v>239</v>
       </c>
       <c r="D168" s="18">
         <v>666</v>
       </c>
-      <c r="E168" s="29">
-        <v>0.46249999999999997</v>
-      </c>
-      <c r="F168" s="29">
-        <v>0.46249999999999997</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+      <c r="E168" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="H168" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>165</v>
       </c>
       <c r="B169" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="C169" s="18" t="s">
+      <c r="C169" s="34" t="s">
         <v>385</v>
       </c>
       <c r="D169" s="18">
         <v>1748</v>
       </c>
-      <c r="E169" s="29">
-        <v>1.2138888888888888</v>
-      </c>
-      <c r="F169" s="29">
-        <v>1.2138888888888888</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
+      <c r="E169" s="28" t="s">
+        <v>577</v>
+      </c>
+      <c r="H169" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>166</v>
       </c>
       <c r="B170" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="C170" s="18" t="s">
+      <c r="C170" s="34" t="s">
         <v>386</v>
       </c>
       <c r="D170" s="18">
         <v>1797</v>
       </c>
-      <c r="E170" s="29">
-        <v>1.2479166666666666</v>
-      </c>
-      <c r="F170" s="29">
-        <v>1.2479166666666666</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
+      <c r="E170" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="H170" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>167</v>
       </c>
       <c r="B171" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="C171" s="18" t="s">
+      <c r="C171" s="34" t="s">
         <v>387</v>
       </c>
       <c r="D171" s="18">
         <v>1067</v>
       </c>
-      <c r="E171" s="29">
-        <v>0.74097222222222225</v>
-      </c>
-      <c r="F171" s="29">
-        <v>0.74097222222222225</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
+      <c r="E171" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="H171" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>168</v>
       </c>
       <c r="B172" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="C172" s="18" t="s">
+      <c r="C172" s="34" t="s">
         <v>388</v>
       </c>
       <c r="D172" s="18">
         <v>883</v>
       </c>
-      <c r="E172" s="29">
-        <v>0.61319444444444449</v>
-      </c>
-      <c r="F172" s="29">
-        <v>0.61319444444444449</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
+      <c r="E172" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="H172" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>169</v>
       </c>
       <c r="B173" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="C173" s="18" t="s">
+      <c r="C173" s="34" t="s">
         <v>203</v>
       </c>
       <c r="D173" s="18">
         <v>492</v>
       </c>
-      <c r="E173" s="29">
-        <v>0.34166666666666662</v>
-      </c>
-      <c r="F173" s="29">
-        <v>0.34166666666666662</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
+      <c r="E173" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="H173" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>170</v>
       </c>
       <c r="B174" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="C174" s="18" t="s">
+      <c r="C174" s="34" t="s">
         <v>389</v>
       </c>
       <c r="D174" s="18">
         <v>1403</v>
       </c>
-      <c r="E174" s="29">
-        <v>0.97430555555555554</v>
-      </c>
-      <c r="F174" s="29">
-        <v>0.97430555555555554</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
+      <c r="E174" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="H174" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>171</v>
       </c>
       <c r="B175" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="C175" s="18" t="s">
+      <c r="C175" s="34" t="s">
         <v>390</v>
       </c>
       <c r="D175" s="18">
         <v>1491</v>
       </c>
-      <c r="E175" s="29">
-        <v>1.0354166666666667</v>
-      </c>
-      <c r="F175" s="29">
-        <v>1.0354166666666667</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
+      <c r="E175" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="H175" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>172</v>
       </c>
       <c r="B176" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="C176" s="18" t="s">
+      <c r="C176" s="34" t="s">
         <v>240</v>
       </c>
       <c r="D176" s="18">
         <v>475</v>
       </c>
-      <c r="E176" s="29">
-        <v>0.3298611111111111</v>
-      </c>
-      <c r="F176" s="29">
-        <v>0.3298611111111111</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
+      <c r="E176" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="H176" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>173</v>
       </c>
       <c r="B177" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="C177" s="18" t="s">
+      <c r="C177" s="34" t="s">
         <v>391</v>
       </c>
       <c r="D177" s="18">
         <v>1053</v>
       </c>
-      <c r="E177" s="29">
-        <v>0.73125000000000007</v>
-      </c>
-      <c r="F177" s="29">
-        <v>0.73125000000000007</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
+      <c r="E177" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="H177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>174</v>
       </c>
       <c r="B178" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="C178" s="18" t="s">
+      <c r="C178" s="34" t="s">
         <v>392</v>
       </c>
       <c r="D178" s="18">
         <v>1368</v>
       </c>
-      <c r="E178" s="29">
-        <v>0.95000000000000007</v>
-      </c>
-      <c r="F178" s="29">
-        <v>0.95000000000000007</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
+      <c r="E178" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="H178" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>175</v>
       </c>
       <c r="B179" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="C179" s="18" t="s">
+      <c r="C179" s="34" t="s">
         <v>393</v>
       </c>
       <c r="D179" s="18">
         <v>1233</v>
       </c>
-      <c r="E179" s="29">
-        <v>0.85625000000000007</v>
-      </c>
-      <c r="F179" s="29">
-        <v>0.85625000000000007</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
+      <c r="E179" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="H179" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180">
         <v>176</v>
       </c>
       <c r="B180" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="C180" s="18" t="s">
+      <c r="C180" s="34" t="s">
         <v>394</v>
       </c>
       <c r="D180" s="18">
         <v>571</v>
       </c>
-      <c r="E180" s="29">
-        <v>0.39652777777777781</v>
-      </c>
-      <c r="F180" s="29">
-        <v>0.39652777777777781</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
+      <c r="E180" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="H180" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>177</v>
       </c>
       <c r="B181" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="C181" s="18" t="s">
+      <c r="C181" s="34" t="s">
         <v>210</v>
       </c>
       <c r="D181" s="18">
         <v>499</v>
       </c>
-      <c r="E181" s="29">
-        <v>0.34652777777777777</v>
-      </c>
-      <c r="F181" s="29">
-        <v>0.34652777777777777</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
+      <c r="E181" s="28" t="s">
+        <v>588</v>
+      </c>
+      <c r="H181" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182">
         <v>178</v>
       </c>
       <c r="B182" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="C182" s="18" t="s">
+      <c r="C182" s="34" t="s">
         <v>395</v>
       </c>
       <c r="D182" s="18">
         <v>1598</v>
       </c>
-      <c r="E182" s="29">
-        <v>1.1097222222222223</v>
-      </c>
-      <c r="F182" s="29">
-        <v>1.1097222222222223</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
+      <c r="E182" s="28" t="s">
+        <v>589</v>
+      </c>
+      <c r="H182" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183">
         <v>179</v>
       </c>
       <c r="B183" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="C183" s="18" t="s">
+      <c r="C183" s="34" t="s">
         <v>396</v>
       </c>
       <c r="D183" s="18">
         <v>1341</v>
       </c>
-      <c r="E183" s="29">
-        <v>0.93125000000000002</v>
-      </c>
-      <c r="F183" s="29">
-        <v>0.93125000000000002</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
+      <c r="E183" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="H183" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184">
         <v>180</v>
       </c>
       <c r="B184" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="C184" s="18" t="s">
+      <c r="C184" s="34" t="s">
         <v>397</v>
       </c>
       <c r="D184" s="18">
         <v>1348</v>
       </c>
-      <c r="E184" s="29">
-        <v>0.93611111111111101</v>
-      </c>
-      <c r="F184" s="29">
-        <v>0.93611111111111101</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
+      <c r="E184" s="28" t="s">
+        <v>590</v>
+      </c>
+      <c r="H184" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185">
         <v>181</v>
       </c>
       <c r="B185" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="C185" s="18" t="s">
+      <c r="C185" s="34" t="s">
         <v>398</v>
       </c>
       <c r="D185" s="18">
         <v>1300</v>
       </c>
-      <c r="E185" s="29">
-        <v>0.90277777777777779</v>
-      </c>
-      <c r="F185" s="29">
-        <v>0.90277777777777779</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
+      <c r="E185" s="28" t="s">
+        <v>591</v>
+      </c>
+      <c r="H185" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186">
         <v>182</v>
       </c>
       <c r="B186" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="C186" s="18" t="s">
+      <c r="C186" s="34" t="s">
         <v>215</v>
       </c>
       <c r="D186" s="18">
         <v>946</v>
       </c>
-      <c r="E186" s="29">
-        <v>0.65694444444444444</v>
-      </c>
-      <c r="F186" s="29">
-        <v>0.65694444444444444</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
+      <c r="E186" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="H186" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187">
         <v>183</v>
       </c>
       <c r="B187" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="C187" s="18" t="s">
+      <c r="C187" s="34" t="s">
         <v>399</v>
       </c>
       <c r="D187" s="18">
         <v>1267</v>
       </c>
-      <c r="E187" s="29">
-        <v>0.87986111111111109</v>
-      </c>
-      <c r="F187" s="29">
-        <v>0.87986111111111109</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
+      <c r="E187" s="28" t="s">
+        <v>593</v>
+      </c>
+      <c r="H187" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188">
         <v>184</v>
       </c>
       <c r="B188" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="C188" s="18" t="s">
+      <c r="C188" s="34" t="s">
         <v>400</v>
       </c>
       <c r="D188" s="18">
         <v>770</v>
       </c>
-      <c r="E188" s="29">
-        <v>0.53472222222222221</v>
-      </c>
-      <c r="F188" s="29">
-        <v>0.53472222222222221</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
+      <c r="E188" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="H188" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189">
         <v>185</v>
       </c>
       <c r="B189" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="C189" s="18" t="s">
+      <c r="C189" s="34" t="s">
         <v>401</v>
       </c>
       <c r="D189" s="18">
         <v>1222</v>
       </c>
-      <c r="E189" s="29">
-        <v>0.84861111111111109</v>
-      </c>
-      <c r="F189" s="29">
-        <v>0.84861111111111109</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
+      <c r="E189" s="28" t="s">
+        <v>595</v>
+      </c>
+      <c r="H189" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190">
         <v>186</v>
       </c>
       <c r="B190" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="C190" s="18" t="s">
+      <c r="C190" s="34" t="s">
         <v>402</v>
       </c>
       <c r="D190" s="18">
         <v>740</v>
       </c>
-      <c r="E190" s="29">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="F190" s="29">
-        <v>0.51388888888888895</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
+      <c r="E190" s="28" t="s">
+        <v>596</v>
+      </c>
+      <c r="H190" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191">
         <v>187</v>
       </c>
       <c r="B191" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="C191" s="18" t="s">
+      <c r="C191" s="34" t="s">
         <v>403</v>
       </c>
       <c r="D191" s="18">
         <v>1138</v>
       </c>
-      <c r="E191" s="29">
-        <v>0.79027777777777775</v>
-      </c>
-      <c r="F191" s="29">
-        <v>0.79027777777777775</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
+      <c r="E191" s="28" t="s">
+        <v>597</v>
+      </c>
+      <c r="H191" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192">
         <v>188</v>
       </c>
       <c r="B192" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="C192" s="18" t="s">
+      <c r="C192" s="34" t="s">
         <v>222</v>
       </c>
       <c r="D192" s="18">
         <v>607</v>
       </c>
-      <c r="E192" s="29">
-        <v>0.42152777777777778</v>
-      </c>
-      <c r="F192" s="29">
-        <v>0.42152777777777778</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
+      <c r="E192" s="28" t="s">
+        <v>598</v>
+      </c>
+      <c r="H192" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193">
         <v>189</v>
       </c>
       <c r="B193" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="C193" s="18" t="s">
+      <c r="C193" s="34" t="s">
         <v>235</v>
       </c>
       <c r="D193" s="18">
         <v>284</v>
       </c>
-      <c r="E193" s="29">
-        <v>0.19722222222222222</v>
-      </c>
-      <c r="F193" s="29">
-        <v>0.19722222222222222</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
+      <c r="E193" s="28" t="s">
+        <v>599</v>
+      </c>
+      <c r="H193" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194">
         <v>190</v>
       </c>
       <c r="B194" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="C194" s="18" t="s">
+      <c r="C194" s="34" t="s">
         <v>404</v>
       </c>
       <c r="D194" s="18">
         <v>1511</v>
       </c>
-      <c r="E194" s="29">
-        <v>1.0493055555555555</v>
-      </c>
-      <c r="F194" s="29">
-        <v>1.0493055555555555</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
+      <c r="E194" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="H194" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195">
         <v>191</v>
       </c>
       <c r="B195" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="C195" s="18" t="s">
+      <c r="C195" s="34" t="s">
         <v>405</v>
       </c>
       <c r="D195" s="18">
         <v>1288</v>
       </c>
-      <c r="E195" s="29">
-        <v>0.89444444444444438</v>
-      </c>
-      <c r="F195" s="29">
-        <v>0.89444444444444438</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
+      <c r="E195" s="28" t="s">
+        <v>600</v>
+      </c>
+      <c r="H195" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196">
         <v>192</v>
       </c>
       <c r="B196" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="C196" s="18" t="s">
+      <c r="C196" s="34" t="s">
         <v>406</v>
       </c>
       <c r="D196" s="18">
         <v>1158</v>
       </c>
-      <c r="E196" s="29">
-        <v>0.8041666666666667</v>
-      </c>
-      <c r="F196" s="29">
-        <v>0.8041666666666667</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
+      <c r="E196" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="H196" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197">
         <v>193</v>
       </c>
       <c r="B197" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="C197" s="18" t="s">
+      <c r="C197" s="34" t="s">
         <v>407</v>
       </c>
       <c r="D197" s="18">
         <v>872</v>
       </c>
-      <c r="E197" s="29">
-        <v>0.60555555555555551</v>
-      </c>
-      <c r="F197" s="29">
-        <v>0.60555555555555551</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
+      <c r="E197" s="28" t="s">
+        <v>602</v>
+      </c>
+      <c r="H197" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198">
         <v>194</v>
       </c>
       <c r="B198" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="C198" s="18" t="s">
+      <c r="C198" s="34" t="s">
         <v>408</v>
       </c>
       <c r="D198" s="18">
         <v>942</v>
       </c>
-      <c r="E198" s="29">
-        <v>0.65416666666666667</v>
-      </c>
-      <c r="F198" s="29">
-        <v>0.65416666666666667</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
+      <c r="E198" s="28" t="s">
+        <v>603</v>
+      </c>
+      <c r="H198" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199">
         <v>195</v>
       </c>
       <c r="B199" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="C199" s="18" t="s">
+      <c r="C199" s="34" t="s">
         <v>409</v>
       </c>
       <c r="D199" s="18">
         <v>1305</v>
       </c>
-      <c r="E199" s="29">
-        <v>0.90625</v>
-      </c>
-      <c r="F199" s="29">
-        <v>0.90625</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
+      <c r="E199" s="28" t="s">
+        <v>604</v>
+      </c>
+      <c r="H199" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200">
         <v>196</v>
       </c>
       <c r="B200" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="C200" s="18" t="s">
+      <c r="C200" s="34" t="s">
         <v>410</v>
       </c>
       <c r="D200" s="18">
         <v>1176</v>
       </c>
-      <c r="E200" s="29">
-        <v>0.81666666666666676</v>
-      </c>
-      <c r="F200" s="29">
-        <v>0.81666666666666676</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
+      <c r="E200" s="28" t="s">
+        <v>571</v>
+      </c>
+      <c r="H200" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201">
         <v>197</v>
       </c>
       <c r="B201" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="C201" s="18" t="s">
+      <c r="C201" s="34" t="s">
         <v>411</v>
       </c>
       <c r="D201" s="18">
         <v>661</v>
       </c>
-      <c r="E201" s="29">
-        <v>0.45902777777777781</v>
-      </c>
-      <c r="F201" s="29">
-        <v>0.45902777777777781</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
+      <c r="E201" s="28" t="s">
+        <v>605</v>
+      </c>
+      <c r="H201" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202">
         <v>198</v>
       </c>
       <c r="B202" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="C202" s="18" t="s">
+      <c r="C202" s="34" t="s">
         <v>412</v>
       </c>
       <c r="D202" s="18">
         <v>1045</v>
       </c>
-      <c r="E202" s="29">
-        <v>0.72569444444444453</v>
-      </c>
-      <c r="F202" s="29">
-        <v>0.72569444444444453</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
+      <c r="E202" s="28" t="s">
+        <v>606</v>
+      </c>
+      <c r="H202" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203">
         <v>199</v>
       </c>
       <c r="B203" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="C203" s="18" t="s">
+      <c r="C203" s="34" t="s">
         <v>413</v>
       </c>
       <c r="D203" s="18">
         <v>825</v>
       </c>
-      <c r="E203" s="29">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="F203" s="29">
-        <v>0.57291666666666663</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
+      <c r="E203" s="28" t="s">
+        <v>607</v>
+      </c>
+      <c r="H203" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204">
         <v>200</v>
       </c>
       <c r="B204" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="C204" s="18" t="s">
+      <c r="C204" s="34" t="s">
         <v>414</v>
       </c>
       <c r="D204" s="18">
         <v>1447</v>
       </c>
-      <c r="E204" s="29">
-        <v>1.0048611111111112</v>
-      </c>
-      <c r="F204" s="29">
-        <v>1.0048611111111112</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
+      <c r="E204" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="H204" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="D205" s="18"/>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:8">
       <c r="D206" s="18"/>
-    </row>
-    <row r="207" spans="1:6">
-      <c r="D207" s="18" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
+      <c r="E206" s="30" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="D207" s="18"/>
+      <c r="E207" s="30" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="D208" s="18"/>
+      <c r="E208" s="30" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="209" spans="4:4">
       <c r="D209" s="18"/>
@@ -6407,8 +6957,16 @@
       <c r="D211" s="18"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H204" xr:uid="{BF672338-2FBD-44E0-9C5B-CCBC55195EE5}">
+      <formula1>"Not Started, In Progress, Complete"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{28897DF2-0C4A-4112-A2E6-43FCE1769EF4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Solace_Plan.xlsx
+++ b/Solace_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Solace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1ECE1D-E1FC-4F98-9A34-F353F3905A20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD8720D-25EE-4A7C-A162-BBBD8509CD5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="1" xr2:uid="{3A42A00D-9C57-4330-A240-180E2EBC0D59}"/>
   </bookViews>
@@ -2829,8 +2829,8 @@
   <dimension ref="A1:K211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E208" sqref="E208"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2967,7 +2967,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -2989,7 +2989,7 @@
         <v>424</v>
       </c>
       <c r="H7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3009,7 +3009,7 @@
         <v>425</v>
       </c>
       <c r="H8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3029,7 +3029,7 @@
         <v>426</v>
       </c>
       <c r="H9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3049,7 +3049,7 @@
         <v>427</v>
       </c>
       <c r="H10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:11">

--- a/Solace_Plan.xlsx
+++ b/Solace_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Solace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD8720D-25EE-4A7C-A162-BBBD8509CD5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E671339C-2AAE-4910-B808-F99DFF9BD687}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="1" xr2:uid="{3A42A00D-9C57-4330-A240-180E2EBC0D59}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="611">
   <si>
     <t>Section</t>
   </si>
@@ -1290,9 +1290,6 @@
   </si>
   <si>
     <t>https://www.youtube.com/@GameEngineSeries</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>35m29s</t>
@@ -2037,7 +2034,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -2128,6 +2125,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2826,26 +2844,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F24280-107B-4A2D-B2C2-14E940A88640}">
-  <dimension ref="A1:K211"/>
+  <dimension ref="A1:J211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" style="35" customWidth="1"/>
     <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="42.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="33" customFormat="1">
+    <row r="1" spans="1:10" s="33" customFormat="1">
       <c r="A1" s="32" t="s">
         <v>30</v>
       </c>
@@ -2855,7 +2874,7 @@
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="36" t="s">
         <v>416</v>
       </c>
       <c r="E1" s="31" t="s">
@@ -2877,70 +2896,69 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="6"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="K2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="10"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="10"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10">
       <c r="A4" s="12"/>
       <c r="B4" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="15"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="17">
+    <row r="5" spans="1:10">
+      <c r="A5" s="34">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="41">
         <v>2129</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="F5" s="24"/>
+        <v>421</v>
+      </c>
+      <c r="F5" s="35">
+        <v>45686</v>
+      </c>
       <c r="G5" s="24"/>
       <c r="H5" t="s">
         <v>417</v>
@@ -2948,23 +2966,25 @@
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="17">
+    <row r="6" spans="1:10">
+      <c r="A6" s="34">
         <v>2</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="34" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="41">
         <v>2953</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="F6" s="16"/>
+        <v>422</v>
+      </c>
+      <c r="F6" s="35">
+        <v>45688</v>
+      </c>
       <c r="G6" s="16"/>
       <c r="H6" t="s">
         <v>417</v>
@@ -2972,3992 +2992,4004 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
+    <row r="7" spans="1:10">
+      <c r="A7" s="34">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="34" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="41">
         <v>2963</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>424</v>
+        <v>423</v>
+      </c>
+      <c r="F7" s="35">
+        <v>45689</v>
       </c>
       <c r="H7" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
+    <row r="8" spans="1:10">
+      <c r="A8" s="34">
         <v>4</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="34" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="41">
         <v>2912</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>425</v>
+        <v>424</v>
+      </c>
+      <c r="F8" s="35">
+        <v>45690</v>
       </c>
       <c r="H8" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
+    <row r="9" spans="1:10">
+      <c r="A9" s="34">
         <v>5</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="34" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="41">
         <v>3132</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>426</v>
+        <v>425</v>
+      </c>
+      <c r="F9" s="35">
+        <v>45691</v>
       </c>
       <c r="H9" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
+    <row r="10" spans="1:10">
+      <c r="A10" s="34">
         <v>6</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="41">
         <v>3087</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>427</v>
+        <v>426</v>
+      </c>
+      <c r="F10" s="35">
+        <v>45693</v>
       </c>
       <c r="H10" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="34">
         <v>7</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="34" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="41">
         <v>3903</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H11" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="34">
         <v>8</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="34" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="41">
         <v>3569</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H12" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13">
+    <row r="13" spans="1:10">
+      <c r="A13" s="34">
         <v>9</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="34" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="41">
         <v>4283</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H13" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14">
+    <row r="14" spans="1:10">
+      <c r="A14" s="34">
         <v>10</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="34" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="41">
         <v>3301</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H14" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15">
+    <row r="15" spans="1:10">
+      <c r="A15" s="34">
         <v>11</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="34" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="41">
         <v>4997</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H15" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16">
+    <row r="16" spans="1:10">
+      <c r="A16" s="34">
         <v>12</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="34" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="41">
         <v>3242</v>
       </c>
       <c r="E16" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="H16" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="34">
+        <v>13</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="41">
+        <v>301</v>
+      </c>
+      <c r="E17" s="28" t="s">
         <v>433</v>
       </c>
-      <c r="H16" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="18">
-        <v>301</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>434</v>
-      </c>
       <c r="H17" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18">
+      <c r="A18" s="34">
         <v>14</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="34" t="s">
         <v>49</v>
       </c>
       <c r="C18" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="41">
         <v>2503</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H18" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19">
+      <c r="A19" s="34">
         <v>15</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="34" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="41">
         <v>2934</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H19" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20">
+      <c r="A20" s="34">
         <v>16</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="34" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="41">
         <v>3481</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H20" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21">
+      <c r="A21" s="34">
         <v>17</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="34" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="41">
         <v>3430</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H21" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22">
+      <c r="A22" s="34">
         <v>18</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="34" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="41">
         <v>2787</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H22" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23">
+      <c r="A23" s="34">
         <v>19</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="34" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="41">
         <v>3553</v>
       </c>
       <c r="E23" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="H23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="34">
+        <v>20</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="41">
+        <v>198</v>
+      </c>
+      <c r="E24" s="29" t="s">
         <v>440</v>
       </c>
-      <c r="H23" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24">
-        <v>20</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="18">
-        <v>198</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>441</v>
-      </c>
       <c r="H24" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25">
+      <c r="A25" s="34">
         <v>21</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="34" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="41">
         <v>3390</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H25" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26">
+      <c r="A26" s="34">
         <v>22</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="34" t="s">
         <v>56</v>
       </c>
       <c r="C26" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="41">
         <v>1177</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H26" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27">
+      <c r="A27" s="34">
         <v>23</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="34" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="41">
         <v>1450</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H27" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28">
+      <c r="A28" s="34">
         <v>24</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="34" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="41">
         <v>1062</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H28" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29">
+      <c r="A29" s="34">
         <v>25</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="34" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="41">
         <v>1450</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H29" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30">
+      <c r="A30" s="34">
         <v>26</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="34" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="41">
         <v>1193</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H30" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31">
+      <c r="A31" s="34">
         <v>27</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="34" t="s">
         <v>61</v>
       </c>
       <c r="C31" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="41">
         <v>799</v>
       </c>
       <c r="E31" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="H31" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="34">
+        <v>28</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="34"/>
+      <c r="D32" s="41">
+        <v>503</v>
+      </c>
+      <c r="E32" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="H31" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32">
-        <v>28</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="18">
-        <v>503</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>448</v>
-      </c>
       <c r="H32" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33">
+      <c r="A33" s="34">
         <v>29</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="34" t="s">
         <v>62</v>
       </c>
       <c r="C33" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="41">
         <v>1685</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H33" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34">
+      <c r="A34" s="34">
         <v>30</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="34" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="41">
         <v>1535</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H34" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35">
+      <c r="A35" s="34">
         <v>31</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="34" t="s">
         <v>64</v>
       </c>
       <c r="C35" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="41">
         <v>1167</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H35" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36">
+      <c r="A36" s="34">
         <v>32</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="34" t="s">
         <v>65</v>
       </c>
       <c r="C36" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="41">
         <v>882</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H36" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37">
+      <c r="A37" s="34">
         <v>33</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="34" t="s">
         <v>66</v>
       </c>
       <c r="C37" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="41">
         <v>1372</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H37" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38">
+      <c r="A38" s="34">
         <v>34</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="34" t="s">
         <v>67</v>
       </c>
       <c r="C38" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="41">
         <v>1059</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H38" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39">
+      <c r="A39" s="34">
         <v>35</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="34" t="s">
         <v>68</v>
       </c>
       <c r="C39" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="41">
         <v>945</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H39" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40">
+      <c r="A40" s="34">
         <v>36</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="34" t="s">
         <v>69</v>
       </c>
       <c r="C40" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="41">
         <v>1476</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H40" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41">
+      <c r="A41" s="34">
         <v>37</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="34" t="s">
         <v>70</v>
       </c>
       <c r="C41" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="41">
         <v>1180</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H41" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42">
+      <c r="A42" s="34">
         <v>38</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="34" t="s">
         <v>71</v>
       </c>
       <c r="C42" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="41">
         <v>1629</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H42" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43">
+      <c r="A43" s="34">
         <v>39</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="34" t="s">
         <v>72</v>
       </c>
       <c r="C43" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="41">
         <v>1112</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H43" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44">
+      <c r="A44" s="34">
         <v>40</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="34" t="s">
         <v>73</v>
       </c>
       <c r="C44" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="41">
         <v>1393</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H44" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45">
+      <c r="A45" s="34">
         <v>41</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="34" t="s">
         <v>74</v>
       </c>
       <c r="C45" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="41">
         <v>1025</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H45" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46">
+      <c r="A46" s="34">
         <v>42</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="34" t="s">
         <v>75</v>
       </c>
       <c r="C46" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="41">
         <v>931</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H46" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47">
+      <c r="A47" s="34">
         <v>43</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="34" t="s">
         <v>76</v>
       </c>
       <c r="C47" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="41">
         <v>1826</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H47" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48">
+      <c r="A48" s="34">
         <v>44</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="34" t="s">
         <v>77</v>
       </c>
       <c r="C48" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="41">
         <v>1744</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H48" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49">
+      <c r="A49" s="34">
         <v>45</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="34" t="s">
         <v>78</v>
       </c>
       <c r="C49" s="34" t="s">
         <v>282</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="41">
         <v>1277</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H49" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50">
+      <c r="A50" s="34">
         <v>46</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="34" t="s">
         <v>79</v>
       </c>
       <c r="C50" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="41">
         <v>1386</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H50" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51">
+      <c r="A51" s="34">
         <v>47</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="34" t="s">
         <v>80</v>
       </c>
       <c r="C51" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="41">
         <v>1906</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H51" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52">
+      <c r="A52" s="34">
         <v>48</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="34" t="s">
         <v>81</v>
       </c>
       <c r="C52" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D52" s="41">
         <v>1363</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H52" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53">
+      <c r="A53" s="34">
         <v>49</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C53" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D53" s="41">
         <v>1684</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H53" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54">
+      <c r="A54" s="34">
         <v>50</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="34" t="s">
         <v>83</v>
       </c>
       <c r="C54" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D54" s="41">
         <v>953</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H54" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55">
+      <c r="A55" s="34">
         <v>51</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="34" t="s">
         <v>84</v>
       </c>
       <c r="C55" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D55" s="41">
         <v>1424</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H55" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56">
+      <c r="A56" s="34">
         <v>52</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="34" t="s">
         <v>85</v>
       </c>
       <c r="C56" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D56" s="41">
         <v>1981</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H56" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57">
+      <c r="A57" s="34">
         <v>53</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="34" t="s">
         <v>86</v>
       </c>
       <c r="C57" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D57" s="41">
         <v>1127</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H57" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58">
+      <c r="A58" s="34">
         <v>54</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="34" t="s">
         <v>87</v>
       </c>
       <c r="C58" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D58" s="41">
         <v>983</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H58" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59">
+      <c r="A59" s="34">
         <v>55</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="34" t="s">
         <v>88</v>
       </c>
       <c r="C59" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D59" s="41">
         <v>1514</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H59" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60">
+      <c r="A60" s="34">
         <v>56</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="34" t="s">
         <v>89</v>
       </c>
       <c r="C60" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D60" s="41">
         <v>1083</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H60" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61">
+      <c r="A61" s="34">
         <v>57</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="34" t="s">
         <v>90</v>
       </c>
       <c r="C61" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D61" s="41">
         <v>1441</v>
       </c>
       <c r="E61" s="28" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H61" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62">
+      <c r="A62" s="34">
         <v>58</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="34" t="s">
         <v>91</v>
       </c>
       <c r="C62" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D62" s="41">
         <v>1341</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H62" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63">
+      <c r="A63" s="34">
         <v>59</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="34" t="s">
         <v>92</v>
       </c>
       <c r="C63" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D63" s="41">
         <v>1414</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H63" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64">
+      <c r="A64" s="34">
         <v>60</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="34" t="s">
         <v>93</v>
       </c>
       <c r="C64" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="D64" s="18">
+      <c r="D64" s="41">
         <v>1204</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H64" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65">
+      <c r="A65" s="34">
         <v>61</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="34" t="s">
         <v>94</v>
       </c>
       <c r="C65" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="D65" s="18">
+      <c r="D65" s="41">
         <v>1647</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H65" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66">
+      <c r="A66" s="34">
         <v>62</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="34" t="s">
         <v>95</v>
       </c>
       <c r="C66" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="D66" s="18">
+      <c r="D66" s="41">
         <v>821</v>
       </c>
       <c r="E66" s="28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H66" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67">
+      <c r="A67" s="34">
         <v>63</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="34" t="s">
         <v>96</v>
       </c>
       <c r="C67" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D67" s="41">
         <v>1260</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H67" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68">
+      <c r="A68" s="34">
         <v>64</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="34" t="s">
         <v>97</v>
       </c>
       <c r="C68" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="D68" s="18">
+      <c r="D68" s="41">
         <v>1793</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H68" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69">
+      <c r="A69" s="34">
         <v>65</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="34" t="s">
         <v>98</v>
       </c>
       <c r="C69" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D69" s="41">
         <v>1102</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H69" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70">
+      <c r="A70" s="34">
         <v>66</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="34" t="s">
         <v>99</v>
       </c>
       <c r="C70" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="D70" s="18">
+      <c r="D70" s="41">
         <v>1605</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H70" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71">
+      <c r="A71" s="34">
         <v>67</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="34" t="s">
         <v>100</v>
       </c>
       <c r="C71" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="D71" s="18">
+      <c r="D71" s="41">
         <v>1650</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H71" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72">
+      <c r="A72" s="34">
         <v>68</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="34" t="s">
         <v>101</v>
       </c>
       <c r="C72" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="D72" s="18">
+      <c r="D72" s="41">
         <v>1760</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H72" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73">
+      <c r="A73" s="34">
         <v>69</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="34" t="s">
         <v>102</v>
       </c>
       <c r="C73" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="D73" s="18">
+      <c r="D73" s="41">
         <v>1446</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H73" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74">
+      <c r="A74" s="34">
         <v>70</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="34" t="s">
         <v>103</v>
       </c>
       <c r="C74" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="D74" s="18">
+      <c r="D74" s="41">
         <v>2131</v>
       </c>
       <c r="E74" s="28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H74" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75">
+      <c r="A75" s="34">
         <v>71</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="34" t="s">
         <v>104</v>
       </c>
       <c r="C75" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="D75" s="18">
+      <c r="D75" s="41">
         <v>1798</v>
       </c>
       <c r="E75" s="28" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H75" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76">
+      <c r="A76" s="34">
         <v>72</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="34" t="s">
         <v>105</v>
       </c>
       <c r="C76" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="D76" s="18">
+      <c r="D76" s="41">
         <v>354</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H76" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77">
+      <c r="A77" s="34">
         <v>73</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="34" t="s">
         <v>106</v>
       </c>
       <c r="C77" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="D77" s="18">
+      <c r="D77" s="41">
         <v>1951</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H77" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78">
+      <c r="A78" s="34">
         <v>74</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="34" t="s">
         <v>107</v>
       </c>
       <c r="C78" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="D78" s="18">
+      <c r="D78" s="41">
         <v>1554</v>
       </c>
       <c r="E78" s="28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H78" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79">
+      <c r="A79" s="34">
         <v>75</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="34" t="s">
         <v>108</v>
       </c>
       <c r="C79" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="D79" s="18">
+      <c r="D79" s="41">
         <v>1407</v>
       </c>
       <c r="E79" s="28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H79" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80">
+      <c r="A80" s="34">
         <v>76</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="34" t="s">
         <v>109</v>
       </c>
       <c r="C80" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="D80" s="18">
+      <c r="D80" s="41">
         <v>1415</v>
       </c>
       <c r="E80" s="28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H80" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81">
+      <c r="A81" s="34">
         <v>77</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="34" t="s">
         <v>110</v>
       </c>
       <c r="C81" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="D81" s="18">
+      <c r="D81" s="41">
         <v>1006</v>
       </c>
       <c r="E81" s="28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H81" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82">
+      <c r="A82" s="34">
         <v>78</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="34" t="s">
         <v>111</v>
       </c>
       <c r="C82" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="D82" s="18">
+      <c r="D82" s="41">
         <v>1248</v>
       </c>
       <c r="E82" s="28" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H82" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83">
+      <c r="A83" s="34">
         <v>79</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="34" t="s">
         <v>112</v>
       </c>
       <c r="C83" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="D83" s="18">
+      <c r="D83" s="41">
         <v>1121</v>
       </c>
       <c r="E83" s="28" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H83" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84">
+      <c r="A84" s="34">
         <v>80</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="34" t="s">
         <v>113</v>
       </c>
       <c r="C84" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="D84" s="18">
+      <c r="D84" s="41">
         <v>1200</v>
       </c>
       <c r="E84" s="28" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H84" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85">
+      <c r="A85" s="34">
         <v>81</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B85" s="34" t="s">
         <v>114</v>
       </c>
       <c r="C85" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="D85" s="18">
+      <c r="D85" s="41">
         <v>1345</v>
       </c>
       <c r="E85" s="28" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H85" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86">
+      <c r="A86" s="34">
         <v>82</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="34" t="s">
         <v>115</v>
       </c>
       <c r="C86" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="D86" s="18">
+      <c r="D86" s="41">
         <v>1322</v>
       </c>
       <c r="E86" s="28" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H86" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87">
+      <c r="A87" s="34">
         <v>83</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="34" t="s">
         <v>116</v>
       </c>
       <c r="C87" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="D87" s="18">
+      <c r="D87" s="41">
         <v>1600</v>
       </c>
       <c r="E87" s="28" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H87" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88">
+      <c r="A88" s="34">
         <v>84</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="34" t="s">
         <v>117</v>
       </c>
       <c r="C88" s="34" t="s">
         <v>321</v>
       </c>
-      <c r="D88" s="18">
+      <c r="D88" s="41">
         <v>1363</v>
       </c>
       <c r="E88" s="28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H88" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89">
+      <c r="A89" s="34">
         <v>85</v>
       </c>
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="34" t="s">
         <v>118</v>
       </c>
       <c r="C89" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="D89" s="18">
+      <c r="D89" s="41">
         <v>761</v>
       </c>
       <c r="E89" s="28" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H89" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90">
+      <c r="A90" s="34">
         <v>86</v>
       </c>
-      <c r="B90" s="18" t="s">
+      <c r="B90" s="34" t="s">
         <v>119</v>
       </c>
       <c r="C90" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="D90" s="18">
+      <c r="D90" s="41">
         <v>1149</v>
       </c>
       <c r="E90" s="28" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H90" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91">
+      <c r="A91" s="34">
         <v>87</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="34" t="s">
         <v>120</v>
       </c>
       <c r="C91" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="D91" s="18">
+      <c r="D91" s="41">
         <v>1104</v>
       </c>
       <c r="E91" s="28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H91" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92">
+      <c r="A92" s="34">
         <v>88</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="34" t="s">
         <v>121</v>
       </c>
       <c r="C92" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="D92" s="18">
+      <c r="D92" s="41">
         <v>1561</v>
       </c>
       <c r="E92" s="28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H92" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93">
+      <c r="A93" s="34">
         <v>89</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="34" t="s">
         <v>122</v>
       </c>
       <c r="C93" s="34" t="s">
         <v>326</v>
       </c>
-      <c r="D93" s="18">
+      <c r="D93" s="41">
         <v>1496</v>
       </c>
       <c r="E93" s="28" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H93" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94">
+      <c r="A94" s="34">
         <v>90</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="34" t="s">
         <v>123</v>
       </c>
       <c r="C94" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="D94" s="18">
+      <c r="D94" s="41">
         <v>1515</v>
       </c>
       <c r="E94" s="28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H94" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95">
+      <c r="A95" s="34">
         <v>91</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="34" t="s">
         <v>124</v>
       </c>
       <c r="C95" s="34" t="s">
         <v>328</v>
       </c>
-      <c r="D95" s="18">
+      <c r="D95" s="41">
         <v>1778</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H95" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96">
+      <c r="A96" s="34">
         <v>92</v>
       </c>
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="34" t="s">
         <v>125</v>
       </c>
       <c r="C96" s="34" t="s">
         <v>329</v>
       </c>
-      <c r="D96" s="18">
+      <c r="D96" s="41">
         <v>1635</v>
       </c>
       <c r="E96" s="28" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H96" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97">
+      <c r="A97" s="34">
         <v>93</v>
       </c>
-      <c r="B97" s="18" t="s">
+      <c r="B97" s="34" t="s">
         <v>126</v>
       </c>
       <c r="C97" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="D97" s="18">
+      <c r="D97" s="41">
         <v>2049</v>
       </c>
       <c r="E97" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H97" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98">
+      <c r="A98" s="34">
         <v>94</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="34" t="s">
         <v>127</v>
       </c>
       <c r="C98" s="34" t="s">
         <v>331</v>
       </c>
-      <c r="D98" s="18">
+      <c r="D98" s="41">
         <v>1454</v>
       </c>
       <c r="E98" s="28" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H98" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99">
+      <c r="A99" s="34">
         <v>95</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="34" t="s">
         <v>128</v>
       </c>
       <c r="C99" s="34" t="s">
         <v>332</v>
       </c>
-      <c r="D99" s="18">
+      <c r="D99" s="41">
         <v>1148</v>
       </c>
       <c r="E99" s="28" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H99" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100">
+      <c r="A100" s="34">
         <v>96</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="34" t="s">
         <v>129</v>
       </c>
       <c r="C100" s="34" t="s">
         <v>333</v>
       </c>
-      <c r="D100" s="18">
+      <c r="D100" s="41">
         <v>1376</v>
       </c>
       <c r="E100" s="28" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H100" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101">
+      <c r="A101" s="34">
         <v>97</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="B101" s="34" t="s">
         <v>130</v>
       </c>
       <c r="C101" s="34" t="s">
         <v>334</v>
       </c>
-      <c r="D101" s="18">
+      <c r="D101" s="41">
         <v>1233</v>
       </c>
       <c r="E101" s="28" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H101" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102">
+      <c r="A102" s="34">
         <v>98</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="34" t="s">
         <v>131</v>
       </c>
       <c r="C102" s="34" t="s">
         <v>335</v>
       </c>
-      <c r="D102" s="18">
+      <c r="D102" s="41">
         <v>1313</v>
       </c>
       <c r="E102" s="28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H102" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103">
+      <c r="A103" s="34">
         <v>99</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="34" t="s">
         <v>132</v>
       </c>
       <c r="C103" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="D103" s="18">
+      <c r="D103" s="41">
         <v>1099</v>
       </c>
       <c r="E103" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H103" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104">
+      <c r="A104" s="34">
         <v>100</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="34" t="s">
         <v>133</v>
       </c>
       <c r="C104" s="34" t="s">
         <v>337</v>
       </c>
-      <c r="D104" s="18">
+      <c r="D104" s="41">
         <v>1626</v>
       </c>
       <c r="E104" s="28" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H104" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105">
+      <c r="A105" s="34">
         <v>101</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="34" t="s">
         <v>134</v>
       </c>
       <c r="C105" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="D105" s="18">
+      <c r="D105" s="41">
         <v>1554</v>
       </c>
       <c r="E105" s="28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H105" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106">
+      <c r="A106" s="34">
         <v>102</v>
       </c>
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="34" t="s">
         <v>135</v>
       </c>
       <c r="C106" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="D106" s="18">
+      <c r="D106" s="41">
         <v>1044</v>
       </c>
       <c r="E106" s="28" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H106" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107">
+      <c r="A107" s="34">
         <v>103</v>
       </c>
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="34" t="s">
         <v>136</v>
       </c>
       <c r="C107" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="D107" s="18">
+      <c r="D107" s="41">
         <v>1151</v>
       </c>
       <c r="E107" s="28" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H107" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108">
+      <c r="A108" s="34">
         <v>104</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="34" t="s">
         <v>137</v>
       </c>
       <c r="C108" s="34" t="s">
         <v>341</v>
       </c>
-      <c r="D108" s="18">
+      <c r="D108" s="41">
         <v>964</v>
       </c>
       <c r="E108" s="28" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H108" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109">
+      <c r="A109" s="34">
         <v>105</v>
       </c>
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="34" t="s">
         <v>138</v>
       </c>
       <c r="C109" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="D109" s="18">
+      <c r="D109" s="41">
         <v>1231</v>
       </c>
       <c r="E109" s="28" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H109" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110">
+      <c r="A110" s="34">
         <v>106</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="34" t="s">
         <v>139</v>
       </c>
       <c r="C110" s="34" t="s">
         <v>343</v>
       </c>
-      <c r="D110" s="18">
+      <c r="D110" s="41">
         <v>1223</v>
       </c>
       <c r="E110" s="28" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H110" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111">
+      <c r="A111" s="34">
         <v>107</v>
       </c>
-      <c r="B111" s="18" t="s">
+      <c r="B111" s="34" t="s">
         <v>140</v>
       </c>
       <c r="C111" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="D111" s="18">
+      <c r="D111" s="41">
         <v>899</v>
       </c>
       <c r="E111" s="28" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H111" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112">
+      <c r="A112" s="34">
         <v>108</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="B112" s="34" t="s">
         <v>142</v>
       </c>
       <c r="C112" s="34" t="s">
         <v>344</v>
       </c>
-      <c r="D112" s="18">
+      <c r="D112" s="41">
         <v>1449</v>
       </c>
       <c r="E112" s="28" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H112" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113">
+      <c r="A113" s="34">
         <v>109</v>
       </c>
-      <c r="B113" s="18" t="s">
+      <c r="B113" s="34" t="s">
         <v>140</v>
       </c>
       <c r="C113" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="D113" s="18">
+      <c r="D113" s="41">
         <v>912</v>
       </c>
       <c r="E113" s="28" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H113" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114">
+      <c r="A114" s="34">
         <v>110</v>
       </c>
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="34" t="s">
         <v>143</v>
       </c>
       <c r="C114" s="34" t="s">
         <v>345</v>
       </c>
-      <c r="D114" s="18">
+      <c r="D114" s="41">
         <v>1356</v>
       </c>
       <c r="E114" s="28" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H114" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115">
+      <c r="A115" s="34">
         <v>111</v>
       </c>
-      <c r="B115" s="18" t="s">
+      <c r="B115" s="34" t="s">
         <v>140</v>
       </c>
       <c r="C115" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="D115" s="18">
+      <c r="D115" s="41">
         <v>916</v>
       </c>
       <c r="E115" s="28" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H115" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116">
+      <c r="A116" s="34">
         <v>112</v>
       </c>
-      <c r="B116" s="18" t="s">
+      <c r="B116" s="34" t="s">
         <v>145</v>
       </c>
       <c r="C116" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="D116" s="18">
+      <c r="D116" s="41">
         <v>1318</v>
       </c>
       <c r="E116" s="28" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H116" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117">
+      <c r="A117" s="34">
         <v>113</v>
       </c>
-      <c r="B117" s="18" t="s">
+      <c r="B117" s="34" t="s">
         <v>146</v>
       </c>
       <c r="C117" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="D117" s="18">
+      <c r="D117" s="41">
         <v>1135</v>
       </c>
       <c r="E117" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H117" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118">
+      <c r="A118" s="34">
         <v>114</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="34" t="s">
         <v>147</v>
       </c>
       <c r="C118" s="34" t="s">
         <v>348</v>
       </c>
-      <c r="D118" s="18">
+      <c r="D118" s="41">
         <v>955</v>
       </c>
       <c r="E118" s="28" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H118" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119">
+      <c r="A119" s="34">
         <v>115</v>
       </c>
-      <c r="B119" s="18" t="s">
+      <c r="B119" s="34" t="s">
         <v>148</v>
       </c>
       <c r="C119" s="34" t="s">
         <v>349</v>
       </c>
-      <c r="D119" s="18">
+      <c r="D119" s="41">
         <v>1097</v>
       </c>
       <c r="E119" s="28" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H119" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120">
+      <c r="A120" s="34">
         <v>116</v>
       </c>
-      <c r="B120" s="18" t="s">
+      <c r="B120" s="34" t="s">
         <v>149</v>
       </c>
       <c r="C120" s="34" t="s">
         <v>350</v>
       </c>
-      <c r="D120" s="18">
+      <c r="D120" s="41">
         <v>1091</v>
       </c>
       <c r="E120" s="28" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H120" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121">
+      <c r="A121" s="34">
         <v>117</v>
       </c>
-      <c r="B121" s="18" t="s">
+      <c r="B121" s="34" t="s">
         <v>150</v>
       </c>
       <c r="C121" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="D121" s="18">
+      <c r="D121" s="41">
         <v>1441</v>
       </c>
       <c r="E121" s="28" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H121" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122">
+      <c r="A122" s="34">
         <v>118</v>
       </c>
-      <c r="B122" s="18" t="s">
+      <c r="B122" s="34" t="s">
         <v>140</v>
       </c>
       <c r="C122" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="D122" s="18">
+      <c r="D122" s="41">
         <v>718</v>
       </c>
       <c r="E122" s="28" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H122" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123">
+      <c r="A123" s="34">
         <v>119</v>
       </c>
-      <c r="B123" s="18" t="s">
+      <c r="B123" s="34" t="s">
         <v>152</v>
       </c>
       <c r="C123" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="D123" s="18">
+      <c r="D123" s="41">
         <v>1183</v>
       </c>
       <c r="E123" s="28" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H123" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124">
+      <c r="A124" s="34">
         <v>120</v>
       </c>
-      <c r="B124" s="18" t="s">
+      <c r="B124" s="34" t="s">
         <v>140</v>
       </c>
       <c r="C124" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="D124" s="18">
+      <c r="D124" s="41">
         <v>648</v>
       </c>
       <c r="E124" s="28" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H124" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125">
+      <c r="A125" s="34">
         <v>121</v>
       </c>
-      <c r="B125" s="18" t="s">
+      <c r="B125" s="34" t="s">
         <v>154</v>
       </c>
       <c r="C125" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="D125" s="18">
+      <c r="D125" s="41">
         <v>1127</v>
       </c>
       <c r="E125" s="28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H125" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126">
+      <c r="A126" s="34">
         <v>122</v>
       </c>
-      <c r="B126" s="18" t="s">
+      <c r="B126" s="34" t="s">
         <v>140</v>
       </c>
       <c r="C126" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="D126" s="18">
+      <c r="D126" s="41">
         <v>834</v>
       </c>
       <c r="E126" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H126" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127">
+      <c r="A127" s="34">
         <v>123</v>
       </c>
-      <c r="B127" s="18" t="s">
+      <c r="B127" s="34" t="s">
         <v>156</v>
       </c>
       <c r="C127" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="D127" s="18">
+      <c r="D127" s="41">
         <v>1216</v>
       </c>
       <c r="E127" s="28" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H127" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128">
+      <c r="A128" s="34">
         <v>124</v>
       </c>
-      <c r="B128" s="18" t="s">
+      <c r="B128" s="34" t="s">
         <v>157</v>
       </c>
       <c r="C128" s="34" t="s">
         <v>355</v>
       </c>
-      <c r="D128" s="18">
+      <c r="D128" s="41">
         <v>1131</v>
       </c>
       <c r="E128" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H128" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129">
+      <c r="A129" s="34">
         <v>125</v>
       </c>
-      <c r="B129" s="18" t="s">
+      <c r="B129" s="34" t="s">
         <v>158</v>
       </c>
       <c r="C129" s="34" t="s">
         <v>356</v>
       </c>
-      <c r="D129" s="18">
+      <c r="D129" s="41">
         <v>1184</v>
       </c>
       <c r="E129" s="28" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H129" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130">
+      <c r="A130" s="34">
         <v>126</v>
       </c>
-      <c r="B130" s="18" t="s">
+      <c r="B130" s="34" t="s">
         <v>140</v>
       </c>
       <c r="C130" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="D130" s="18">
+      <c r="D130" s="41">
         <v>550</v>
       </c>
       <c r="E130" s="28" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H130" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131">
+      <c r="A131" s="34">
         <v>127</v>
       </c>
-      <c r="B131" s="18" t="s">
+      <c r="B131" s="34" t="s">
         <v>160</v>
       </c>
       <c r="C131" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="D131" s="18">
+      <c r="D131" s="41">
         <v>1498</v>
       </c>
       <c r="E131" s="28" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H131" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132">
+      <c r="A132" s="34">
         <v>128</v>
       </c>
-      <c r="B132" s="18" t="s">
+      <c r="B132" s="34" t="s">
         <v>161</v>
       </c>
       <c r="C132" s="34" t="s">
         <v>358</v>
       </c>
-      <c r="D132" s="18">
+      <c r="D132" s="41">
         <v>1201</v>
       </c>
       <c r="E132" s="28" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H132" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133">
+      <c r="A133" s="34">
         <v>129</v>
       </c>
-      <c r="B133" s="18" t="s">
+      <c r="B133" s="34" t="s">
         <v>162</v>
       </c>
       <c r="C133" s="34" t="s">
         <v>359</v>
       </c>
-      <c r="D133" s="18">
+      <c r="D133" s="41">
         <v>1151</v>
       </c>
       <c r="E133" s="28" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H133" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134">
+      <c r="A134" s="34">
         <v>130</v>
       </c>
-      <c r="B134" s="18" t="s">
+      <c r="B134" s="34" t="s">
         <v>140</v>
       </c>
       <c r="C134" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="D134" s="18">
+      <c r="D134" s="41">
         <v>656</v>
       </c>
       <c r="E134" s="28" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H134" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135">
+      <c r="A135" s="34">
         <v>131</v>
       </c>
-      <c r="B135" s="18" t="s">
+      <c r="B135" s="34" t="s">
         <v>163</v>
       </c>
       <c r="C135" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="D135" s="18">
+      <c r="D135" s="41">
         <v>1039</v>
       </c>
       <c r="E135" s="28" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H135" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136">
+      <c r="A136" s="34">
         <v>132</v>
       </c>
-      <c r="B136" s="18" t="s">
+      <c r="B136" s="34" t="s">
         <v>164</v>
       </c>
       <c r="C136" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="D136" s="18">
+      <c r="D136" s="41">
         <v>1033</v>
       </c>
       <c r="E136" s="28" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H136" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137">
+      <c r="A137" s="34">
         <v>133</v>
       </c>
-      <c r="B137" s="18" t="s">
+      <c r="B137" s="34" t="s">
         <v>165</v>
       </c>
       <c r="C137" s="34" t="s">
         <v>362</v>
       </c>
-      <c r="D137" s="18">
+      <c r="D137" s="41">
         <v>1407</v>
       </c>
       <c r="E137" s="28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H137" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138">
+      <c r="A138" s="34">
         <v>134</v>
       </c>
-      <c r="B138" s="18" t="s">
+      <c r="B138" s="34" t="s">
         <v>166</v>
       </c>
       <c r="C138" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="D138" s="18">
+      <c r="D138" s="41">
         <v>1511</v>
       </c>
       <c r="E138" s="28" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H138" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139">
+      <c r="A139" s="34">
         <v>135</v>
       </c>
-      <c r="B139" s="18" t="s">
+      <c r="B139" s="34" t="s">
         <v>167</v>
       </c>
       <c r="C139" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D139" s="18">
+      <c r="D139" s="41">
         <v>586</v>
       </c>
       <c r="E139" s="28" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H139" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140">
+      <c r="A140" s="34">
         <v>136</v>
       </c>
-      <c r="B140" s="18" t="s">
+      <c r="B140" s="34" t="s">
         <v>169</v>
       </c>
       <c r="C140" s="34" t="s">
         <v>364</v>
       </c>
-      <c r="D140" s="18">
+      <c r="D140" s="41">
         <v>1530</v>
       </c>
       <c r="E140" s="28" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H140" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141">
+      <c r="A141" s="34">
         <v>137</v>
       </c>
-      <c r="B141" s="18" t="s">
+      <c r="B141" s="34" t="s">
         <v>170</v>
       </c>
       <c r="C141" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="D141" s="18">
+      <c r="D141" s="41">
         <v>1434</v>
       </c>
       <c r="E141" s="28" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H141" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142">
+      <c r="A142" s="34">
         <v>138</v>
       </c>
-      <c r="B142" s="18" t="s">
+      <c r="B142" s="34" t="s">
         <v>171</v>
       </c>
       <c r="C142" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="D142" s="18">
+      <c r="D142" s="41">
         <v>1870</v>
       </c>
       <c r="E142" s="28" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H142" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143">
+      <c r="A143" s="34">
         <v>139</v>
       </c>
-      <c r="B143" s="18" t="s">
+      <c r="B143" s="34" t="s">
         <v>167</v>
       </c>
       <c r="C143" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="D143" s="18">
+      <c r="D143" s="41">
         <v>601</v>
       </c>
       <c r="E143" s="28" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H143" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144">
+      <c r="A144" s="34">
         <v>140</v>
       </c>
-      <c r="B144" s="18" t="s">
+      <c r="B144" s="34" t="s">
         <v>173</v>
       </c>
       <c r="C144" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="D144" s="18">
+      <c r="D144" s="41">
         <v>1526</v>
       </c>
       <c r="E144" s="28" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H144" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145">
+      <c r="A145" s="34">
         <v>141</v>
       </c>
-      <c r="B145" s="18" t="s">
+      <c r="B145" s="34" t="s">
         <v>174</v>
       </c>
       <c r="C145" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="D145" s="18">
+      <c r="D145" s="41">
         <v>868</v>
       </c>
       <c r="E145" s="28" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H145" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146">
+      <c r="A146" s="34">
         <v>142</v>
       </c>
-      <c r="B146" s="18" t="s">
+      <c r="B146" s="34" t="s">
         <v>167</v>
       </c>
       <c r="C146" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="D146" s="18">
+      <c r="D146" s="41">
         <v>1056</v>
       </c>
       <c r="E146" s="28" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H146" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147">
+      <c r="A147" s="34">
         <v>143</v>
       </c>
-      <c r="B147" s="18" t="s">
+      <c r="B147" s="34" t="s">
         <v>176</v>
       </c>
       <c r="C147" s="34" t="s">
         <v>369</v>
       </c>
-      <c r="D147" s="18">
+      <c r="D147" s="41">
         <v>1761</v>
       </c>
       <c r="E147" s="28" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H147" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148">
+      <c r="A148" s="34">
         <v>144</v>
       </c>
-      <c r="B148" s="18" t="s">
+      <c r="B148" s="34" t="s">
         <v>177</v>
       </c>
       <c r="C148" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="D148" s="18">
+      <c r="D148" s="41">
         <v>1070</v>
       </c>
       <c r="E148" s="28" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H148" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149">
+      <c r="A149" s="34">
         <v>145</v>
       </c>
-      <c r="B149" s="18" t="s">
+      <c r="B149" s="34" t="s">
         <v>167</v>
       </c>
       <c r="C149" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="D149" s="18">
+      <c r="D149" s="41">
         <v>813</v>
       </c>
       <c r="E149" s="28" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H149" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150">
+      <c r="A150" s="34">
         <v>146</v>
       </c>
-      <c r="B150" s="18" t="s">
+      <c r="B150" s="34" t="s">
         <v>179</v>
       </c>
       <c r="C150" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="D150" s="18">
+      <c r="D150" s="41">
         <v>1006</v>
       </c>
       <c r="E150" s="28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H150" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151">
+      <c r="A151" s="34">
         <v>147</v>
       </c>
-      <c r="B151" s="18" t="s">
+      <c r="B151" s="34" t="s">
         <v>180</v>
       </c>
       <c r="C151" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="D151" s="18">
+      <c r="D151" s="41">
         <v>1182</v>
       </c>
       <c r="E151" s="28" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H151" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152">
+      <c r="A152" s="34">
         <v>148</v>
       </c>
-      <c r="B152" s="18" t="s">
+      <c r="B152" s="34" t="s">
         <v>181</v>
       </c>
       <c r="C152" s="34" t="s">
         <v>373</v>
       </c>
-      <c r="D152" s="18">
+      <c r="D152" s="41">
         <v>1274</v>
       </c>
       <c r="E152" s="28" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H152" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153">
+      <c r="A153" s="34">
         <v>149</v>
       </c>
-      <c r="B153" s="18" t="s">
+      <c r="B153" s="34" t="s">
         <v>167</v>
       </c>
       <c r="C153" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="D153" s="18">
+      <c r="D153" s="41">
         <v>809</v>
       </c>
       <c r="E153" s="28" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H153" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154">
+      <c r="A154" s="34">
         <v>150</v>
       </c>
-      <c r="B154" s="18" t="s">
+      <c r="B154" s="34" t="s">
         <v>183</v>
       </c>
       <c r="C154" s="34" t="s">
         <v>374</v>
       </c>
-      <c r="D154" s="18">
+      <c r="D154" s="41">
         <v>1406</v>
       </c>
       <c r="E154" s="28" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H154" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155">
+      <c r="A155" s="34">
         <v>151</v>
       </c>
-      <c r="B155" s="18" t="s">
+      <c r="B155" s="34" t="s">
         <v>184</v>
       </c>
       <c r="C155" s="34" t="s">
         <v>375</v>
       </c>
-      <c r="D155" s="18">
+      <c r="D155" s="41">
         <v>1163</v>
       </c>
       <c r="E155" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H155" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156">
+      <c r="A156" s="34">
         <v>152</v>
       </c>
-      <c r="B156" s="18" t="s">
+      <c r="B156" s="34" t="s">
         <v>185</v>
       </c>
       <c r="C156" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="D156" s="18">
+      <c r="D156" s="41">
         <v>1150</v>
       </c>
       <c r="E156" s="28" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H156" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157">
+      <c r="A157" s="34">
         <v>153</v>
       </c>
-      <c r="B157" s="18" t="s">
+      <c r="B157" s="34" t="s">
         <v>187</v>
       </c>
       <c r="C157" s="34" t="s">
         <v>376</v>
       </c>
-      <c r="D157" s="18">
+      <c r="D157" s="41">
         <v>1249</v>
       </c>
       <c r="E157" s="28" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H157" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158">
+      <c r="A158" s="34">
         <v>154</v>
       </c>
-      <c r="B158" s="18" t="s">
+      <c r="B158" s="34" t="s">
         <v>188</v>
       </c>
       <c r="C158" s="34" t="s">
         <v>377</v>
       </c>
-      <c r="D158" s="18">
+      <c r="D158" s="41">
         <v>1215</v>
       </c>
       <c r="E158" s="28" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H158" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159">
+      <c r="A159" s="34">
         <v>155</v>
       </c>
-      <c r="B159" s="18" t="s">
+      <c r="B159" s="34" t="s">
         <v>189</v>
       </c>
       <c r="C159" s="34" t="s">
         <v>378</v>
       </c>
-      <c r="D159" s="18">
+      <c r="D159" s="41">
         <v>1119</v>
       </c>
       <c r="E159" s="28" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H159" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160">
+      <c r="A160" s="34">
         <v>156</v>
       </c>
-      <c r="B160" s="18" t="s">
+      <c r="B160" s="34" t="s">
         <v>190</v>
       </c>
       <c r="C160" s="34" t="s">
         <v>379</v>
       </c>
-      <c r="D160" s="18">
+      <c r="D160" s="41">
         <v>1286</v>
       </c>
       <c r="E160" s="28" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H160" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161">
+      <c r="A161" s="34">
         <v>157</v>
       </c>
-      <c r="B161" s="18" t="s">
+      <c r="B161" s="34" t="s">
         <v>191</v>
       </c>
       <c r="C161" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="D161" s="18">
+      <c r="D161" s="41">
         <v>679</v>
       </c>
       <c r="E161" s="28" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H161" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162">
+      <c r="A162" s="34">
         <v>158</v>
       </c>
-      <c r="B162" s="18" t="s">
+      <c r="B162" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C162" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="D162" s="18">
+      <c r="D162" s="41">
         <v>1176</v>
       </c>
       <c r="E162" s="28" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H162" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163">
+      <c r="A163" s="34">
         <v>159</v>
       </c>
-      <c r="B163" s="18" t="s">
+      <c r="B163" s="34" t="s">
         <v>194</v>
       </c>
       <c r="C163" s="34" t="s">
         <v>381</v>
       </c>
-      <c r="D163" s="18">
+      <c r="D163" s="41">
         <v>1325</v>
       </c>
       <c r="E163" s="28" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H163" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164">
+      <c r="A164" s="34">
         <v>160</v>
       </c>
-      <c r="B164" s="18" t="s">
+      <c r="B164" s="34" t="s">
         <v>191</v>
       </c>
       <c r="C164" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="D164" s="18">
+      <c r="D164" s="41">
         <v>484</v>
       </c>
       <c r="E164" s="28" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H164" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165">
+      <c r="A165" s="34">
         <v>161</v>
       </c>
-      <c r="B165" s="18" t="s">
+      <c r="B165" s="34" t="s">
         <v>196</v>
       </c>
       <c r="C165" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="D165" s="18">
+      <c r="D165" s="41">
         <v>1750</v>
       </c>
       <c r="E165" s="28" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H165" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166">
+      <c r="A166" s="34">
         <v>162</v>
       </c>
-      <c r="B166" s="18" t="s">
+      <c r="B166" s="34" t="s">
         <v>197</v>
       </c>
       <c r="C166" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="D166" s="18">
+      <c r="D166" s="41">
         <v>1198</v>
       </c>
       <c r="E166" s="28" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H166" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167">
+      <c r="A167" s="34">
         <v>163</v>
       </c>
-      <c r="B167" s="18" t="s">
+      <c r="B167" s="34" t="s">
         <v>198</v>
       </c>
       <c r="C167" s="34" t="s">
         <v>384</v>
       </c>
-      <c r="D167" s="18">
+      <c r="D167" s="41">
         <v>868</v>
       </c>
       <c r="E167" s="28" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H167" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168">
+      <c r="A168" s="34">
         <v>164</v>
       </c>
-      <c r="B168" s="18" t="s">
+      <c r="B168" s="34" t="s">
         <v>191</v>
       </c>
       <c r="C168" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="D168" s="18">
+      <c r="D168" s="41">
         <v>666</v>
       </c>
       <c r="E168" s="28" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H168" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169">
+      <c r="A169" s="34">
         <v>165</v>
       </c>
-      <c r="B169" s="18" t="s">
+      <c r="B169" s="34" t="s">
         <v>199</v>
       </c>
       <c r="C169" s="34" t="s">
         <v>385</v>
       </c>
-      <c r="D169" s="18">
+      <c r="D169" s="41">
         <v>1748</v>
       </c>
       <c r="E169" s="28" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H169" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170">
+      <c r="A170" s="34">
         <v>166</v>
       </c>
-      <c r="B170" s="18" t="s">
+      <c r="B170" s="34" t="s">
         <v>200</v>
       </c>
       <c r="C170" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="D170" s="18">
+      <c r="D170" s="41">
         <v>1797</v>
       </c>
       <c r="E170" s="28" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H170" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171">
+      <c r="A171" s="34">
         <v>167</v>
       </c>
-      <c r="B171" s="18" t="s">
+      <c r="B171" s="34" t="s">
         <v>201</v>
       </c>
       <c r="C171" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="D171" s="18">
+      <c r="D171" s="41">
         <v>1067</v>
       </c>
       <c r="E171" s="28" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H171" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172">
+      <c r="A172" s="34">
         <v>168</v>
       </c>
-      <c r="B172" s="18" t="s">
+      <c r="B172" s="34" t="s">
         <v>202</v>
       </c>
       <c r="C172" s="34" t="s">
         <v>388</v>
       </c>
-      <c r="D172" s="18">
+      <c r="D172" s="41">
         <v>883</v>
       </c>
       <c r="E172" s="28" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H172" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173">
+      <c r="A173" s="34">
         <v>169</v>
       </c>
-      <c r="B173" s="18" t="s">
+      <c r="B173" s="34" t="s">
         <v>191</v>
       </c>
       <c r="C173" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="D173" s="18">
+      <c r="D173" s="41">
         <v>492</v>
       </c>
       <c r="E173" s="28" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H173" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174">
+      <c r="A174" s="34">
         <v>170</v>
       </c>
-      <c r="B174" s="18" t="s">
+      <c r="B174" s="34" t="s">
         <v>204</v>
       </c>
       <c r="C174" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="D174" s="18">
+      <c r="D174" s="41">
         <v>1403</v>
       </c>
       <c r="E174" s="28" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H174" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175">
+      <c r="A175" s="34">
         <v>171</v>
       </c>
-      <c r="B175" s="18" t="s">
+      <c r="B175" s="34" t="s">
         <v>205</v>
       </c>
       <c r="C175" s="34" t="s">
         <v>390</v>
       </c>
-      <c r="D175" s="18">
+      <c r="D175" s="41">
         <v>1491</v>
       </c>
       <c r="E175" s="28" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H175" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176">
+      <c r="A176" s="34">
         <v>172</v>
       </c>
-      <c r="B176" s="18" t="s">
+      <c r="B176" s="34" t="s">
         <v>191</v>
       </c>
       <c r="C176" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="D176" s="18">
+      <c r="D176" s="41">
         <v>475</v>
       </c>
       <c r="E176" s="28" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H176" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177">
+      <c r="A177" s="34">
         <v>173</v>
       </c>
-      <c r="B177" s="18" t="s">
+      <c r="B177" s="34" t="s">
         <v>206</v>
       </c>
       <c r="C177" s="34" t="s">
         <v>391</v>
       </c>
-      <c r="D177" s="18">
+      <c r="D177" s="41">
         <v>1053</v>
       </c>
       <c r="E177" s="28" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H177" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178">
+      <c r="A178" s="34">
         <v>174</v>
       </c>
-      <c r="B178" s="18" t="s">
+      <c r="B178" s="34" t="s">
         <v>207</v>
       </c>
       <c r="C178" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="D178" s="18">
+      <c r="D178" s="41">
         <v>1368</v>
       </c>
       <c r="E178" s="28" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H178" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179">
+      <c r="A179" s="34">
         <v>175</v>
       </c>
-      <c r="B179" s="18" t="s">
+      <c r="B179" s="34" t="s">
         <v>208</v>
       </c>
       <c r="C179" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="D179" s="18">
+      <c r="D179" s="41">
         <v>1233</v>
       </c>
       <c r="E179" s="28" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H179" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180">
+      <c r="A180" s="34">
         <v>176</v>
       </c>
-      <c r="B180" s="18" t="s">
+      <c r="B180" s="34" t="s">
         <v>209</v>
       </c>
       <c r="C180" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="D180" s="18">
+      <c r="D180" s="41">
         <v>571</v>
       </c>
       <c r="E180" s="28" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H180" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181">
+      <c r="A181" s="34">
         <v>177</v>
       </c>
-      <c r="B181" s="18" t="s">
+      <c r="B181" s="34" t="s">
         <v>191</v>
       </c>
       <c r="C181" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="D181" s="18">
+      <c r="D181" s="41">
         <v>499</v>
       </c>
       <c r="E181" s="28" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H181" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182">
+      <c r="A182" s="34">
         <v>178</v>
       </c>
-      <c r="B182" s="18" t="s">
+      <c r="B182" s="34" t="s">
         <v>211</v>
       </c>
       <c r="C182" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="D182" s="18">
+      <c r="D182" s="41">
         <v>1598</v>
       </c>
       <c r="E182" s="28" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H182" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183">
+      <c r="A183" s="34">
         <v>179</v>
       </c>
-      <c r="B183" s="18" t="s">
+      <c r="B183" s="34" t="s">
         <v>212</v>
       </c>
       <c r="C183" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="D183" s="18">
+      <c r="D183" s="41">
         <v>1341</v>
       </c>
       <c r="E183" s="28" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H183" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184">
+      <c r="A184" s="34">
         <v>180</v>
       </c>
-      <c r="B184" s="18" t="s">
+      <c r="B184" s="34" t="s">
         <v>213</v>
       </c>
       <c r="C184" s="34" t="s">
         <v>397</v>
       </c>
-      <c r="D184" s="18">
+      <c r="D184" s="41">
         <v>1348</v>
       </c>
       <c r="E184" s="28" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H184" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185">
+      <c r="A185" s="34">
         <v>181</v>
       </c>
-      <c r="B185" s="18" t="s">
+      <c r="B185" s="34" t="s">
         <v>214</v>
       </c>
       <c r="C185" s="34" t="s">
         <v>398</v>
       </c>
-      <c r="D185" s="18">
+      <c r="D185" s="41">
         <v>1300</v>
       </c>
       <c r="E185" s="28" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H185" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186">
+      <c r="A186" s="34">
         <v>182</v>
       </c>
-      <c r="B186" s="18" t="s">
+      <c r="B186" s="34" t="s">
         <v>191</v>
       </c>
       <c r="C186" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="D186" s="18">
+      <c r="D186" s="41">
         <v>946</v>
       </c>
       <c r="E186" s="28" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H186" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187">
+      <c r="A187" s="34">
         <v>183</v>
       </c>
-      <c r="B187" s="18" t="s">
+      <c r="B187" s="34" t="s">
         <v>216</v>
       </c>
       <c r="C187" s="34" t="s">
         <v>399</v>
       </c>
-      <c r="D187" s="18">
+      <c r="D187" s="41">
         <v>1267</v>
       </c>
       <c r="E187" s="28" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H187" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188">
+      <c r="A188" s="34">
         <v>184</v>
       </c>
-      <c r="B188" s="18" t="s">
+      <c r="B188" s="34" t="s">
         <v>217</v>
       </c>
       <c r="C188" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="D188" s="18">
+      <c r="D188" s="41">
         <v>770</v>
       </c>
       <c r="E188" s="28" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H188" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="189" spans="1:8">
-      <c r="A189">
+      <c r="A189" s="34">
         <v>185</v>
       </c>
-      <c r="B189" s="18" t="s">
+      <c r="B189" s="34" t="s">
         <v>218</v>
       </c>
       <c r="C189" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="D189" s="18">
+      <c r="D189" s="41">
         <v>1222</v>
       </c>
       <c r="E189" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H189" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="190" spans="1:8">
-      <c r="A190">
+      <c r="A190" s="34">
         <v>186</v>
       </c>
-      <c r="B190" s="18" t="s">
+      <c r="B190" s="34" t="s">
         <v>219</v>
       </c>
       <c r="C190" s="34" t="s">
         <v>402</v>
       </c>
-      <c r="D190" s="18">
+      <c r="D190" s="41">
         <v>740</v>
       </c>
       <c r="E190" s="28" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H190" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="191" spans="1:8">
-      <c r="A191">
+      <c r="A191" s="34">
         <v>187</v>
       </c>
-      <c r="B191" s="18" t="s">
+      <c r="B191" s="34" t="s">
         <v>220</v>
       </c>
       <c r="C191" s="34" t="s">
         <v>403</v>
       </c>
-      <c r="D191" s="18">
+      <c r="D191" s="41">
         <v>1138</v>
       </c>
       <c r="E191" s="28" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H191" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="192" spans="1:8">
-      <c r="A192">
+      <c r="A192" s="34">
         <v>188</v>
       </c>
-      <c r="B192" s="18" t="s">
+      <c r="B192" s="34" t="s">
         <v>221</v>
       </c>
       <c r="C192" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="D192" s="18">
+      <c r="D192" s="41">
         <v>607</v>
       </c>
       <c r="E192" s="28" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H192" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193">
+      <c r="A193" s="34">
         <v>189</v>
       </c>
-      <c r="B193" s="18" t="s">
+      <c r="B193" s="34" t="s">
         <v>234</v>
       </c>
       <c r="C193" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="D193" s="18">
+      <c r="D193" s="41">
         <v>284</v>
       </c>
       <c r="E193" s="28" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H193" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="194" spans="1:8">
-      <c r="A194">
+      <c r="A194" s="34">
         <v>190</v>
       </c>
-      <c r="B194" s="18" t="s">
+      <c r="B194" s="34" t="s">
         <v>223</v>
       </c>
       <c r="C194" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="D194" s="18">
+      <c r="D194" s="41">
         <v>1511</v>
       </c>
       <c r="E194" s="28" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H194" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195">
+      <c r="A195" s="34">
         <v>191</v>
       </c>
-      <c r="B195" s="18" t="s">
+      <c r="B195" s="34" t="s">
         <v>224</v>
       </c>
       <c r="C195" s="34" t="s">
         <v>405</v>
       </c>
-      <c r="D195" s="18">
+      <c r="D195" s="41">
         <v>1288</v>
       </c>
       <c r="E195" s="28" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H195" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="196" spans="1:8">
-      <c r="A196">
+      <c r="A196" s="34">
         <v>192</v>
       </c>
-      <c r="B196" s="18" t="s">
+      <c r="B196" s="34" t="s">
         <v>225</v>
       </c>
       <c r="C196" s="34" t="s">
         <v>406</v>
       </c>
-      <c r="D196" s="18">
+      <c r="D196" s="41">
         <v>1158</v>
       </c>
       <c r="E196" s="28" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H196" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="197" spans="1:8">
-      <c r="A197">
+      <c r="A197" s="34">
         <v>193</v>
       </c>
-      <c r="B197" s="18" t="s">
+      <c r="B197" s="34" t="s">
         <v>226</v>
       </c>
       <c r="C197" s="34" t="s">
         <v>407</v>
       </c>
-      <c r="D197" s="18">
+      <c r="D197" s="41">
         <v>872</v>
       </c>
       <c r="E197" s="28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H197" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="198" spans="1:8">
-      <c r="A198">
+      <c r="A198" s="34">
         <v>194</v>
       </c>
-      <c r="B198" s="18" t="s">
+      <c r="B198" s="34" t="s">
         <v>227</v>
       </c>
       <c r="C198" s="34" t="s">
         <v>408</v>
       </c>
-      <c r="D198" s="18">
+      <c r="D198" s="41">
         <v>942</v>
       </c>
       <c r="E198" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H198" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199">
+      <c r="A199" s="34">
         <v>195</v>
       </c>
-      <c r="B199" s="18" t="s">
+      <c r="B199" s="34" t="s">
         <v>228</v>
       </c>
       <c r="C199" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="D199" s="18">
+      <c r="D199" s="41">
         <v>1305</v>
       </c>
       <c r="E199" s="28" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H199" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200">
+      <c r="A200" s="34">
         <v>196</v>
       </c>
-      <c r="B200" s="18" t="s">
+      <c r="B200" s="34" t="s">
         <v>229</v>
       </c>
       <c r="C200" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="D200" s="18">
+      <c r="D200" s="41">
         <v>1176</v>
       </c>
       <c r="E200" s="28" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H200" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201">
+      <c r="A201" s="34">
         <v>197</v>
       </c>
-      <c r="B201" s="18" t="s">
+      <c r="B201" s="34" t="s">
         <v>230</v>
       </c>
       <c r="C201" s="34" t="s">
         <v>411</v>
       </c>
-      <c r="D201" s="18">
+      <c r="D201" s="41">
         <v>661</v>
       </c>
       <c r="E201" s="28" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H201" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202">
+      <c r="A202" s="34">
         <v>198</v>
       </c>
-      <c r="B202" s="18" t="s">
+      <c r="B202" s="34" t="s">
         <v>231</v>
       </c>
       <c r="C202" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="D202" s="18">
+      <c r="D202" s="41">
         <v>1045</v>
       </c>
       <c r="E202" s="28" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H202" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="203" spans="1:8">
-      <c r="A203">
+      <c r="A203" s="34">
         <v>199</v>
       </c>
-      <c r="B203" s="18" t="s">
+      <c r="B203" s="34" t="s">
         <v>232</v>
       </c>
       <c r="C203" s="34" t="s">
         <v>413</v>
       </c>
-      <c r="D203" s="18">
+      <c r="D203" s="41">
         <v>825</v>
       </c>
       <c r="E203" s="28" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H203" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204">
+      <c r="A204" s="34">
         <v>200</v>
       </c>
-      <c r="B204" s="18" t="s">
+      <c r="B204" s="34" t="s">
         <v>233</v>
       </c>
       <c r="C204" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="D204" s="18">
+      <c r="D204" s="41">
         <v>1447</v>
       </c>
       <c r="E204" s="28" t="s">
+        <v>607</v>
+      </c>
+      <c r="H204" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="D205" s="41"/>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="D206" s="41"/>
+      <c r="E206" s="30" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="D207" s="41"/>
+      <c r="E207" s="30" t="s">
         <v>608</v>
       </c>
-      <c r="H204" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="D205" s="18"/>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="D206" s="18"/>
-      <c r="E206" s="30" t="s">
+    </row>
+    <row r="208" spans="1:8">
+      <c r="D208" s="41"/>
+      <c r="E208" s="30" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
-      <c r="D207" s="18"/>
-      <c r="E207" s="30" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="D208" s="18"/>
-      <c r="E208" s="30" t="s">
-        <v>611</v>
-      </c>
-    </row>
     <row r="209" spans="4:4">
-      <c r="D209" s="18"/>
+      <c r="D209" s="41"/>
     </row>
     <row r="210" spans="4:4">
-      <c r="D210" s="18"/>
+      <c r="D210" s="41"/>
     </row>
     <row r="211" spans="4:4">
-      <c r="D211" s="18"/>
+      <c r="D211" s="41"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H204" xr:uid="{BF672338-2FBD-44E0-9C5B-CCBC55195EE5}">
       <formula1>"Not Started, In Progress, Complete"</formula1>
     </dataValidation>

--- a/Solace_Plan.xlsx
+++ b/Solace_Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Solace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5421D9F4-0EED-447D-8286-B01C4BEE8040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CB28BC-CFA5-4F64-B71B-5968A143ED4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3A42A00D-9C57-4330-A240-180E2EBC0D59}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="614">
   <si>
     <t>Section</t>
   </si>
@@ -1860,6 +1860,15 @@
   </si>
   <si>
     <t>110 hr 48 min</t>
+  </si>
+  <si>
+    <t>Rounded</t>
+  </si>
+  <si>
+    <t>78 hr</t>
+  </si>
+  <si>
+    <t>Progress:</t>
   </si>
 </sst>
 </file>
@@ -1869,7 +1878,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2165,9 +2174,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2205,7 +2214,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2311,7 +2320,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2453,7 +2462,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2467,22 +2476,22 @@
       <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="26.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2529,7 +2538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>13</v>
@@ -2550,7 +2559,7 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="7">
         <v>1.4</v>
       </c>
@@ -2573,7 +2582,7 @@
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
@@ -2590,7 +2599,7 @@
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -2607,7 +2616,7 @@
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="7">
         <v>1.4</v>
       </c>
@@ -2630,7 +2639,7 @@
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
@@ -2647,7 +2656,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="17"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -2664,7 +2673,7 @@
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="7">
         <v>1.4</v>
       </c>
@@ -2685,7 +2694,7 @@
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -2702,7 +2711,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="17"/>
       <c r="B11" s="18" t="s">
         <v>29</v>
@@ -2721,7 +2730,7 @@
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="7">
         <v>1.4</v>
       </c>
@@ -2744,7 +2753,7 @@
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -2761,7 +2770,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="17"/>
       <c r="B14" s="18" t="s">
         <v>27</v>
@@ -2780,7 +2789,7 @@
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="7">
         <v>1.4</v>
       </c>
@@ -2801,7 +2810,7 @@
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
@@ -2818,7 +2827,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -2843,27 +2852,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F24280-107B-4A2D-B2C2-14E940A88640}">
-  <dimension ref="A1:J211"/>
+  <dimension ref="A1:K211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A206" sqref="A206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="34" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="32" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="32" customFormat="1">
       <c r="A1" s="31" t="s">
         <v>30</v>
       </c>
@@ -2894,8 +2904,11 @@
       <c r="J1" s="30" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="30" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>31</v>
@@ -2910,8 +2923,9 @@
       <c r="J2" s="24" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>33</v>
@@ -2924,8 +2938,9 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="12"/>
       <c r="B4" s="13" t="s">
         <v>32</v>
@@ -2938,8 +2953,9 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="33">
         <v>1</v>
       </c>
@@ -2964,8 +2980,11 @@
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="29">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="33">
         <v>2</v>
       </c>
@@ -2990,8 +3009,11 @@
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="29">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="33">
         <v>3</v>
       </c>
@@ -3013,8 +3035,11 @@
       <c r="H7" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="29">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="33">
         <v>4</v>
       </c>
@@ -3036,8 +3061,11 @@
       <c r="H8" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="29">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="33">
         <v>5</v>
       </c>
@@ -3059,8 +3087,11 @@
       <c r="H9" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="29">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="33">
         <v>6</v>
       </c>
@@ -3082,8 +3113,11 @@
       <c r="H10" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="29">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="33">
         <v>7</v>
       </c>
@@ -3105,8 +3139,11 @@
       <c r="H11" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="29">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="33">
         <v>8</v>
       </c>
@@ -3128,8 +3165,11 @@
       <c r="H12" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="29">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="33">
         <v>9</v>
       </c>
@@ -3146,10 +3186,13 @@
         <v>429</v>
       </c>
       <c r="H13" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="K13" s="29">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="33">
         <v>10</v>
       </c>
@@ -3166,10 +3209,13 @@
         <v>430</v>
       </c>
       <c r="H14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="K14" s="29">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="33">
         <v>11</v>
       </c>
@@ -3186,10 +3232,13 @@
         <v>431</v>
       </c>
       <c r="H15" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="K15" s="29">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="33">
         <v>12</v>
       </c>
@@ -3208,8 +3257,11 @@
       <c r="H16" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K16" s="29">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="33">
         <v>13</v>
       </c>
@@ -3226,8 +3278,11 @@
       <c r="H17" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K17" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="33">
         <v>14</v>
       </c>
@@ -3246,8 +3301,11 @@
       <c r="H18" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K18" s="29">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="33">
         <v>15</v>
       </c>
@@ -3266,8 +3324,11 @@
       <c r="H19" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K19" s="29">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="33">
         <v>16</v>
       </c>
@@ -3286,8 +3347,11 @@
       <c r="H20" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K20" s="29">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="33">
         <v>17</v>
       </c>
@@ -3306,8 +3370,11 @@
       <c r="H21" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K21" s="29">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="33">
         <v>18</v>
       </c>
@@ -3326,8 +3393,11 @@
       <c r="H22" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K22" s="29">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="33">
         <v>19</v>
       </c>
@@ -3346,8 +3416,11 @@
       <c r="H23" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K23" s="29">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="33">
         <v>20</v>
       </c>
@@ -3364,8 +3437,11 @@
       <c r="H24" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K24" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="33">
         <v>21</v>
       </c>
@@ -3384,8 +3460,11 @@
       <c r="H25" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K25" s="29">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="33">
         <v>22</v>
       </c>
@@ -3404,8 +3483,11 @@
       <c r="H26" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K26" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="33">
         <v>23</v>
       </c>
@@ -3424,8 +3506,11 @@
       <c r="H27" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K27" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="33">
         <v>24</v>
       </c>
@@ -3444,8 +3529,11 @@
       <c r="H28" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K28" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="33">
         <v>25</v>
       </c>
@@ -3464,8 +3552,11 @@
       <c r="H29" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K29" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="33">
         <v>26</v>
       </c>
@@ -3484,8 +3575,11 @@
       <c r="H30" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K30" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="33">
         <v>27</v>
       </c>
@@ -3504,8 +3598,11 @@
       <c r="H31" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K31" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="33">
         <v>28</v>
       </c>
@@ -3522,8 +3619,11 @@
       <c r="H32" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K32" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="33">
         <v>29</v>
       </c>
@@ -3542,8 +3642,11 @@
       <c r="H33" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K33" s="29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="33">
         <v>30</v>
       </c>
@@ -3562,8 +3665,11 @@
       <c r="H34" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K34" s="29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="33">
         <v>31</v>
       </c>
@@ -3582,8 +3688,11 @@
       <c r="H35" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K35" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="33">
         <v>32</v>
       </c>
@@ -3602,8 +3711,11 @@
       <c r="H36" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K36" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="33">
         <v>33</v>
       </c>
@@ -3622,8 +3734,11 @@
       <c r="H37" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K37" s="29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="33">
         <v>34</v>
       </c>
@@ -3642,8 +3757,11 @@
       <c r="H38" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K38" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="33">
         <v>35</v>
       </c>
@@ -3662,8 +3780,11 @@
       <c r="H39" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K39" s="29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="33">
         <v>36</v>
       </c>
@@ -3682,8 +3803,11 @@
       <c r="H40" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K40" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="33">
         <v>37</v>
       </c>
@@ -3702,8 +3826,11 @@
       <c r="H41" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K41" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="33">
         <v>38</v>
       </c>
@@ -3722,8 +3849,11 @@
       <c r="H42" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K42" s="29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="33">
         <v>39</v>
       </c>
@@ -3742,8 +3872,11 @@
       <c r="H43" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K43" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="33">
         <v>40</v>
       </c>
@@ -3762,8 +3895,11 @@
       <c r="H44" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K44" s="29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="33">
         <v>41</v>
       </c>
@@ -3782,8 +3918,11 @@
       <c r="H45" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K45" s="29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="33">
         <v>42</v>
       </c>
@@ -3802,8 +3941,11 @@
       <c r="H46" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K46" s="29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="33">
         <v>43</v>
       </c>
@@ -3822,8 +3964,11 @@
       <c r="H47" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K47" s="29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="33">
         <v>44</v>
       </c>
@@ -3842,8 +3987,11 @@
       <c r="H48" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K48" s="29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="33">
         <v>45</v>
       </c>
@@ -3862,8 +4010,11 @@
       <c r="H49" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K49" s="29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="33">
         <v>46</v>
       </c>
@@ -3882,8 +4033,11 @@
       <c r="H50" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K50" s="29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="33">
         <v>47</v>
       </c>
@@ -3902,8 +4056,11 @@
       <c r="H51" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K51" s="29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="33">
         <v>48</v>
       </c>
@@ -3922,8 +4079,11 @@
       <c r="H52" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K52" s="29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="33">
         <v>49</v>
       </c>
@@ -3942,8 +4102,11 @@
       <c r="H53" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K53" s="29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="33">
         <v>50</v>
       </c>
@@ -3962,8 +4125,11 @@
       <c r="H54" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K54" s="29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="33">
         <v>51</v>
       </c>
@@ -3982,8 +4148,11 @@
       <c r="H55" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K55" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="33">
         <v>52</v>
       </c>
@@ -4002,8 +4171,11 @@
       <c r="H56" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K56" s="29">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="33">
         <v>53</v>
       </c>
@@ -4022,8 +4194,11 @@
       <c r="H57" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K57" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="33">
         <v>54</v>
       </c>
@@ -4042,8 +4217,11 @@
       <c r="H58" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K58" s="29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="33">
         <v>55</v>
       </c>
@@ -4062,8 +4240,11 @@
       <c r="H59" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K59" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="33">
         <v>56</v>
       </c>
@@ -4082,8 +4263,11 @@
       <c r="H60" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K60" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="33">
         <v>57</v>
       </c>
@@ -4102,8 +4286,11 @@
       <c r="H61" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K61" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="33">
         <v>58</v>
       </c>
@@ -4122,8 +4309,11 @@
       <c r="H62" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K62" s="29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="33">
         <v>59</v>
       </c>
@@ -4142,8 +4332,11 @@
       <c r="H63" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K63" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="33">
         <v>60</v>
       </c>
@@ -4162,8 +4355,11 @@
       <c r="H64" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K64" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="33">
         <v>61</v>
       </c>
@@ -4182,8 +4378,11 @@
       <c r="H65" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K65" s="29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="33">
         <v>62</v>
       </c>
@@ -4202,8 +4401,11 @@
       <c r="H66" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K66" s="29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="33">
         <v>63</v>
       </c>
@@ -4222,8 +4424,11 @@
       <c r="H67" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K67" s="29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="33">
         <v>64</v>
       </c>
@@ -4242,8 +4447,11 @@
       <c r="H68" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K68" s="29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="33">
         <v>65</v>
       </c>
@@ -4262,8 +4470,11 @@
       <c r="H69" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K69" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="33">
         <v>66</v>
       </c>
@@ -4282,8 +4493,11 @@
       <c r="H70" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K70" s="29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="33">
         <v>67</v>
       </c>
@@ -4302,8 +4516,11 @@
       <c r="H71" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K71" s="29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="33">
         <v>68</v>
       </c>
@@ -4322,8 +4539,11 @@
       <c r="H72" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K72" s="29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="33">
         <v>69</v>
       </c>
@@ -4342,8 +4562,11 @@
       <c r="H73" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K73" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="33">
         <v>70</v>
       </c>
@@ -4362,8 +4585,11 @@
       <c r="H74" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K74" s="29">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="33">
         <v>71</v>
       </c>
@@ -4382,8 +4608,11 @@
       <c r="H75" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K75" s="29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="33">
         <v>72</v>
       </c>
@@ -4402,8 +4631,11 @@
       <c r="H76" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K76" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="33">
         <v>73</v>
       </c>
@@ -4422,8 +4654,11 @@
       <c r="H77" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K77" s="29">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="33">
         <v>74</v>
       </c>
@@ -4442,8 +4677,11 @@
       <c r="H78" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K78" s="29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="33">
         <v>75</v>
       </c>
@@ -4462,8 +4700,11 @@
       <c r="H79" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K79" s="29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="33">
         <v>76</v>
       </c>
@@ -4482,8 +4723,11 @@
       <c r="H80" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K80" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="33">
         <v>77</v>
       </c>
@@ -4502,8 +4746,11 @@
       <c r="H81" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K81" s="29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="33">
         <v>78</v>
       </c>
@@ -4522,8 +4769,11 @@
       <c r="H82" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K82" s="29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="33">
         <v>79</v>
       </c>
@@ -4542,8 +4792,11 @@
       <c r="H83" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K83" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="33">
         <v>80</v>
       </c>
@@ -4562,8 +4815,11 @@
       <c r="H84" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K84" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="33">
         <v>81</v>
       </c>
@@ -4582,8 +4838,11 @@
       <c r="H85" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K85" s="29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="33">
         <v>82</v>
       </c>
@@ -4602,8 +4861,11 @@
       <c r="H86" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K86" s="29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="33">
         <v>83</v>
       </c>
@@ -4622,8 +4884,11 @@
       <c r="H87" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K87" s="29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="33">
         <v>84</v>
       </c>
@@ -4642,8 +4907,11 @@
       <c r="H88" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K88" s="29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="33">
         <v>85</v>
       </c>
@@ -4662,8 +4930,11 @@
       <c r="H89" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K89" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="33">
         <v>86</v>
       </c>
@@ -4682,8 +4953,11 @@
       <c r="H90" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K90" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="33">
         <v>87</v>
       </c>
@@ -4702,8 +4976,11 @@
       <c r="H91" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K91" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="33">
         <v>88</v>
       </c>
@@ -4722,8 +4999,11 @@
       <c r="H92" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K92" s="29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="33">
         <v>89</v>
       </c>
@@ -4742,8 +5022,11 @@
       <c r="H93" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K93" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="33">
         <v>90</v>
       </c>
@@ -4762,8 +5045,11 @@
       <c r="H94" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K94" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="33">
         <v>91</v>
       </c>
@@ -4782,8 +5068,11 @@
       <c r="H95" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K95" s="29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="33">
         <v>92</v>
       </c>
@@ -4802,8 +5091,11 @@
       <c r="H96" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K96" s="29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="33">
         <v>93</v>
       </c>
@@ -4822,8 +5114,11 @@
       <c r="H97" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K97" s="29">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="33">
         <v>94</v>
       </c>
@@ -4842,8 +5137,11 @@
       <c r="H98" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K98" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="33">
         <v>95</v>
       </c>
@@ -4862,8 +5160,11 @@
       <c r="H99" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K99" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="33">
         <v>96</v>
       </c>
@@ -4882,8 +5183,11 @@
       <c r="H100" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K100" s="29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="33">
         <v>97</v>
       </c>
@@ -4902,8 +5206,11 @@
       <c r="H101" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K101" s="29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="33">
         <v>98</v>
       </c>
@@ -4922,8 +5229,11 @@
       <c r="H102" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K102" s="29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="33">
         <v>99</v>
       </c>
@@ -4942,8 +5252,11 @@
       <c r="H103" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K103" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="33">
         <v>100</v>
       </c>
@@ -4962,8 +5275,11 @@
       <c r="H104" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K104" s="29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="33">
         <v>101</v>
       </c>
@@ -4982,8 +5298,11 @@
       <c r="H105" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K105" s="29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="33">
         <v>102</v>
       </c>
@@ -5002,8 +5321,11 @@
       <c r="H106" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K106" s="29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="33">
         <v>103</v>
       </c>
@@ -5022,8 +5344,11 @@
       <c r="H107" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K107" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="33">
         <v>104</v>
       </c>
@@ -5042,8 +5367,11 @@
       <c r="H108" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K108" s="29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="33">
         <v>105</v>
       </c>
@@ -5062,8 +5390,11 @@
       <c r="H109" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K109" s="29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="33">
         <v>106</v>
       </c>
@@ -5082,8 +5413,11 @@
       <c r="H110" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K110" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="33">
         <v>107</v>
       </c>
@@ -5102,8 +5436,11 @@
       <c r="H111" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K111" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="33">
         <v>108</v>
       </c>
@@ -5122,8 +5459,11 @@
       <c r="H112" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K112" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="33">
         <v>109</v>
       </c>
@@ -5142,8 +5482,11 @@
       <c r="H113" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K113" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="33">
         <v>110</v>
       </c>
@@ -5162,8 +5505,11 @@
       <c r="H114" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K114" s="29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="33">
         <v>111</v>
       </c>
@@ -5182,8 +5528,11 @@
       <c r="H115" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K115" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="33">
         <v>112</v>
       </c>
@@ -5202,8 +5551,11 @@
       <c r="H116" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K116" s="29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="33">
         <v>113</v>
       </c>
@@ -5222,8 +5574,11 @@
       <c r="H117" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K117" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="33">
         <v>114</v>
       </c>
@@ -5242,8 +5597,11 @@
       <c r="H118" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K118" s="29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="33">
         <v>115</v>
       </c>
@@ -5262,8 +5620,11 @@
       <c r="H119" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K119" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="33">
         <v>116</v>
       </c>
@@ -5282,8 +5643,11 @@
       <c r="H120" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K120" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="33">
         <v>117</v>
       </c>
@@ -5302,8 +5666,11 @@
       <c r="H121" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K121" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="33">
         <v>118</v>
       </c>
@@ -5322,8 +5689,11 @@
       <c r="H122" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K122" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="33">
         <v>119</v>
       </c>
@@ -5342,8 +5712,11 @@
       <c r="H123" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K123" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="33">
         <v>120</v>
       </c>
@@ -5362,8 +5735,11 @@
       <c r="H124" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K124" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="33">
         <v>121</v>
       </c>
@@ -5382,8 +5758,11 @@
       <c r="H125" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K125" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="33">
         <v>122</v>
       </c>
@@ -5402,8 +5781,11 @@
       <c r="H126" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K126" s="29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="33">
         <v>123</v>
       </c>
@@ -5422,8 +5804,11 @@
       <c r="H127" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K127" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="33">
         <v>124</v>
       </c>
@@ -5442,8 +5827,11 @@
       <c r="H128" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K128" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="33">
         <v>125</v>
       </c>
@@ -5462,8 +5850,11 @@
       <c r="H129" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K129" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="33">
         <v>126</v>
       </c>
@@ -5482,8 +5873,11 @@
       <c r="H130" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K130" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="33">
         <v>127</v>
       </c>
@@ -5502,8 +5896,11 @@
       <c r="H131" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K131" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="33">
         <v>128</v>
       </c>
@@ -5522,8 +5919,11 @@
       <c r="H132" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K132" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="33">
         <v>129</v>
       </c>
@@ -5542,8 +5942,11 @@
       <c r="H133" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K133" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="33">
         <v>130</v>
       </c>
@@ -5562,8 +5965,11 @@
       <c r="H134" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K134" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="33">
         <v>131</v>
       </c>
@@ -5582,8 +5988,11 @@
       <c r="H135" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K135" s="29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="33">
         <v>132</v>
       </c>
@@ -5602,8 +6011,11 @@
       <c r="H136" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K136" s="29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="33">
         <v>133</v>
       </c>
@@ -5622,8 +6034,11 @@
       <c r="H137" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K137" s="29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="33">
         <v>134</v>
       </c>
@@ -5642,8 +6057,11 @@
       <c r="H138" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K138" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="33">
         <v>135</v>
       </c>
@@ -5662,8 +6080,11 @@
       <c r="H139" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K139" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="33">
         <v>136</v>
       </c>
@@ -5682,8 +6103,11 @@
       <c r="H140" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K140" s="29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="33">
         <v>137</v>
       </c>
@@ -5702,8 +6126,11 @@
       <c r="H141" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K141" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="33">
         <v>138</v>
       </c>
@@ -5722,8 +6149,11 @@
       <c r="H142" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K142" s="29">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="33">
         <v>139</v>
       </c>
@@ -5742,8 +6172,11 @@
       <c r="H143" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K143" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="33">
         <v>140</v>
       </c>
@@ -5762,8 +6195,11 @@
       <c r="H144" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K144" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="33">
         <v>141</v>
       </c>
@@ -5782,8 +6218,11 @@
       <c r="H145" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K145" s="29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="33">
         <v>142</v>
       </c>
@@ -5802,8 +6241,11 @@
       <c r="H146" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K146" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="33">
         <v>143</v>
       </c>
@@ -5822,8 +6264,11 @@
       <c r="H147" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K147" s="29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="33">
         <v>144</v>
       </c>
@@ -5842,8 +6287,11 @@
       <c r="H148" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K148" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="33">
         <v>145</v>
       </c>
@@ -5862,8 +6310,11 @@
       <c r="H149" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K149" s="29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" s="33">
         <v>146</v>
       </c>
@@ -5882,8 +6333,11 @@
       <c r="H150" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K150" s="29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="33">
         <v>147</v>
       </c>
@@ -5902,8 +6356,11 @@
       <c r="H151" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K151" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="33">
         <v>148</v>
       </c>
@@ -5922,8 +6379,11 @@
       <c r="H152" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K152" s="29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" s="33">
         <v>149</v>
       </c>
@@ -5942,8 +6402,11 @@
       <c r="H153" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K153" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" s="33">
         <v>150</v>
       </c>
@@ -5962,8 +6425,11 @@
       <c r="H154" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K154" s="29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" s="33">
         <v>151</v>
       </c>
@@ -5982,8 +6448,11 @@
       <c r="H155" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K155" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="33">
         <v>152</v>
       </c>
@@ -6002,8 +6471,11 @@
       <c r="H156" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K156" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" s="33">
         <v>153</v>
       </c>
@@ -6022,8 +6494,11 @@
       <c r="H157" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K157" s="29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" s="33">
         <v>154</v>
       </c>
@@ -6042,8 +6517,11 @@
       <c r="H158" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K158" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" s="33">
         <v>155</v>
       </c>
@@ -6062,8 +6540,11 @@
       <c r="H159" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K159" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" s="33">
         <v>156</v>
       </c>
@@ -6082,8 +6563,11 @@
       <c r="H160" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K160" s="29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="33">
         <v>157</v>
       </c>
@@ -6102,8 +6586,11 @@
       <c r="H161" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K161" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" s="33">
         <v>158</v>
       </c>
@@ -6122,8 +6609,11 @@
       <c r="H162" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K162" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" s="33">
         <v>159</v>
       </c>
@@ -6142,8 +6632,11 @@
       <c r="H163" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K163" s="29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" s="33">
         <v>160</v>
       </c>
@@ -6162,8 +6655,11 @@
       <c r="H164" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K164" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" s="33">
         <v>161</v>
       </c>
@@ -6182,8 +6678,11 @@
       <c r="H165" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K165" s="29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="33">
         <v>162</v>
       </c>
@@ -6202,8 +6701,11 @@
       <c r="H166" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K166" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="33">
         <v>163</v>
       </c>
@@ -6222,8 +6724,11 @@
       <c r="H167" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K167" s="29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" s="33">
         <v>164</v>
       </c>
@@ -6242,8 +6747,11 @@
       <c r="H168" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K168" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" s="33">
         <v>165</v>
       </c>
@@ -6262,8 +6770,11 @@
       <c r="H169" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K169" s="29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" s="33">
         <v>166</v>
       </c>
@@ -6282,8 +6793,11 @@
       <c r="H170" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K170" s="29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" s="33">
         <v>167</v>
       </c>
@@ -6302,8 +6816,11 @@
       <c r="H171" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K171" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" s="33">
         <v>168</v>
       </c>
@@ -6322,8 +6839,11 @@
       <c r="H172" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K172" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" s="33">
         <v>169</v>
       </c>
@@ -6342,8 +6862,11 @@
       <c r="H173" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K173" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" s="33">
         <v>170</v>
       </c>
@@ -6362,8 +6885,11 @@
       <c r="H174" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K174" s="29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" s="33">
         <v>171</v>
       </c>
@@ -6382,8 +6908,11 @@
       <c r="H175" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K175" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" s="33">
         <v>172</v>
       </c>
@@ -6402,8 +6931,11 @@
       <c r="H176" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K176" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" s="33">
         <v>173</v>
       </c>
@@ -6422,8 +6954,11 @@
       <c r="H177" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K177" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" s="33">
         <v>174</v>
       </c>
@@ -6442,8 +6977,11 @@
       <c r="H178" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K178" s="29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" s="33">
         <v>175</v>
       </c>
@@ -6462,8 +7000,11 @@
       <c r="H179" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K179" s="29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" s="33">
         <v>176</v>
       </c>
@@ -6482,8 +7023,11 @@
       <c r="H180" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K180" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" s="33">
         <v>177</v>
       </c>
@@ -6502,8 +7046,11 @@
       <c r="H181" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K181" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" s="33">
         <v>178</v>
       </c>
@@ -6522,8 +7069,11 @@
       <c r="H182" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K182" s="29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" s="33">
         <v>179</v>
       </c>
@@ -6542,8 +7092,11 @@
       <c r="H183" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K183" s="29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184" s="33">
         <v>180</v>
       </c>
@@ -6562,8 +7115,11 @@
       <c r="H184" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K184" s="29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" s="33">
         <v>181</v>
       </c>
@@ -6582,8 +7138,11 @@
       <c r="H185" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K185" s="29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" s="33">
         <v>182</v>
       </c>
@@ -6602,8 +7161,11 @@
       <c r="H186" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K186" s="29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" s="33">
         <v>183</v>
       </c>
@@ -6622,8 +7184,11 @@
       <c r="H187" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K187" s="29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" s="33">
         <v>184</v>
       </c>
@@ -6642,8 +7207,11 @@
       <c r="H188" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K188" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" s="33">
         <v>185</v>
       </c>
@@ -6662,8 +7230,11 @@
       <c r="H189" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K189" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" s="33">
         <v>186</v>
       </c>
@@ -6682,8 +7253,11 @@
       <c r="H190" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K190" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" s="33">
         <v>187</v>
       </c>
@@ -6702,8 +7276,11 @@
       <c r="H191" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K191" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" s="33">
         <v>188</v>
       </c>
@@ -6722,8 +7299,11 @@
       <c r="H192" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K192" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="33">
         <v>189</v>
       </c>
@@ -6742,8 +7322,11 @@
       <c r="H193" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K193" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" s="33">
         <v>190</v>
       </c>
@@ -6762,8 +7345,11 @@
       <c r="H194" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K194" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" s="33">
         <v>191</v>
       </c>
@@ -6782,8 +7368,11 @@
       <c r="H195" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K195" s="29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" s="33">
         <v>192</v>
       </c>
@@ -6802,8 +7391,11 @@
       <c r="H196" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K196" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" s="33">
         <v>193</v>
       </c>
@@ -6822,8 +7414,11 @@
       <c r="H197" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K197" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" s="33">
         <v>194</v>
       </c>
@@ -6842,8 +7437,11 @@
       <c r="H198" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K198" s="29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" s="33">
         <v>195</v>
       </c>
@@ -6862,8 +7460,11 @@
       <c r="H199" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K199" s="29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200" s="33">
         <v>196</v>
       </c>
@@ -6882,8 +7483,11 @@
       <c r="H200" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K200" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
       <c r="A201" s="33">
         <v>197</v>
       </c>
@@ -6902,8 +7506,11 @@
       <c r="H201" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K201" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
       <c r="A202" s="33">
         <v>198</v>
       </c>
@@ -6922,8 +7529,11 @@
       <c r="H202" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K202" s="29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
       <c r="A203" s="33">
         <v>199</v>
       </c>
@@ -6942,8 +7552,11 @@
       <c r="H203" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K203" s="29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
       <c r="A204" s="33">
         <v>200</v>
       </c>
@@ -6962,35 +7575,55 @@
       <c r="H204" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K204" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
       <c r="D205" s="40"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D206" s="40"/>
+    <row r="206" spans="1:11">
+      <c r="D206" s="29">
+        <v>280734</v>
+      </c>
       <c r="E206" s="29" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D207" s="40"/>
+      <c r="G206" t="s">
+        <v>613</v>
+      </c>
+      <c r="H206">
+        <f>SUMIFS(K5:K204, H5:H204, "Complete")</f>
+        <v>535</v>
+      </c>
+      <c r="K206">
+        <f>SUM(K5:K204)</f>
+        <v>4677</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="D207" s="29">
+        <v>4679</v>
+      </c>
       <c r="E207" s="29" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D208" s="40"/>
+    <row r="208" spans="1:11">
+      <c r="D208" s="29" t="s">
+        <v>612</v>
+      </c>
       <c r="E208" s="29" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:4">
       <c r="D209" s="40"/>
     </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:4">
       <c r="D210" s="40"/>
     </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:4">
       <c r="D211" s="40"/>
     </row>
   </sheetData>
@@ -7015,12 +7648,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3">
       <c r="B2" s="19" t="s">
         <v>18</v>
       </c>
@@ -7028,7 +7661,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="20" t="s">
         <v>20</v>
       </c>
@@ -7036,7 +7669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3">
       <c r="B4" s="21" t="s">
         <v>22</v>
       </c>

--- a/Solace_Plan.xlsx
+++ b/Solace_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Solace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CB28BC-CFA5-4F64-B71B-5968A143ED4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31934E92-113B-40ED-B834-A437BB180F67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3A42A00D-9C57-4330-A240-180E2EBC0D59}"/>
   </bookViews>
@@ -2855,8 +2855,8 @@
   <dimension ref="A1:K211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A206" sqref="A206"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3185,6 +3185,9 @@
       <c r="E13" s="27" t="s">
         <v>429</v>
       </c>
+      <c r="F13" s="34">
+        <v>45700</v>
+      </c>
       <c r="H13" t="s">
         <v>417</v>
       </c>
@@ -3208,6 +3211,9 @@
       <c r="E14" s="27" t="s">
         <v>430</v>
       </c>
+      <c r="F14" s="34">
+        <v>45702</v>
+      </c>
       <c r="H14" t="s">
         <v>417</v>
       </c>
@@ -3231,8 +3237,11 @@
       <c r="E15" s="27" t="s">
         <v>431</v>
       </c>
+      <c r="F15" s="34">
+        <v>45705</v>
+      </c>
       <c r="H15" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K15" s="29">
         <v>83</v>
@@ -3255,7 +3264,7 @@
         <v>432</v>
       </c>
       <c r="H16" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K16" s="29">
         <v>54</v>
@@ -7594,7 +7603,7 @@
       </c>
       <c r="H206">
         <f>SUMIFS(K5:K204, H5:H204, "Complete")</f>
-        <v>535</v>
+        <v>618</v>
       </c>
       <c r="K206">
         <f>SUM(K5:K204)</f>

--- a/Solace_Plan.xlsx
+++ b/Solace_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Solace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31934E92-113B-40ED-B834-A437BB180F67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DDA45D-A974-471F-8B7E-A4736B81AF29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3A42A00D-9C57-4330-A240-180E2EBC0D59}"/>
   </bookViews>
@@ -2856,7 +2856,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3263,8 +3263,11 @@
       <c r="E16" s="27" t="s">
         <v>432</v>
       </c>
+      <c r="F16" s="34">
+        <v>45707</v>
+      </c>
       <c r="H16" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K16" s="29">
         <v>54</v>
@@ -3285,7 +3288,7 @@
         <v>433</v>
       </c>
       <c r="H17" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K17" s="29">
         <v>5</v>
@@ -7603,7 +7606,7 @@
       </c>
       <c r="H206">
         <f>SUMIFS(K5:K204, H5:H204, "Complete")</f>
-        <v>618</v>
+        <v>672</v>
       </c>
       <c r="K206">
         <f>SUM(K5:K204)</f>

--- a/Solace_Plan.xlsx
+++ b/Solace_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Solace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DDA45D-A974-471F-8B7E-A4736B81AF29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57047AC-7B55-4668-9066-A35D76966522}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3A42A00D-9C57-4330-A240-180E2EBC0D59}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="7644" activeTab="1" xr2:uid="{3A42A00D-9C57-4330-A240-180E2EBC0D59}"/>
   </bookViews>
   <sheets>
     <sheet name="PLAN" sheetId="1" r:id="rId1"/>
@@ -2856,7 +2856,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3288,7 +3288,7 @@
         <v>433</v>
       </c>
       <c r="H17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K17" s="29">
         <v>5</v>
@@ -3311,7 +3311,7 @@
         <v>434</v>
       </c>
       <c r="H18" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K18" s="29">
         <v>42</v>
@@ -7606,7 +7606,7 @@
       </c>
       <c r="H206">
         <f>SUMIFS(K5:K204, H5:H204, "Complete")</f>
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="K206">
         <f>SUM(K5:K204)</f>

--- a/Solace_Plan.xlsx
+++ b/Solace_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Solace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57047AC-7B55-4668-9066-A35D76966522}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3CC93D-8363-47DF-B458-4CE80C90A452}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="7644" activeTab="1" xr2:uid="{3A42A00D-9C57-4330-A240-180E2EBC0D59}"/>
   </bookViews>
@@ -2856,7 +2856,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3310,8 +3310,11 @@
       <c r="E18" s="27" t="s">
         <v>434</v>
       </c>
+      <c r="F18" s="34">
+        <v>45714</v>
+      </c>
       <c r="H18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K18" s="29">
         <v>42</v>
@@ -3334,7 +3337,7 @@
         <v>435</v>
       </c>
       <c r="H19" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K19" s="29">
         <v>49</v>
@@ -7606,7 +7609,7 @@
       </c>
       <c r="H206">
         <f>SUMIFS(K5:K204, H5:H204, "Complete")</f>
-        <v>677</v>
+        <v>719</v>
       </c>
       <c r="K206">
         <f>SUM(K5:K204)</f>

--- a/Solace_Plan.xlsx
+++ b/Solace_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Solace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3CC93D-8363-47DF-B458-4CE80C90A452}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50352914-B727-4323-B9C5-BD4D50BD3FBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="7644" activeTab="1" xr2:uid="{3A42A00D-9C57-4330-A240-180E2EBC0D59}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="613">
   <si>
     <t>Section</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>Video Tutorial</t>
-  </si>
-  <si>
-    <t>Explaining my game engine in 2020</t>
   </si>
   <si>
     <t>Game Engine Programming</t>
@@ -2043,7 +2040,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -2154,6 +2151,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2856,7 +2856,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2878,16 +2878,16 @@
         <v>30</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>4</v>
@@ -2905,7 +2905,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2921,14 +2921,14 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
-        <v>33</v>
+      <c r="B3" s="41" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="37"/>
@@ -2942,9 +2942,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
-        <v>32</v>
-      </c>
+      <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="39"/>
       <c r="E4" s="12"/>
@@ -2960,23 +2958,23 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D5" s="40">
         <v>2129</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F5" s="34">
         <v>45686</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -2989,23 +2987,23 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D6" s="40">
         <v>2953</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F6" s="34">
         <v>45688</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -3018,22 +3016,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D7" s="40">
         <v>2963</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F7" s="34">
         <v>45689</v>
       </c>
       <c r="H7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K7" s="29">
         <v>49</v>
@@ -3044,22 +3042,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D8" s="40">
         <v>2912</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F8" s="34">
         <v>45690</v>
       </c>
       <c r="H8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K8" s="29">
         <v>49</v>
@@ -3070,22 +3068,22 @@
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D9" s="40">
         <v>3132</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F9" s="34">
         <v>45691</v>
       </c>
       <c r="H9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K9" s="29">
         <v>52</v>
@@ -3096,22 +3094,22 @@
         <v>6</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D10" s="40">
         <v>3087</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F10" s="34">
         <v>45693</v>
       </c>
       <c r="H10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K10" s="29">
         <v>51</v>
@@ -3122,22 +3120,22 @@
         <v>7</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D11" s="40">
         <v>3903</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F11" s="34">
         <v>45696</v>
       </c>
       <c r="H11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K11" s="29">
         <v>65</v>
@@ -3148,22 +3146,22 @@
         <v>8</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D12" s="40">
         <v>3569</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F12" s="34">
         <v>45698</v>
       </c>
       <c r="H12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K12" s="29">
         <v>59</v>
@@ -3174,22 +3172,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D13" s="40">
         <v>4283</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F13" s="34">
         <v>45700</v>
       </c>
       <c r="H13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K13" s="29">
         <v>71</v>
@@ -3200,22 +3198,22 @@
         <v>10</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D14" s="40">
         <v>3301</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F14" s="34">
         <v>45702</v>
       </c>
       <c r="H14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K14" s="29">
         <v>55</v>
@@ -3226,22 +3224,22 @@
         <v>11</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D15" s="40">
         <v>4997</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F15" s="34">
         <v>45705</v>
       </c>
       <c r="H15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K15" s="29">
         <v>83</v>
@@ -3252,22 +3250,22 @@
         <v>12</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D16" s="40">
         <v>3242</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F16" s="34">
         <v>45707</v>
       </c>
       <c r="H16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K16" s="29">
         <v>54</v>
@@ -3278,17 +3276,17 @@
         <v>13</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="40">
         <v>301</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K17" s="29">
         <v>5</v>
@@ -3299,22 +3297,22 @@
         <v>14</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D18" s="40">
         <v>2503</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F18" s="34">
         <v>45714</v>
       </c>
       <c r="H18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K18" s="29">
         <v>42</v>
@@ -3325,19 +3323,22 @@
         <v>15</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D19" s="40">
         <v>2934</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>435</v>
+        <v>434</v>
+      </c>
+      <c r="F19" s="34">
+        <v>45720</v>
       </c>
       <c r="H19" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K19" s="29">
         <v>49</v>
@@ -3348,16 +3349,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D20" s="40">
         <v>3481</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H20" t="s">
         <v>418</v>
@@ -3371,19 +3372,19 @@
         <v>17</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D21" s="40">
         <v>3430</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K21" s="29">
         <v>57</v>
@@ -3394,19 +3395,19 @@
         <v>18</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D22" s="40">
         <v>2787</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K22" s="29">
         <v>46</v>
@@ -3417,19 +3418,19 @@
         <v>19</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D23" s="40">
         <v>3553</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H23" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K23" s="29">
         <v>59</v>
@@ -3440,17 +3441,17 @@
         <v>20</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="33"/>
       <c r="D24" s="40">
         <v>198</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K24" s="29">
         <v>3</v>
@@ -3461,19 +3462,19 @@
         <v>21</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D25" s="40">
         <v>3390</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H25" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K25" s="29">
         <v>57</v>
@@ -3484,19 +3485,19 @@
         <v>22</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D26" s="40">
         <v>1177</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K26" s="29">
         <v>20</v>
@@ -3507,19 +3508,19 @@
         <v>23</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D27" s="40">
         <v>1450</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K27" s="29">
         <v>24</v>
@@ -3530,19 +3531,19 @@
         <v>24</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D28" s="40">
         <v>1062</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K28" s="29">
         <v>18</v>
@@ -3553,19 +3554,19 @@
         <v>25</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D29" s="40">
         <v>1450</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K29" s="29">
         <v>24</v>
@@ -3576,19 +3577,19 @@
         <v>26</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D30" s="40">
         <v>1193</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K30" s="29">
         <v>20</v>
@@ -3599,19 +3600,19 @@
         <v>27</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D31" s="40">
         <v>799</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K31" s="29">
         <v>13</v>
@@ -3622,17 +3623,17 @@
         <v>28</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="40">
         <v>503</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K32" s="29">
         <v>8</v>
@@ -3643,19 +3644,19 @@
         <v>29</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D33" s="40">
         <v>1685</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K33" s="29">
         <v>28</v>
@@ -3666,19 +3667,19 @@
         <v>30</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D34" s="40">
         <v>1535</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K34" s="29">
         <v>26</v>
@@ -3689,19 +3690,19 @@
         <v>31</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D35" s="40">
         <v>1167</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K35" s="29">
         <v>19</v>
@@ -3712,19 +3713,19 @@
         <v>32</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D36" s="40">
         <v>882</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K36" s="29">
         <v>15</v>
@@ -3735,19 +3736,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D37" s="40">
         <v>1372</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H37" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K37" s="29">
         <v>23</v>
@@ -3758,19 +3759,19 @@
         <v>34</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D38" s="40">
         <v>1059</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K38" s="29">
         <v>18</v>
@@ -3781,19 +3782,19 @@
         <v>35</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D39" s="40">
         <v>945</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H39" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K39" s="29">
         <v>16</v>
@@ -3804,19 +3805,19 @@
         <v>36</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D40" s="40">
         <v>1476</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H40" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K40" s="29">
         <v>25</v>
@@ -3827,19 +3828,19 @@
         <v>37</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D41" s="40">
         <v>1180</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H41" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K41" s="29">
         <v>20</v>
@@ -3850,19 +3851,19 @@
         <v>38</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D42" s="40">
         <v>1629</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H42" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K42" s="29">
         <v>27</v>
@@ -3873,19 +3874,19 @@
         <v>39</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D43" s="40">
         <v>1112</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H43" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K43" s="29">
         <v>19</v>
@@ -3896,19 +3897,19 @@
         <v>40</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D44" s="40">
         <v>1393</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H44" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K44" s="29">
         <v>23</v>
@@ -3919,19 +3920,19 @@
         <v>41</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D45" s="40">
         <v>1025</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H45" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K45" s="29">
         <v>17</v>
@@ -3942,19 +3943,19 @@
         <v>42</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D46" s="40">
         <v>931</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H46" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K46" s="29">
         <v>16</v>
@@ -3965,19 +3966,19 @@
         <v>43</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D47" s="40">
         <v>1826</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H47" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K47" s="29">
         <v>30</v>
@@ -3988,19 +3989,19 @@
         <v>44</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D48" s="40">
         <v>1744</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H48" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K48" s="29">
         <v>29</v>
@@ -4011,19 +4012,19 @@
         <v>45</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D49" s="40">
         <v>1277</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H49" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K49" s="29">
         <v>21</v>
@@ -4034,19 +4035,19 @@
         <v>46</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D50" s="40">
         <v>1386</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H50" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K50" s="29">
         <v>23</v>
@@ -4057,19 +4058,19 @@
         <v>47</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D51" s="40">
         <v>1906</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H51" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K51" s="29">
         <v>32</v>
@@ -4080,19 +4081,19 @@
         <v>48</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D52" s="40">
         <v>1363</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H52" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K52" s="29">
         <v>23</v>
@@ -4103,19 +4104,19 @@
         <v>49</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D53" s="40">
         <v>1684</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H53" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K53" s="29">
         <v>28</v>
@@ -4126,19 +4127,19 @@
         <v>50</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D54" s="40">
         <v>953</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K54" s="29">
         <v>16</v>
@@ -4149,19 +4150,19 @@
         <v>51</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D55" s="40">
         <v>1424</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K55" s="29">
         <v>24</v>
@@ -4172,19 +4173,19 @@
         <v>52</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D56" s="40">
         <v>1981</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H56" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K56" s="29">
         <v>33</v>
@@ -4195,19 +4196,19 @@
         <v>53</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D57" s="40">
         <v>1127</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H57" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K57" s="29">
         <v>19</v>
@@ -4218,19 +4219,19 @@
         <v>54</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D58" s="40">
         <v>983</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K58" s="29">
         <v>16</v>
@@ -4241,19 +4242,19 @@
         <v>55</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D59" s="40">
         <v>1514</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H59" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K59" s="29">
         <v>25</v>
@@ -4264,19 +4265,19 @@
         <v>56</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D60" s="40">
         <v>1083</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H60" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K60" s="29">
         <v>18</v>
@@ -4287,19 +4288,19 @@
         <v>57</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D61" s="40">
         <v>1441</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H61" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K61" s="29">
         <v>24</v>
@@ -4310,19 +4311,19 @@
         <v>58</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D62" s="40">
         <v>1341</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H62" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K62" s="29">
         <v>22</v>
@@ -4333,19 +4334,19 @@
         <v>59</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D63" s="40">
         <v>1414</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H63" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K63" s="29">
         <v>24</v>
@@ -4356,19 +4357,19 @@
         <v>60</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D64" s="40">
         <v>1204</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H64" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K64" s="29">
         <v>20</v>
@@ -4379,19 +4380,19 @@
         <v>61</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D65" s="40">
         <v>1647</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H65" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K65" s="29">
         <v>27</v>
@@ -4402,19 +4403,19 @@
         <v>62</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D66" s="40">
         <v>821</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H66" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K66" s="29">
         <v>14</v>
@@ -4425,19 +4426,19 @@
         <v>63</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D67" s="40">
         <v>1260</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H67" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K67" s="29">
         <v>21</v>
@@ -4448,19 +4449,19 @@
         <v>64</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D68" s="40">
         <v>1793</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H68" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K68" s="29">
         <v>30</v>
@@ -4471,19 +4472,19 @@
         <v>65</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D69" s="40">
         <v>1102</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K69" s="29">
         <v>18</v>
@@ -4494,19 +4495,19 @@
         <v>66</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D70" s="40">
         <v>1605</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H70" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K70" s="29">
         <v>27</v>
@@ -4517,19 +4518,19 @@
         <v>67</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D71" s="40">
         <v>1650</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H71" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K71" s="29">
         <v>28</v>
@@ -4540,19 +4541,19 @@
         <v>68</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D72" s="40">
         <v>1760</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H72" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K72" s="29">
         <v>29</v>
@@ -4563,19 +4564,19 @@
         <v>69</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D73" s="40">
         <v>1446</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H73" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K73" s="29">
         <v>24</v>
@@ -4586,19 +4587,19 @@
         <v>70</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D74" s="40">
         <v>2131</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H74" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K74" s="29">
         <v>36</v>
@@ -4609,19 +4610,19 @@
         <v>71</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D75" s="40">
         <v>1798</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H75" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K75" s="29">
         <v>30</v>
@@ -4632,19 +4633,19 @@
         <v>72</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D76" s="40">
         <v>354</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H76" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K76" s="29">
         <v>6</v>
@@ -4655,19 +4656,19 @@
         <v>73</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D77" s="40">
         <v>1951</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H77" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K77" s="29">
         <v>33</v>
@@ -4678,19 +4679,19 @@
         <v>74</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D78" s="40">
         <v>1554</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H78" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K78" s="29">
         <v>26</v>
@@ -4701,19 +4702,19 @@
         <v>75</v>
       </c>
       <c r="B79" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C79" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D79" s="40">
         <v>1407</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H79" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K79" s="29">
         <v>23</v>
@@ -4724,19 +4725,19 @@
         <v>76</v>
       </c>
       <c r="B80" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C80" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D80" s="40">
         <v>1415</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H80" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K80" s="29">
         <v>24</v>
@@ -4747,19 +4748,19 @@
         <v>77</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C81" s="33" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D81" s="40">
         <v>1006</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H81" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K81" s="29">
         <v>17</v>
@@ -4770,19 +4771,19 @@
         <v>78</v>
       </c>
       <c r="B82" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D82" s="40">
         <v>1248</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H82" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K82" s="29">
         <v>21</v>
@@ -4793,19 +4794,19 @@
         <v>79</v>
       </c>
       <c r="B83" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C83" s="33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D83" s="40">
         <v>1121</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H83" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K83" s="29">
         <v>19</v>
@@ -4816,19 +4817,19 @@
         <v>80</v>
       </c>
       <c r="B84" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D84" s="40">
         <v>1200</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H84" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K84" s="29">
         <v>20</v>
@@ -4839,19 +4840,19 @@
         <v>81</v>
       </c>
       <c r="B85" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D85" s="40">
         <v>1345</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H85" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K85" s="29">
         <v>22</v>
@@ -4862,19 +4863,19 @@
         <v>82</v>
       </c>
       <c r="B86" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C86" s="33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D86" s="40">
         <v>1322</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H86" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K86" s="29">
         <v>22</v>
@@ -4885,19 +4886,19 @@
         <v>83</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C87" s="33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D87" s="40">
         <v>1600</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H87" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K87" s="29">
         <v>27</v>
@@ -4908,19 +4909,19 @@
         <v>84</v>
       </c>
       <c r="B88" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C88" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D88" s="40">
         <v>1363</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H88" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K88" s="29">
         <v>23</v>
@@ -4931,19 +4932,19 @@
         <v>85</v>
       </c>
       <c r="B89" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D89" s="40">
         <v>761</v>
       </c>
       <c r="E89" s="27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H89" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K89" s="29">
         <v>13</v>
@@ -4954,19 +4955,19 @@
         <v>86</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C90" s="33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D90" s="40">
         <v>1149</v>
       </c>
       <c r="E90" s="27" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H90" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K90" s="29">
         <v>19</v>
@@ -4977,19 +4978,19 @@
         <v>87</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C91" s="33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D91" s="40">
         <v>1104</v>
       </c>
       <c r="E91" s="27" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H91" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K91" s="29">
         <v>18</v>
@@ -5000,19 +5001,19 @@
         <v>88</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C92" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D92" s="40">
         <v>1561</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H92" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K92" s="29">
         <v>26</v>
@@ -5023,19 +5024,19 @@
         <v>89</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C93" s="33" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D93" s="40">
         <v>1496</v>
       </c>
       <c r="E93" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H93" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K93" s="29">
         <v>25</v>
@@ -5046,19 +5047,19 @@
         <v>90</v>
       </c>
       <c r="B94" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D94" s="40">
         <v>1515</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H94" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K94" s="29">
         <v>25</v>
@@ -5069,19 +5070,19 @@
         <v>91</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C95" s="33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D95" s="40">
         <v>1778</v>
       </c>
       <c r="E95" s="27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H95" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K95" s="29">
         <v>30</v>
@@ -5092,19 +5093,19 @@
         <v>92</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C96" s="33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D96" s="40">
         <v>1635</v>
       </c>
       <c r="E96" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H96" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K96" s="29">
         <v>27</v>
@@ -5115,19 +5116,19 @@
         <v>93</v>
       </c>
       <c r="B97" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="33" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D97" s="40">
         <v>2049</v>
       </c>
       <c r="E97" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H97" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K97" s="29">
         <v>34</v>
@@ -5138,19 +5139,19 @@
         <v>94</v>
       </c>
       <c r="B98" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C98" s="33" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D98" s="40">
         <v>1454</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H98" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K98" s="29">
         <v>24</v>
@@ -5161,19 +5162,19 @@
         <v>95</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C99" s="33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D99" s="40">
         <v>1148</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H99" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K99" s="29">
         <v>19</v>
@@ -5184,19 +5185,19 @@
         <v>96</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C100" s="33" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D100" s="40">
         <v>1376</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H100" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K100" s="29">
         <v>23</v>
@@ -5207,19 +5208,19 @@
         <v>97</v>
       </c>
       <c r="B101" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C101" s="33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D101" s="40">
         <v>1233</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H101" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K101" s="29">
         <v>21</v>
@@ -5230,19 +5231,19 @@
         <v>98</v>
       </c>
       <c r="B102" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C102" s="33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D102" s="40">
         <v>1313</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H102" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K102" s="29">
         <v>22</v>
@@ -5253,19 +5254,19 @@
         <v>99</v>
       </c>
       <c r="B103" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D103" s="40">
         <v>1099</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H103" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K103" s="29">
         <v>18</v>
@@ -5276,19 +5277,19 @@
         <v>100</v>
       </c>
       <c r="B104" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C104" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D104" s="40">
         <v>1626</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H104" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K104" s="29">
         <v>27</v>
@@ -5299,19 +5300,19 @@
         <v>101</v>
       </c>
       <c r="B105" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C105" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D105" s="40">
         <v>1554</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H105" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K105" s="29">
         <v>26</v>
@@ -5322,19 +5323,19 @@
         <v>102</v>
       </c>
       <c r="B106" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C106" s="33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D106" s="40">
         <v>1044</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H106" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K106" s="29">
         <v>17</v>
@@ -5345,19 +5346,19 @@
         <v>103</v>
       </c>
       <c r="B107" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C107" s="33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D107" s="40">
         <v>1151</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H107" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K107" s="29">
         <v>19</v>
@@ -5368,19 +5369,19 @@
         <v>104</v>
       </c>
       <c r="B108" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C108" s="33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D108" s="40">
         <v>964</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H108" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K108" s="29">
         <v>16</v>
@@ -5391,19 +5392,19 @@
         <v>105</v>
       </c>
       <c r="B109" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C109" s="33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D109" s="40">
         <v>1231</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H109" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K109" s="29">
         <v>21</v>
@@ -5414,19 +5415,19 @@
         <v>106</v>
       </c>
       <c r="B110" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C110" s="33" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D110" s="40">
         <v>1223</v>
       </c>
       <c r="E110" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H110" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K110" s="29">
         <v>20</v>
@@ -5437,19 +5438,19 @@
         <v>107</v>
       </c>
       <c r="B111" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C111" s="33" t="s">
         <v>140</v>
-      </c>
-      <c r="C111" s="33" t="s">
-        <v>141</v>
       </c>
       <c r="D111" s="40">
         <v>899</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H111" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K111" s="29">
         <v>15</v>
@@ -5460,19 +5461,19 @@
         <v>108</v>
       </c>
       <c r="B112" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C112" s="33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D112" s="40">
         <v>1449</v>
       </c>
       <c r="E112" s="27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H112" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K112" s="29">
         <v>24</v>
@@ -5483,19 +5484,19 @@
         <v>109</v>
       </c>
       <c r="B113" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C113" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D113" s="40">
         <v>912</v>
       </c>
       <c r="E113" s="27" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H113" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K113" s="29">
         <v>15</v>
@@ -5506,19 +5507,19 @@
         <v>110</v>
       </c>
       <c r="B114" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C114" s="33" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D114" s="40">
         <v>1356</v>
       </c>
       <c r="E114" s="27" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H114" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K114" s="29">
         <v>23</v>
@@ -5529,19 +5530,19 @@
         <v>111</v>
       </c>
       <c r="B115" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C115" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D115" s="40">
         <v>916</v>
       </c>
       <c r="E115" s="27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H115" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K115" s="29">
         <v>15</v>
@@ -5552,19 +5553,19 @@
         <v>112</v>
       </c>
       <c r="B116" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C116" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D116" s="40">
         <v>1318</v>
       </c>
       <c r="E116" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H116" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K116" s="29">
         <v>22</v>
@@ -5575,19 +5576,19 @@
         <v>113</v>
       </c>
       <c r="B117" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C117" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D117" s="40">
         <v>1135</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H117" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K117" s="29">
         <v>19</v>
@@ -5598,19 +5599,19 @@
         <v>114</v>
       </c>
       <c r="B118" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C118" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D118" s="40">
         <v>955</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H118" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K118" s="29">
         <v>16</v>
@@ -5621,19 +5622,19 @@
         <v>115</v>
       </c>
       <c r="B119" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C119" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D119" s="40">
         <v>1097</v>
       </c>
       <c r="E119" s="27" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H119" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K119" s="29">
         <v>18</v>
@@ -5644,19 +5645,19 @@
         <v>116</v>
       </c>
       <c r="B120" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C120" s="33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D120" s="40">
         <v>1091</v>
       </c>
       <c r="E120" s="27" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H120" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K120" s="29">
         <v>18</v>
@@ -5667,19 +5668,19 @@
         <v>117</v>
       </c>
       <c r="B121" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C121" s="33" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D121" s="40">
         <v>1441</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H121" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K121" s="29">
         <v>24</v>
@@ -5690,19 +5691,19 @@
         <v>118</v>
       </c>
       <c r="B122" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C122" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D122" s="40">
         <v>718</v>
       </c>
       <c r="E122" s="27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H122" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K122" s="29">
         <v>12</v>
@@ -5713,19 +5714,19 @@
         <v>119</v>
       </c>
       <c r="B123" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C123" s="33" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D123" s="40">
         <v>1183</v>
       </c>
       <c r="E123" s="27" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H123" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K123" s="29">
         <v>20</v>
@@ -5736,19 +5737,19 @@
         <v>120</v>
       </c>
       <c r="B124" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C124" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D124" s="40">
         <v>648</v>
       </c>
       <c r="E124" s="27" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H124" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K124" s="29">
         <v>11</v>
@@ -5759,19 +5760,19 @@
         <v>121</v>
       </c>
       <c r="B125" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C125" s="33" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D125" s="40">
         <v>1127</v>
       </c>
       <c r="E125" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H125" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K125" s="29">
         <v>19</v>
@@ -5782,19 +5783,19 @@
         <v>122</v>
       </c>
       <c r="B126" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C126" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D126" s="40">
         <v>834</v>
       </c>
       <c r="E126" s="27" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H126" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K126" s="29">
         <v>14</v>
@@ -5805,19 +5806,19 @@
         <v>123</v>
       </c>
       <c r="B127" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C127" s="33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D127" s="40">
         <v>1216</v>
       </c>
       <c r="E127" s="27" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H127" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K127" s="29">
         <v>20</v>
@@ -5828,19 +5829,19 @@
         <v>124</v>
       </c>
       <c r="B128" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C128" s="33" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D128" s="40">
         <v>1131</v>
       </c>
       <c r="E128" s="27" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H128" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K128" s="29">
         <v>19</v>
@@ -5851,19 +5852,19 @@
         <v>125</v>
       </c>
       <c r="B129" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C129" s="33" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D129" s="40">
         <v>1184</v>
       </c>
       <c r="E129" s="27" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H129" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K129" s="29">
         <v>20</v>
@@ -5874,19 +5875,19 @@
         <v>126</v>
       </c>
       <c r="B130" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C130" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D130" s="40">
         <v>550</v>
       </c>
       <c r="E130" s="27" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H130" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K130" s="29">
         <v>9</v>
@@ -5897,19 +5898,19 @@
         <v>127</v>
       </c>
       <c r="B131" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C131" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D131" s="40">
         <v>1498</v>
       </c>
       <c r="E131" s="27" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H131" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K131" s="29">
         <v>25</v>
@@ -5920,19 +5921,19 @@
         <v>128</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C132" s="33" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D132" s="40">
         <v>1201</v>
       </c>
       <c r="E132" s="27" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H132" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K132" s="29">
         <v>20</v>
@@ -5943,19 +5944,19 @@
         <v>129</v>
       </c>
       <c r="B133" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C133" s="33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D133" s="40">
         <v>1151</v>
       </c>
       <c r="E133" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H133" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K133" s="29">
         <v>19</v>
@@ -5966,19 +5967,19 @@
         <v>130</v>
       </c>
       <c r="B134" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C134" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D134" s="40">
         <v>656</v>
       </c>
       <c r="E134" s="27" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H134" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K134" s="29">
         <v>11</v>
@@ -5989,19 +5990,19 @@
         <v>131</v>
       </c>
       <c r="B135" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C135" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D135" s="40">
         <v>1039</v>
       </c>
       <c r="E135" s="27" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H135" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K135" s="29">
         <v>17</v>
@@ -6012,19 +6013,19 @@
         <v>132</v>
       </c>
       <c r="B136" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C136" s="33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D136" s="40">
         <v>1033</v>
       </c>
       <c r="E136" s="27" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H136" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K136" s="29">
         <v>17</v>
@@ -6035,19 +6036,19 @@
         <v>133</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C137" s="33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D137" s="40">
         <v>1407</v>
       </c>
       <c r="E137" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H137" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K137" s="29">
         <v>23</v>
@@ -6058,19 +6059,19 @@
         <v>134</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C138" s="33" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D138" s="40">
         <v>1511</v>
       </c>
       <c r="E138" s="27" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H138" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K138" s="29">
         <v>25</v>
@@ -6081,19 +6082,19 @@
         <v>135</v>
       </c>
       <c r="B139" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C139" s="33" t="s">
         <v>167</v>
-      </c>
-      <c r="C139" s="33" t="s">
-        <v>168</v>
       </c>
       <c r="D139" s="40">
         <v>586</v>
       </c>
       <c r="E139" s="27" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H139" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K139" s="29">
         <v>10</v>
@@ -6104,19 +6105,19 @@
         <v>136</v>
       </c>
       <c r="B140" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C140" s="33" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D140" s="40">
         <v>1530</v>
       </c>
       <c r="E140" s="27" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H140" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K140" s="29">
         <v>26</v>
@@ -6127,19 +6128,19 @@
         <v>137</v>
       </c>
       <c r="B141" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C141" s="33" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D141" s="40">
         <v>1434</v>
       </c>
       <c r="E141" s="27" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H141" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K141" s="29">
         <v>24</v>
@@ -6150,19 +6151,19 @@
         <v>138</v>
       </c>
       <c r="B142" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C142" s="33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D142" s="40">
         <v>1870</v>
       </c>
       <c r="E142" s="27" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H142" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K142" s="29">
         <v>31</v>
@@ -6173,19 +6174,19 @@
         <v>139</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C143" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D143" s="40">
         <v>601</v>
       </c>
       <c r="E143" s="27" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H143" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K143" s="29">
         <v>10</v>
@@ -6196,19 +6197,19 @@
         <v>140</v>
       </c>
       <c r="B144" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C144" s="33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D144" s="40">
         <v>1526</v>
       </c>
       <c r="E144" s="27" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H144" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K144" s="29">
         <v>25</v>
@@ -6219,19 +6220,19 @@
         <v>141</v>
       </c>
       <c r="B145" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C145" s="33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D145" s="40">
         <v>868</v>
       </c>
       <c r="E145" s="27" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H145" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K145" s="29">
         <v>14</v>
@@ -6242,19 +6243,19 @@
         <v>142</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C146" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D146" s="40">
         <v>1056</v>
       </c>
       <c r="E146" s="27" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H146" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K146" s="29">
         <v>18</v>
@@ -6265,19 +6266,19 @@
         <v>143</v>
       </c>
       <c r="B147" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D147" s="40">
         <v>1761</v>
       </c>
       <c r="E147" s="27" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H147" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K147" s="29">
         <v>29</v>
@@ -6288,19 +6289,19 @@
         <v>144</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D148" s="40">
         <v>1070</v>
       </c>
       <c r="E148" s="27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H148" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K148" s="29">
         <v>18</v>
@@ -6311,19 +6312,19 @@
         <v>145</v>
       </c>
       <c r="B149" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C149" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D149" s="40">
         <v>813</v>
       </c>
       <c r="E149" s="27" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H149" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K149" s="29">
         <v>14</v>
@@ -6334,19 +6335,19 @@
         <v>146</v>
       </c>
       <c r="B150" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C150" s="33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D150" s="40">
         <v>1006</v>
       </c>
       <c r="E150" s="27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H150" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K150" s="29">
         <v>17</v>
@@ -6357,19 +6358,19 @@
         <v>147</v>
       </c>
       <c r="B151" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C151" s="33" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D151" s="40">
         <v>1182</v>
       </c>
       <c r="E151" s="27" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H151" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K151" s="29">
         <v>20</v>
@@ -6380,19 +6381,19 @@
         <v>148</v>
       </c>
       <c r="B152" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C152" s="33" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D152" s="40">
         <v>1274</v>
       </c>
       <c r="E152" s="27" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H152" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K152" s="29">
         <v>21</v>
@@ -6403,19 +6404,19 @@
         <v>149</v>
       </c>
       <c r="B153" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C153" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D153" s="40">
         <v>809</v>
       </c>
       <c r="E153" s="27" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H153" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K153" s="29">
         <v>13</v>
@@ -6426,19 +6427,19 @@
         <v>150</v>
       </c>
       <c r="B154" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C154" s="33" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D154" s="40">
         <v>1406</v>
       </c>
       <c r="E154" s="27" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H154" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K154" s="29">
         <v>23</v>
@@ -6449,19 +6450,19 @@
         <v>151</v>
       </c>
       <c r="B155" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C155" s="33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D155" s="40">
         <v>1163</v>
       </c>
       <c r="E155" s="27" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H155" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K155" s="29">
         <v>19</v>
@@ -6472,19 +6473,19 @@
         <v>152</v>
       </c>
       <c r="B156" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C156" s="33" t="s">
         <v>185</v>
-      </c>
-      <c r="C156" s="33" t="s">
-        <v>186</v>
       </c>
       <c r="D156" s="40">
         <v>1150</v>
       </c>
       <c r="E156" s="27" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H156" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K156" s="29">
         <v>19</v>
@@ -6495,19 +6496,19 @@
         <v>153</v>
       </c>
       <c r="B157" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D157" s="40">
         <v>1249</v>
       </c>
       <c r="E157" s="27" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H157" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K157" s="29">
         <v>21</v>
@@ -6518,19 +6519,19 @@
         <v>154</v>
       </c>
       <c r="B158" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D158" s="40">
         <v>1215</v>
       </c>
       <c r="E158" s="27" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H158" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K158" s="29">
         <v>20</v>
@@ -6541,19 +6542,19 @@
         <v>155</v>
       </c>
       <c r="B159" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C159" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D159" s="40">
         <v>1119</v>
       </c>
       <c r="E159" s="27" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H159" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K159" s="29">
         <v>19</v>
@@ -6564,19 +6565,19 @@
         <v>156</v>
       </c>
       <c r="B160" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C160" s="33" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D160" s="40">
         <v>1286</v>
       </c>
       <c r="E160" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H160" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K160" s="29">
         <v>21</v>
@@ -6587,19 +6588,19 @@
         <v>157</v>
       </c>
       <c r="B161" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C161" s="33" t="s">
         <v>191</v>
-      </c>
-      <c r="C161" s="33" t="s">
-        <v>192</v>
       </c>
       <c r="D161" s="40">
         <v>679</v>
       </c>
       <c r="E161" s="27" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H161" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K161" s="29">
         <v>11</v>
@@ -6610,19 +6611,19 @@
         <v>158</v>
       </c>
       <c r="B162" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C162" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D162" s="40">
         <v>1176</v>
       </c>
       <c r="E162" s="27" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H162" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K162" s="29">
         <v>20</v>
@@ -6633,19 +6634,19 @@
         <v>159</v>
       </c>
       <c r="B163" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C163" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D163" s="40">
         <v>1325</v>
       </c>
       <c r="E163" s="27" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H163" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K163" s="29">
         <v>22</v>
@@ -6656,19 +6657,19 @@
         <v>160</v>
       </c>
       <c r="B164" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C164" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D164" s="40">
         <v>484</v>
       </c>
       <c r="E164" s="27" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H164" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K164" s="29">
         <v>8</v>
@@ -6679,19 +6680,19 @@
         <v>161</v>
       </c>
       <c r="B165" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C165" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D165" s="40">
         <v>1750</v>
       </c>
       <c r="E165" s="27" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H165" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K165" s="29">
         <v>29</v>
@@ -6702,19 +6703,19 @@
         <v>162</v>
       </c>
       <c r="B166" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C166" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D166" s="40">
         <v>1198</v>
       </c>
       <c r="E166" s="27" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H166" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K166" s="29">
         <v>20</v>
@@ -6725,19 +6726,19 @@
         <v>163</v>
       </c>
       <c r="B167" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C167" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D167" s="40">
         <v>868</v>
       </c>
       <c r="E167" s="27" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H167" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K167" s="29">
         <v>14</v>
@@ -6748,19 +6749,19 @@
         <v>164</v>
       </c>
       <c r="B168" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C168" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D168" s="40">
         <v>666</v>
       </c>
       <c r="E168" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H168" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K168" s="29">
         <v>11</v>
@@ -6771,19 +6772,19 @@
         <v>165</v>
       </c>
       <c r="B169" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C169" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D169" s="40">
         <v>1748</v>
       </c>
       <c r="E169" s="27" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H169" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K169" s="29">
         <v>29</v>
@@ -6794,19 +6795,19 @@
         <v>166</v>
       </c>
       <c r="B170" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C170" s="33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D170" s="40">
         <v>1797</v>
       </c>
       <c r="E170" s="27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H170" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K170" s="29">
         <v>30</v>
@@ -6817,19 +6818,19 @@
         <v>167</v>
       </c>
       <c r="B171" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C171" s="33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D171" s="40">
         <v>1067</v>
       </c>
       <c r="E171" s="27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H171" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K171" s="29">
         <v>18</v>
@@ -6840,19 +6841,19 @@
         <v>168</v>
       </c>
       <c r="B172" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C172" s="33" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D172" s="40">
         <v>883</v>
       </c>
       <c r="E172" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H172" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K172" s="29">
         <v>15</v>
@@ -6863,19 +6864,19 @@
         <v>169</v>
       </c>
       <c r="B173" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C173" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D173" s="40">
         <v>492</v>
       </c>
       <c r="E173" s="27" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H173" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K173" s="29">
         <v>8</v>
@@ -6886,19 +6887,19 @@
         <v>170</v>
       </c>
       <c r="B174" s="33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C174" s="33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D174" s="40">
         <v>1403</v>
       </c>
       <c r="E174" s="27" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H174" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K174" s="29">
         <v>23</v>
@@ -6909,19 +6910,19 @@
         <v>171</v>
       </c>
       <c r="B175" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C175" s="33" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D175" s="40">
         <v>1491</v>
       </c>
       <c r="E175" s="27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H175" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K175" s="29">
         <v>25</v>
@@ -6932,19 +6933,19 @@
         <v>172</v>
       </c>
       <c r="B176" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C176" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D176" s="40">
         <v>475</v>
       </c>
       <c r="E176" s="27" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H176" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K176" s="29">
         <v>8</v>
@@ -6955,19 +6956,19 @@
         <v>173</v>
       </c>
       <c r="B177" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C177" s="33" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D177" s="40">
         <v>1053</v>
       </c>
       <c r="E177" s="27" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H177" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K177" s="29">
         <v>18</v>
@@ -6978,19 +6979,19 @@
         <v>174</v>
       </c>
       <c r="B178" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C178" s="33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D178" s="40">
         <v>1368</v>
       </c>
       <c r="E178" s="27" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H178" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K178" s="29">
         <v>23</v>
@@ -7001,19 +7002,19 @@
         <v>175</v>
       </c>
       <c r="B179" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C179" s="33" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D179" s="40">
         <v>1233</v>
       </c>
       <c r="E179" s="27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H179" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K179" s="29">
         <v>21</v>
@@ -7024,19 +7025,19 @@
         <v>176</v>
       </c>
       <c r="B180" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C180" s="33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D180" s="40">
         <v>571</v>
       </c>
       <c r="E180" s="27" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H180" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K180" s="29">
         <v>10</v>
@@ -7047,19 +7048,19 @@
         <v>177</v>
       </c>
       <c r="B181" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C181" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D181" s="40">
         <v>499</v>
       </c>
       <c r="E181" s="27" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H181" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K181" s="29">
         <v>8</v>
@@ -7070,19 +7071,19 @@
         <v>178</v>
       </c>
       <c r="B182" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C182" s="33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D182" s="40">
         <v>1598</v>
       </c>
       <c r="E182" s="27" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H182" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K182" s="29">
         <v>27</v>
@@ -7093,19 +7094,19 @@
         <v>179</v>
       </c>
       <c r="B183" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C183" s="33" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D183" s="40">
         <v>1341</v>
       </c>
       <c r="E183" s="27" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H183" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K183" s="29">
         <v>22</v>
@@ -7116,19 +7117,19 @@
         <v>180</v>
       </c>
       <c r="B184" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C184" s="33" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D184" s="40">
         <v>1348</v>
       </c>
       <c r="E184" s="27" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H184" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K184" s="29">
         <v>22</v>
@@ -7139,19 +7140,19 @@
         <v>181</v>
       </c>
       <c r="B185" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C185" s="33" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D185" s="40">
         <v>1300</v>
       </c>
       <c r="E185" s="27" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H185" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K185" s="29">
         <v>22</v>
@@ -7162,19 +7163,19 @@
         <v>182</v>
       </c>
       <c r="B186" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C186" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D186" s="40">
         <v>946</v>
       </c>
       <c r="E186" s="27" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H186" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K186" s="29">
         <v>16</v>
@@ -7185,19 +7186,19 @@
         <v>183</v>
       </c>
       <c r="B187" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C187" s="33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D187" s="40">
         <v>1267</v>
       </c>
       <c r="E187" s="27" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H187" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K187" s="29">
         <v>21</v>
@@ -7208,19 +7209,19 @@
         <v>184</v>
       </c>
       <c r="B188" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C188" s="33" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D188" s="40">
         <v>770</v>
       </c>
       <c r="E188" s="27" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H188" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K188" s="29">
         <v>13</v>
@@ -7231,19 +7232,19 @@
         <v>185</v>
       </c>
       <c r="B189" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C189" s="33" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D189" s="40">
         <v>1222</v>
       </c>
       <c r="E189" s="27" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H189" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K189" s="29">
         <v>20</v>
@@ -7254,19 +7255,19 @@
         <v>186</v>
       </c>
       <c r="B190" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C190" s="33" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D190" s="40">
         <v>740</v>
       </c>
       <c r="E190" s="27" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H190" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K190" s="29">
         <v>12</v>
@@ -7277,19 +7278,19 @@
         <v>187</v>
       </c>
       <c r="B191" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C191" s="33" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D191" s="40">
         <v>1138</v>
       </c>
       <c r="E191" s="27" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H191" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K191" s="29">
         <v>19</v>
@@ -7300,19 +7301,19 @@
         <v>188</v>
       </c>
       <c r="B192" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C192" s="33" t="s">
         <v>221</v>
-      </c>
-      <c r="C192" s="33" t="s">
-        <v>222</v>
       </c>
       <c r="D192" s="40">
         <v>607</v>
       </c>
       <c r="E192" s="27" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H192" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K192" s="29">
         <v>10</v>
@@ -7323,19 +7324,19 @@
         <v>189</v>
       </c>
       <c r="B193" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C193" s="33" t="s">
         <v>234</v>
-      </c>
-      <c r="C193" s="33" t="s">
-        <v>235</v>
       </c>
       <c r="D193" s="40">
         <v>284</v>
       </c>
       <c r="E193" s="27" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H193" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K193" s="29">
         <v>5</v>
@@ -7346,19 +7347,19 @@
         <v>190</v>
       </c>
       <c r="B194" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C194" s="33" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D194" s="40">
         <v>1511</v>
       </c>
       <c r="E194" s="27" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H194" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K194" s="29">
         <v>25</v>
@@ -7369,19 +7370,19 @@
         <v>191</v>
       </c>
       <c r="B195" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C195" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D195" s="40">
         <v>1288</v>
       </c>
       <c r="E195" s="27" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H195" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K195" s="29">
         <v>21</v>
@@ -7392,19 +7393,19 @@
         <v>192</v>
       </c>
       <c r="B196" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C196" s="33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D196" s="40">
         <v>1158</v>
       </c>
       <c r="E196" s="27" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H196" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K196" s="29">
         <v>19</v>
@@ -7415,19 +7416,19 @@
         <v>193</v>
       </c>
       <c r="B197" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C197" s="33" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D197" s="40">
         <v>872</v>
       </c>
       <c r="E197" s="27" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H197" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K197" s="29">
         <v>15</v>
@@ -7438,19 +7439,19 @@
         <v>194</v>
       </c>
       <c r="B198" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C198" s="33" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D198" s="40">
         <v>942</v>
       </c>
       <c r="E198" s="27" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H198" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K198" s="29">
         <v>16</v>
@@ -7461,19 +7462,19 @@
         <v>195</v>
       </c>
       <c r="B199" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C199" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D199" s="40">
         <v>1305</v>
       </c>
       <c r="E199" s="27" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H199" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K199" s="29">
         <v>22</v>
@@ -7484,19 +7485,19 @@
         <v>196</v>
       </c>
       <c r="B200" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C200" s="33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D200" s="40">
         <v>1176</v>
       </c>
       <c r="E200" s="27" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H200" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K200" s="29">
         <v>20</v>
@@ -7507,19 +7508,19 @@
         <v>197</v>
       </c>
       <c r="B201" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C201" s="33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D201" s="40">
         <v>661</v>
       </c>
       <c r="E201" s="27" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H201" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K201" s="29">
         <v>11</v>
@@ -7530,19 +7531,19 @@
         <v>198</v>
       </c>
       <c r="B202" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C202" s="33" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D202" s="40">
         <v>1045</v>
       </c>
       <c r="E202" s="27" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H202" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K202" s="29">
         <v>17</v>
@@ -7553,19 +7554,19 @@
         <v>199</v>
       </c>
       <c r="B203" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C203" s="33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D203" s="40">
         <v>825</v>
       </c>
       <c r="E203" s="27" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H203" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K203" s="29">
         <v>14</v>
@@ -7576,19 +7577,19 @@
         <v>200</v>
       </c>
       <c r="B204" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C204" s="33" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D204" s="40">
         <v>1447</v>
       </c>
       <c r="E204" s="27" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H204" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K204" s="29">
         <v>24</v>
@@ -7602,14 +7603,14 @@
         <v>280734</v>
       </c>
       <c r="E206" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G206" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H206">
         <f>SUMIFS(K5:K204, H5:H204, "Complete")</f>
-        <v>719</v>
+        <v>768</v>
       </c>
       <c r="K206">
         <f>SUM(K5:K204)</f>
@@ -7621,15 +7622,15 @@
         <v>4679</v>
       </c>
       <c r="E207" s="29" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="208" spans="1:11">
       <c r="D208" s="29" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E208" s="29" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="209" spans="4:4">
